--- a/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.04614160233192627</v>
+        <v>0.04456723217202831</v>
       </c>
       <c r="F2">
         <v>0.5010743887562105</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.01252661259340682</v>
+        <v>0.0125097921967506</v>
       </c>
       <c r="F3">
         <v>0.5136323789968099</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>108</v>
       </c>
       <c r="E5">
-        <v>0.01449967677374698</v>
+        <v>0.01422671293969375</v>
       </c>
       <c r="F5">
         <v>0.5004594262624592</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01961583110749593</v>
+        <v>0.01835544174031376</v>
       </c>
       <c r="F6">
         <v>0.5363495196828618</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.04614160233192627</v>
+        <v>0.04456723217202831</v>
       </c>
       <c r="F2">
         <v>0.7166076890449682</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>133</v>
       </c>
       <c r="E3">
-        <v>0.01252661259340682</v>
+        <v>0.0125097921967506</v>
       </c>
       <c r="F3">
         <v>0.7302983394812551</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.01449967677374698</v>
+        <v>0.01422671293969375</v>
       </c>
       <c r="F5">
         <v>0.7089583353663157</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.01961583110749593</v>
+        <v>0.01835544174031376</v>
       </c>
       <c r="F6">
         <v>0.7128070607652868</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04614160233192627</v>
+        <v>0.04456723217202831</v>
       </c>
       <c r="F2">
         <v>0.8490381132987533</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01252661259340682</v>
+        <v>0.0125097921967506</v>
       </c>
       <c r="F3">
         <v>0.8106913260785356</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.01449967677374698</v>
+        <v>0.01422671293969375</v>
       </c>
       <c r="F5">
         <v>0.8551675171690116</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.01961583110749593</v>
+        <v>0.01835544174031376</v>
       </c>
       <c r="F6">
         <v>0.8011712150364738</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.04614160233192627</v>
+        <v>0.04456723217202831</v>
       </c>
       <c r="F2">
         <v>0.9005570778494744</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.01252661259340682</v>
+        <v>0.0125097921967506</v>
       </c>
       <c r="F3">
         <v>0.9028848437715038</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01449967677374698</v>
+        <v>0.01422671293969375</v>
       </c>
       <c r="F5">
         <v>0.9014115363448425</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.01961583110749593</v>
+        <v>0.01835544174031376</v>
       </c>
       <c r="F6">
         <v>0.9039830057554759</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>13</v>

--- a/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.901555739401241E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.179490062333015E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.569560307056338E-05</v>
+        <v>3.634161613711461E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001767860945862476</v>
+        <v>0.0001282622275956543</v>
       </c>
       <c r="F2">
-        <v>0.000259816401436903</v>
+        <v>0.0002120492008385014</v>
       </c>
       <c r="G2">
-        <v>0.000350301008902597</v>
+        <v>0.0003033584067439326</v>
       </c>
       <c r="H2">
-        <v>0.0004197598646335007</v>
+        <v>0.0003734502504013556</v>
       </c>
       <c r="I2">
-        <v>0.0004658733784382294</v>
+        <v>0.0004199840028809174</v>
       </c>
       <c r="J2">
-        <v>0.000558900986113741</v>
+        <v>0.0005138593837002843</v>
       </c>
       <c r="K2">
-        <v>0.0005062493417695649</v>
+        <v>0.0004607279178152758</v>
       </c>
       <c r="L2">
-        <v>0.0004691197587060814</v>
+        <v>0.0004232599678502853</v>
       </c>
       <c r="M2">
-        <v>0.0003005021047937946</v>
+        <v>0.0002531056785010716</v>
       </c>
       <c r="N2">
-        <v>0.0002320432191453964</v>
+        <v>0.000184022917788473</v>
       </c>
       <c r="O2">
-        <v>0.0001528980126152924</v>
+        <v>0.0001041564503097359</v>
       </c>
       <c r="P2">
-        <v>0.0001499419423713933</v>
+        <v>0.0001011734409987497</v>
       </c>
       <c r="Q2">
-        <v>6.132164505951953E-05</v>
+        <v>1.17455349571799E-05</v>
       </c>
       <c r="R2">
-        <v>2.855702635617998E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.722880742151255E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.968218209917201E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.259006598925317E-05</v>
+        <v>2.31166465276447E-05</v>
       </c>
       <c r="V2">
-        <v>0.0002511292207201421</v>
+        <v>0.0002032828526714371</v>
       </c>
       <c r="W2">
-        <v>0.0003297598272077875</v>
+        <v>0.0002826300304880777</v>
       </c>
       <c r="X2">
-        <v>0.0003130719958309098</v>
+        <v>0.0002657901206516544</v>
       </c>
       <c r="Y2">
-        <v>0.0005781609077028365</v>
+        <v>0.0005332948235541614</v>
       </c>
       <c r="Z2">
-        <v>0.000783652304657498</v>
+        <v>0.0007406588913426161</v>
       </c>
       <c r="AA2">
-        <v>0.0007130257988302541</v>
+        <v>0.0006693887566359374</v>
       </c>
       <c r="AB2">
-        <v>0.0008913562235439211</v>
+        <v>0.0008493443305776905</v>
       </c>
       <c r="AC2">
-        <v>0.0009450364379729623</v>
+        <v>0.0009035137400455644</v>
       </c>
       <c r="AD2">
-        <v>0.0008193562676033567</v>
+        <v>0.0007766882293214465</v>
       </c>
       <c r="AE2">
-        <v>0.0006703832553119079</v>
+        <v>0.0006263576058634239</v>
       </c>
       <c r="AF2">
-        <v>0.0003390951879780284</v>
+        <v>0.0002920504656609284</v>
       </c>
       <c r="AG2">
-        <v>0.0001102897890997778</v>
+        <v>6.115993230287166E-05</v>
       </c>
       <c r="AH2">
-        <v>4.061393335096994E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.646061535813064E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.368474677925737E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.653158713953866E-05</v>
+        <v>3.718521864173579E-05</v>
       </c>
       <c r="AL2">
-        <v>0.0003046809251385803</v>
+        <v>0.0002573225809996375</v>
       </c>
       <c r="AM2">
-        <v>0.0004179161644813809</v>
+        <v>0.0003715897483609217</v>
       </c>
       <c r="AN2">
-        <v>0.0007003334577830358</v>
+        <v>0.0006565807485717835</v>
       </c>
       <c r="AO2">
-        <v>0.0008869686431819112</v>
+        <v>0.000844916765603689</v>
       </c>
       <c r="AP2">
-        <v>0.00110458879113729</v>
+        <v>0.00106452011533764</v>
       </c>
       <c r="AQ2">
-        <v>0.001336162810243974</v>
+        <v>0.001298204499733928</v>
       </c>
       <c r="AR2">
-        <v>0.001281843005762162</v>
+        <v>0.001243389671542812</v>
       </c>
       <c r="AS2">
-        <v>0.001143854694377037</v>
+        <v>0.00110414385405298</v>
       </c>
       <c r="AT2">
-        <v>0.001052326686825254</v>
+        <v>0.001011781739415658</v>
       </c>
       <c r="AU2">
-        <v>0.0007686773934219497</v>
+        <v>0.0007255475117199477</v>
       </c>
       <c r="AV2">
-        <v>0.0004549200375344923</v>
+        <v>0.0004089308427032496</v>
       </c>
       <c r="AW2">
-        <v>0.0001700636740315949</v>
+        <v>0.0001214785447152218</v>
       </c>
       <c r="AX2">
-        <v>5.358709742135833E-05</v>
+        <v>3.940501342529076E-06</v>
       </c>
       <c r="AY2">
-        <v>1.647988135972024E-08</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.967840962362405E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001307087807845057</v>
+        <v>8.176500501459212E-05</v>
       </c>
       <c r="BB2">
-        <v>0.0004522977373181319</v>
+        <v>0.0004062846451111089</v>
       </c>
       <c r="BC2">
-        <v>0.0006133385506052696</v>
+        <v>0.0005687930450639778</v>
       </c>
       <c r="BD2">
-        <v>0.0008815215727324848</v>
+        <v>0.0008394200552661144</v>
       </c>
       <c r="BE2">
-        <v>0.001042510886015373</v>
+        <v>0.001001876485888245</v>
       </c>
       <c r="BF2">
-        <v>0.001148836594788083</v>
+        <v>0.001109171155194835</v>
       </c>
       <c r="BG2">
-        <v>0.001069835788269893</v>
+        <v>0.001029450403664809</v>
       </c>
       <c r="BH2">
-        <v>0.001134631193616025</v>
+        <v>0.00109483629828472</v>
       </c>
       <c r="BI2">
-        <v>0.001344848410960605</v>
+        <v>0.001306969253502107</v>
       </c>
       <c r="BJ2">
-        <v>0.001259258103898729</v>
+        <v>0.001220598950420615</v>
       </c>
       <c r="BK2">
-        <v>0.0008886685733221687</v>
+        <v>0.0008466321874367391</v>
       </c>
       <c r="BL2">
-        <v>0.000783652304657498</v>
+        <v>0.0007406588913426161</v>
       </c>
       <c r="BM2">
-        <v>0.0005559940458738955</v>
+        <v>0.0005109259521217092</v>
       </c>
       <c r="BN2">
-        <v>0.0004068786835707016</v>
+        <v>0.0003604516813970728</v>
       </c>
       <c r="BO2">
-        <v>0.000171987964190364</v>
+        <v>0.000123420371189912</v>
       </c>
       <c r="BP2">
-        <v>2.15875317811417E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>5.956565491463649E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>9.866140414034426E-05</v>
+        <v>4.942557630192319E-05</v>
       </c>
       <c r="BS2">
-        <v>0.0001767860945862476</v>
+        <v>0.0001282622275956543</v>
       </c>
       <c r="BT2">
-        <v>0.0003094166255293129</v>
+        <v>0.0002621014384671663</v>
       </c>
       <c r="BU2">
-        <v>0.0004914940405521362</v>
+        <v>0.000445838149546461</v>
       </c>
       <c r="BV2">
-        <v>0.0007316689003684571</v>
+        <v>0.0006882017552745516</v>
       </c>
       <c r="BW2">
-        <v>0.0008550651705496229</v>
+        <v>0.0008127225523195749</v>
       </c>
       <c r="BX2">
-        <v>0.001201435799127933</v>
+        <v>0.00116224970318268</v>
       </c>
       <c r="BY2">
-        <v>0.001153013395132702</v>
+        <v>0.0011133860192847</v>
       </c>
       <c r="BZ2">
-        <v>0.001300185207275538</v>
+        <v>0.001261899028014063</v>
       </c>
       <c r="CA2">
-        <v>0.001305604807722698</v>
+        <v>0.001267368018011534</v>
       </c>
       <c r="CB2">
-        <v>0.001210821699902343</v>
+        <v>0.001171721138937579</v>
       </c>
       <c r="CC2">
-        <v>0.0009795950808243229</v>
+        <v>0.000938387320473302</v>
       </c>
       <c r="CD2">
-        <v>0.0005767898475897132</v>
+        <v>0.0005319112687851875</v>
       </c>
       <c r="CE2">
-        <v>0.0003260080068982327</v>
+        <v>0.0002788440193336921</v>
       </c>
       <c r="CF2">
-        <v>0.0001087499289727272</v>
+        <v>5.960603922266201E-05</v>
       </c>
       <c r="CG2">
-        <v>8.185399675360055E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>4.383883061704941E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>6.224217513547053E-05</v>
+        <v>1.267445394794879E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.0002592841813929907</v>
+        <v>0.0002115121306014999</v>
       </c>
       <c r="CK2">
-        <v>0.0005266528434530149</v>
+        <v>0.0004813173593632461</v>
       </c>
       <c r="CL2">
-        <v>0.0006883850567971985</v>
+        <v>0.0006445234601951929</v>
       </c>
       <c r="CM2">
-        <v>0.0008859851031007614</v>
+        <v>0.00084392426238904</v>
       </c>
       <c r="CN2">
-        <v>0.002571578612175525</v>
+        <v>0.002544878812601558</v>
       </c>
       <c r="CO2">
-        <v>0.05655262666603789</v>
+        <v>0.05701786344272046</v>
       </c>
       <c r="CP2">
-        <v>0.001407224116107093</v>
+        <v>0.001369913396867889</v>
       </c>
       <c r="CQ2">
-        <v>0.1482085422283741</v>
+        <v>0.1495090517335596</v>
       </c>
       <c r="CR2">
-        <v>0.02862023836139548</v>
+        <v>0.02883092351367195</v>
       </c>
       <c r="CS2">
-        <v>0.004435237365942076</v>
+        <v>0.004425521340112621</v>
       </c>
       <c r="CT2">
-        <v>8.52827470364995E-08</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>1.271060704872537E-05</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.004621132681279906</v>
+        <v>0.004613110744547761</v>
       </c>
       <c r="CW2">
-        <v>0.02506512206807033</v>
+        <v>0.02524340896576333</v>
       </c>
       <c r="CX2">
-        <v>0.004140138341594078</v>
+        <v>0.004127733038528851</v>
       </c>
       <c r="CY2">
-        <v>0.05101112420882022</v>
+        <v>0.05142586052572289</v>
       </c>
       <c r="CZ2">
-        <v>0.04087616337260599</v>
+        <v>0.04119853842358277</v>
       </c>
       <c r="DA2">
-        <v>0.003987195728975106</v>
+        <v>0.003973396639239778</v>
       </c>
       <c r="DB2">
-        <v>0.009499894283816231</v>
+        <v>0.009536333160011038</v>
       </c>
       <c r="DC2">
-        <v>0.0007003334577830358</v>
+        <v>0.0006565807485717835</v>
       </c>
       <c r="DD2">
-        <v>0.02857961235804351</v>
+        <v>0.02878992728006851</v>
       </c>
       <c r="DE2">
-        <v>0.04464382668346793</v>
+        <v>0.04500053695868458</v>
       </c>
       <c r="DF2">
-        <v>0.003384266079228653</v>
+        <v>0.003364972410223136</v>
       </c>
       <c r="DG2">
-        <v>0.04280475353172989</v>
+        <v>0.04314470408511142</v>
       </c>
       <c r="DH2">
-        <v>4.73811839093215E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.02029609667458811</v>
+        <v>0.02043092280023739</v>
       </c>
       <c r="DJ2">
-        <v>0.0002825083733091698</v>
+        <v>0.0002349479677129736</v>
       </c>
       <c r="DK2">
-        <v>0.01593911431510269</v>
+        <v>0.01603423467248684</v>
       </c>
       <c r="DL2">
-        <v>0.007400531910602272</v>
+        <v>0.007417839014157723</v>
       </c>
       <c r="DM2">
-        <v>0.03102067955945081</v>
+        <v>0.03125324025633135</v>
       </c>
       <c r="DN2">
-        <v>0.02831118833589641</v>
+        <v>0.02851905707358078</v>
       </c>
       <c r="DO2">
-        <v>0.003055507852103505</v>
+        <v>0.003033218165004625</v>
       </c>
       <c r="DP2">
-        <v>0.009806723809132088</v>
+        <v>0.00984595886420115</v>
       </c>
       <c r="DQ2">
-        <v>0.001242372002505492</v>
+        <v>0.001203558963706415</v>
       </c>
       <c r="DR2">
-        <v>0.000432154755656177</v>
+        <v>0.0003859580977387496</v>
       </c>
       <c r="DS2">
-        <v>3.930419524290622E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001370407113069399</v>
+        <v>0.00133276087551265</v>
       </c>
       <c r="DU2">
-        <v>2.229623183961504E-06</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>9.075806348825631E-07</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>9.833358811329685E-05</v>
+        <v>4.909477284317889E-05</v>
       </c>
       <c r="DX2">
-        <v>0.0001540140127073712</v>
+        <v>0.0001052826206612705</v>
       </c>
       <c r="DY2">
-        <v>0.001030040984986508</v>
+        <v>0.000989292944968352</v>
       </c>
       <c r="DZ2">
-        <v>4.177028344637795E-05</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0005219085430615726</v>
+        <v>0.0004765298235220406</v>
       </c>
       <c r="EB2">
-        <v>0.003254515268523187</v>
+        <v>0.0032340391628684</v>
       </c>
       <c r="EC2">
-        <v>0.01308100807928637</v>
+        <v>0.01315008212881036</v>
       </c>
       <c r="ED2">
-        <v>0.03191558263328738</v>
+        <v>0.0321562987026569</v>
       </c>
       <c r="EE2">
-        <v>0.006001071495135746</v>
+        <v>0.006005625127052331</v>
       </c>
       <c r="EF2">
-        <v>0.0007989415959189852</v>
+        <v>0.0007560875159788287</v>
       </c>
       <c r="EG2">
-        <v>0.00281796723250453</v>
+        <v>0.002793512805680501</v>
       </c>
       <c r="EH2">
-        <v>0.001539750427041559</v>
+        <v>0.001503647437959798</v>
       </c>
       <c r="EI2">
-        <v>0.003812617514571026</v>
+        <v>0.003797227470006566</v>
       </c>
       <c r="EJ2">
-        <v>0.0002408158098692043</v>
+        <v>0.0001928754543155055</v>
       </c>
       <c r="EK2">
-        <v>0.006024588897076117</v>
+        <v>0.00602935684625052</v>
       </c>
       <c r="EL2">
-        <v>8.616193710903962E-08</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001901734056908064</v>
+        <v>0.001868929873498986</v>
       </c>
       <c r="EN2">
-        <v>0.001025227884589389</v>
+        <v>0.0009844359821377328</v>
       </c>
       <c r="EO2">
-        <v>0.01082197889289864</v>
+        <v>0.01087046610456601</v>
       </c>
       <c r="EP2">
-        <v>0.01084072889444567</v>
+        <v>0.01088938697740766</v>
       </c>
       <c r="EQ2">
-        <v>0.001834376651350547</v>
+        <v>0.001800958630813993</v>
       </c>
       <c r="ER2">
-        <v>1.390959114765101E-06</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.001007898483159577</v>
+        <v>0.0009669486555338957</v>
       </c>
       <c r="ET2">
-        <v>5.876219784834495E-06</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0002450280502167474</v>
+        <v>0.0001971260813778243</v>
       </c>
       <c r="EV2">
-        <v>0.0002145462777017607</v>
+        <v>0.0001663665243560549</v>
       </c>
       <c r="EW2">
-        <v>2.491578905574918E-05</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>6.514179537471209E-05</v>
+        <v>1.56004988177665E-05</v>
       </c>
       <c r="EY2">
-        <v>0.003149169059831294</v>
+        <v>0.003127732919959057</v>
       </c>
       <c r="EZ2">
-        <v>0.005019252414127926</v>
+        <v>0.005014858596251903</v>
       </c>
       <c r="FA2">
-        <v>0.009537688286934534</v>
+        <v>0.00957447158498048</v>
       </c>
       <c r="FB2">
-        <v>0.06549963140423638</v>
+        <v>0.06604640344259576</v>
       </c>
       <c r="FC2">
-        <v>0.03524371890788488</v>
+        <v>0.03551476473229374</v>
       </c>
       <c r="FD2">
-        <v>0.0005567732459381856</v>
+        <v>0.0005117122531413469</v>
       </c>
       <c r="FE2">
-        <v>0.004758914392647985</v>
+        <v>0.004752148079246708</v>
       </c>
       <c r="FF2">
-        <v>0.001375859513519265</v>
+        <v>0.001338262964423677</v>
       </c>
       <c r="FG2">
-        <v>0.008500067701322649</v>
+        <v>0.008527395022933497</v>
       </c>
       <c r="FH2">
-        <v>0.00108363078940809</v>
+        <v>0.001043371120510166</v>
       </c>
       <c r="FI2">
-        <v>0.003164353761084152</v>
+        <v>0.003143056001443776</v>
       </c>
       <c r="FJ2">
-        <v>0.005752693474642599</v>
+        <v>0.00575498360413706</v>
       </c>
       <c r="FK2">
-        <v>0.0006458103832844519</v>
+        <v>0.0006015607979367999</v>
       </c>
       <c r="FL2">
-        <v>0.0001253070503388203</v>
+        <v>7.631404787033168E-05</v>
       </c>
       <c r="FM2">
-        <v>0.01354911911790923</v>
+        <v>0.01362245912650497</v>
       </c>
       <c r="FN2">
-        <v>0.01744799143959696</v>
+        <v>0.01755686239785634</v>
       </c>
       <c r="FO2">
-        <v>0.002963260044492334</v>
+        <v>0.002940129690672827</v>
       </c>
       <c r="FP2">
-        <v>0.001808744149235663</v>
+        <v>0.001775092536247946</v>
       </c>
       <c r="FQ2">
-        <v>0.004485374670078799</v>
+        <v>0.004476115552268528</v>
       </c>
       <c r="FR2">
-        <v>0.0004141798141731025</v>
+        <v>0.0003678193481880221</v>
       </c>
       <c r="FS2">
-        <v>0.00541148744649041</v>
+        <v>0.005410668119400778</v>
       </c>
       <c r="FT2">
-        <v>0.003137215758845052</v>
+        <v>0.003115670686927696</v>
       </c>
       <c r="FU2">
-        <v>7.178852792311996E-06</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>8.678317716029682E-05</v>
+        <v>3.743910143630799E-05</v>
       </c>
       <c r="FW2">
-        <v>7.413325611657852E-05</v>
+        <v>2.467389995487101E-05</v>
       </c>
       <c r="FX2">
-        <v>0.0004561376776349573</v>
+        <v>0.0004101595793222842</v>
       </c>
       <c r="FY2">
-        <v>0.001010760483395715</v>
+        <v>0.0009698367375644438</v>
       </c>
       <c r="FZ2">
-        <v>0.005251430433284444</v>
+        <v>0.005249152485031995</v>
       </c>
       <c r="GA2">
-        <v>0.003920918623506723</v>
+        <v>0.003906515541564431</v>
       </c>
       <c r="GB2">
-        <v>0.001407224116107093</v>
+        <v>0.001369913396867889</v>
       </c>
       <c r="GC2">
-        <v>0.0002384914596774271</v>
+        <v>0.0001905299220067337</v>
       </c>
       <c r="GD2">
-        <v>0.003375537278508458</v>
+        <v>0.00335616406276393</v>
       </c>
       <c r="GE2">
-        <v>7.650474631224518E-05</v>
+        <v>2.706700186074971E-05</v>
       </c>
       <c r="GF2">
-        <v>0.001586048030861476</v>
+        <v>0.001550366958091702</v>
       </c>
       <c r="GG2">
-        <v>0.001425305517598951</v>
+        <v>0.001388159576611828</v>
       </c>
       <c r="GH2">
-        <v>0.0002901812239422404</v>
+        <v>0.0002426907420693998</v>
       </c>
       <c r="GI2">
-        <v>0.005072579718527849</v>
+        <v>0.005068671879573934</v>
       </c>
       <c r="GJ2">
-        <v>0.0009984825823826909</v>
+        <v>0.0009574469463824494</v>
       </c>
       <c r="GK2">
-        <v>0.000196470386210357</v>
+        <v>0.0001481259048259479</v>
       </c>
       <c r="GL2">
-        <v>0.00345450368502381</v>
+        <v>0.003435850100799249</v>
       </c>
       <c r="GM2">
-        <v>0.0008700579217866431</v>
+        <v>0.0008278519345220563</v>
       </c>
       <c r="GN2">
-        <v>1.176533447073292E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001256063303635133</v>
+        <v>0.001217375035511043</v>
       </c>
       <c r="GP2">
-        <v>0.007126449287988293</v>
+        <v>0.007141258639613369</v>
       </c>
       <c r="GQ2">
-        <v>0.0004854544900538256</v>
+        <v>0.0004397435598093549</v>
       </c>
       <c r="GR2">
-        <v>0.001210821699902343</v>
+        <v>0.001171721138937579</v>
       </c>
       <c r="GS2">
-        <v>0.0006481017534735081</v>
+        <v>0.0006038730496916347</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002503442127433845</v>
+        <v>0.0001762789496613614</v>
       </c>
       <c r="C3">
-        <v>0.000233627281892435</v>
+        <v>0.000159349496163825</v>
       </c>
       <c r="D3">
-        <v>0.0002503442127433845</v>
+        <v>0.0001762789496613614</v>
       </c>
       <c r="E3">
-        <v>7.6278167882822E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8.920089454063339E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001417265372143699</v>
+        <v>6.628041564370638E-05</v>
       </c>
       <c r="H3">
-        <v>7.292753371226316E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001541745078480146</v>
+        <v>7.888663755489035E-05</v>
       </c>
       <c r="J3">
-        <v>0.0003720160689369018</v>
+        <v>0.0002994976223802295</v>
       </c>
       <c r="K3">
-        <v>0.0001724818387799209</v>
+        <v>9.74267099185991E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001368940369683789</v>
+        <v>6.138647973401214E-05</v>
       </c>
       <c r="M3">
-        <v>0.000317875616180966</v>
+        <v>0.0002446688810616563</v>
       </c>
       <c r="N3">
-        <v>0.0004959081652434371</v>
+        <v>0.0004249647611651378</v>
       </c>
       <c r="O3">
-        <v>0.0005636085686896213</v>
+        <v>0.0004935258410742249</v>
       </c>
       <c r="P3">
-        <v>0.0005515235280744511</v>
+        <v>0.000481287163117455</v>
       </c>
       <c r="Q3">
-        <v>0.0003626971384625361</v>
+        <v>0.0002900602201728985</v>
       </c>
       <c r="R3">
-        <v>0.000416196671185847</v>
+        <v>0.0003442398934307907</v>
       </c>
       <c r="S3">
-        <v>0.0003242952365077468</v>
+        <v>0.000251170114138654</v>
       </c>
       <c r="T3">
-        <v>0.0001181239760129181</v>
+        <v>4.237779465152579E-05</v>
       </c>
       <c r="U3">
-        <v>2.870782446132734E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.951292150230957E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.10621496353777E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.281685367049111E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5.633102286744348E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002807741542923735</v>
+        <v>0.0002070957476118717</v>
       </c>
       <c r="AA3">
-        <v>0.0004121136909780092</v>
+        <v>0.0003401050062211553</v>
       </c>
       <c r="AB3">
-        <v>0.0003402284173188007</v>
+        <v>0.0002673058537677532</v>
       </c>
       <c r="AC3">
-        <v>0.0003588862782685502</v>
+        <v>0.0002862009124438106</v>
       </c>
       <c r="AD3">
-        <v>0.0004852298546998743</v>
+        <v>0.0004141506970650143</v>
       </c>
       <c r="AE3">
-        <v>0.000312949055930187</v>
+        <v>0.0002396796893606189</v>
       </c>
       <c r="AF3">
-        <v>0.000233627281892435</v>
+        <v>0.000159349496163825</v>
       </c>
       <c r="AG3">
-        <v>0.0002324553118327777</v>
+        <v>0.0001581626268274392</v>
       </c>
       <c r="AH3">
-        <v>0.0001755740789373266</v>
+        <v>0.0001005582617814843</v>
       </c>
       <c r="AI3">
-        <v>6.366159324059482E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0001099704005978729</v>
+        <v>3.412056268362406E-05</v>
       </c>
       <c r="AK3">
-        <v>8.786243847250136E-05</v>
+        <v>1.173154163281813E-05</v>
       </c>
       <c r="AL3">
-        <v>1.052744853588346E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.428804572731084E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.433703072980435E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.677677636303033E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.465366329109459E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.17418991067377E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.762923191545777E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.000167808718542043</v>
+        <v>9.269418021796583E-05</v>
       </c>
       <c r="AT3">
-        <v>3.985901802896159E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>9.666970892082182E-05</v>
+        <v>2.065077907086732E-05</v>
       </c>
       <c r="AV3">
-        <v>0.0003396811172909413</v>
+        <v>0.0002667515959046647</v>
       </c>
       <c r="AW3">
-        <v>0.0002650660634927775</v>
+        <v>0.0001911879595676485</v>
       </c>
       <c r="AX3">
-        <v>0.0002018680902757825</v>
+        <v>0.0001271865493653145</v>
       </c>
       <c r="AY3">
-        <v>0.0003477463777014908</v>
+        <v>0.000274919390117809</v>
       </c>
       <c r="AZ3">
-        <v>5.197058264548202E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.427957876301789E-07</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.371355869806747E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>7.468629380179013E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.265288817117922E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>5.964345803605786E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>3.106197158116156E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.281685367049111E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.4279933781105E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0002676386936237332</v>
+        <v>0.0001937932955923472</v>
       </c>
       <c r="BJ3">
-        <v>0.0001516934377217195</v>
+        <v>7.637402553886032E-05</v>
       </c>
       <c r="BK3">
-        <v>5.108152860022611E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>5.633102286744348E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001436094073102145</v>
+        <v>6.818722270139619E-05</v>
       </c>
       <c r="BN3">
-        <v>0.0001782972190759438</v>
+        <v>0.0001033160212503151</v>
       </c>
       <c r="BO3">
-        <v>0.0001454553074041772</v>
+        <v>7.005658975689635E-05</v>
       </c>
       <c r="BP3">
-        <v>0.0001151283158604286</v>
+        <v>3.934405061691955E-05</v>
       </c>
       <c r="BQ3">
-        <v>2.536058129094112E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>7.875647400897633E-05</v>
+        <v>2.509812877105154E-06</v>
       </c>
       <c r="BS3">
-        <v>4.522418930206731E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.0583614047777E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.328960373069378E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.832586993285003E-08</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.228130164322967E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>3.377437771923239E-07</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>6.990012355815754E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001159094259001898</v>
+        <v>4.013509092285257E-05</v>
       </c>
       <c r="CA3">
-        <v>7.601912386963577E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0002069904205365268</v>
+        <v>0.000132373999904022</v>
       </c>
       <c r="CC3">
-        <v>0.0001142622698163439</v>
+        <v>3.846699451369203E-05</v>
       </c>
       <c r="CD3">
-        <v>0.0001300941766222426</v>
+        <v>5.45001726393627E-05</v>
       </c>
       <c r="CE3">
-        <v>0.0001918159597640944</v>
+        <v>0.0001170066259352235</v>
       </c>
       <c r="CF3">
-        <v>7.917488403027486E-05</v>
+        <v>2.933542152630289E-06</v>
       </c>
       <c r="CG3">
-        <v>2.150390809462314E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.70422743765451E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>2.135134108685695E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>6.00887900587268E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>4.968088252892839E-08</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>3.09166895737662E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.372872769883962E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.002990038552203282</v>
+        <v>0.002950803073191835</v>
       </c>
       <c r="CO3">
-        <v>0.105826695386944</v>
+        <v>0.1070948242005493</v>
       </c>
       <c r="CP3">
-        <v>0.007856989399947877</v>
+        <v>0.007879627555767703</v>
       </c>
       <c r="CQ3">
-        <v>0.1427313572655187</v>
+        <v>0.1444686557182019</v>
       </c>
       <c r="CR3">
-        <v>0.01006443751231461</v>
+        <v>0.01011513899621938</v>
       </c>
       <c r="CS3">
-        <v>0.01495458726124011</v>
+        <v>0.01506745730802968</v>
       </c>
       <c r="CT3">
-        <v>2.292454016693821E-07</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0002650660634927775</v>
+        <v>0.0001911879595676485</v>
       </c>
       <c r="CV3">
-        <v>0.002056759104696137</v>
+        <v>0.002005658827058801</v>
       </c>
       <c r="CW3">
-        <v>0.02716635538286125</v>
+        <v>0.0274344738603498</v>
       </c>
       <c r="CX3">
-        <v>0.001298785166112648</v>
+        <v>0.001238048751979445</v>
       </c>
       <c r="CY3">
-        <v>0.05218383265633719</v>
+        <v>0.05276999877836606</v>
       </c>
       <c r="CZ3">
-        <v>0.03109883158303786</v>
+        <v>0.03141694370213164</v>
       </c>
       <c r="DA3">
-        <v>0.001670617885040216</v>
+        <v>0.001614608587039675</v>
       </c>
       <c r="DB3">
-        <v>0.005142264761759024</v>
+        <v>0.005130390573775626</v>
       </c>
       <c r="DC3">
-        <v>0.0005808463295670828</v>
+        <v>0.0005109827459198929</v>
       </c>
       <c r="DD3">
-        <v>0.0508373405877961</v>
+        <v>0.05140638873161677</v>
       </c>
       <c r="DE3">
-        <v>0.04438073225913244</v>
+        <v>0.04486769742359419</v>
       </c>
       <c r="DF3">
-        <v>0.005777332794086179</v>
+        <v>0.005773532237572356</v>
       </c>
       <c r="DG3">
-        <v>0.03078373656699844</v>
+        <v>0.03109784287741046</v>
       </c>
       <c r="DH3">
-        <v>0.002110679707440882</v>
+        <v>0.002060264923408983</v>
       </c>
       <c r="DI3">
-        <v>0.02123029408069524</v>
+        <v>0.0214229473026601</v>
       </c>
       <c r="DJ3">
-        <v>3.905529798804946E-05</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.02042097903949831</v>
+        <v>0.02060334342459405</v>
       </c>
       <c r="DL3">
-        <v>0.002839240344527133</v>
+        <v>0.002798087765153086</v>
       </c>
       <c r="DM3">
-        <v>0.0345858217605377</v>
+        <v>0.03494826404931109</v>
       </c>
       <c r="DN3">
-        <v>0.0156771197980195</v>
+        <v>0.01579917541411787</v>
       </c>
       <c r="DO3">
-        <v>0.00956463848687311</v>
+        <v>0.009608986016658227</v>
       </c>
       <c r="DP3">
-        <v>0.01118466456933803</v>
+        <v>0.01124960752023573</v>
       </c>
       <c r="DQ3">
-        <v>0.002301554517157068</v>
+        <v>0.002253566328059931</v>
       </c>
       <c r="DR3">
-        <v>0.001237585662997382</v>
+        <v>0.001176071218465667</v>
       </c>
       <c r="DS3">
-        <v>0.001471899074924743</v>
+        <v>0.001413363461069402</v>
       </c>
       <c r="DT3">
-        <v>0.002502175427369365</v>
+        <v>0.002456737735560226</v>
       </c>
       <c r="DU3">
-        <v>7.227340367896569E-05</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>2.544054129501136E-07</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>8.70435044308148E-06</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0001022842892066233</v>
+        <v>2.633673761817225E-05</v>
       </c>
       <c r="DY3">
-        <v>0.0004722623840397853</v>
+        <v>0.0004010183707140816</v>
       </c>
       <c r="DZ3">
-        <v>7.361975374749956E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0005788990794679612</v>
+        <v>0.0005090107403947712</v>
       </c>
       <c r="EB3">
-        <v>0.000760600998717216</v>
+        <v>0.0006930226394550979</v>
       </c>
       <c r="EC3">
-        <v>0.02203192812150118</v>
+        <v>0.0222347725316372</v>
       </c>
       <c r="ED3">
-        <v>0.03083835656977878</v>
+        <v>0.03115315726528164</v>
       </c>
       <c r="EE3">
-        <v>0.004695762639030526</v>
+        <v>0.004678212061423037</v>
       </c>
       <c r="EF3">
-        <v>0.0005894134800031804</v>
+        <v>0.0005196588106956276</v>
       </c>
       <c r="EG3">
-        <v>0.00121428976181154</v>
+        <v>0.001152479156063464</v>
       </c>
       <c r="EH3">
-        <v>0.002978854751633988</v>
+        <v>0.00293947709276207</v>
       </c>
       <c r="EI3">
-        <v>0.004382031223060513</v>
+        <v>0.004360492172243803</v>
       </c>
       <c r="EJ3">
-        <v>0.0002129231108385212</v>
+        <v>0.0001383821126059535</v>
       </c>
       <c r="EK3">
-        <v>0.003775838192203196</v>
+        <v>0.003746592598336866</v>
       </c>
       <c r="EL3">
-        <v>0.0005808463295670828</v>
+        <v>0.0005109827459198929</v>
       </c>
       <c r="EM3">
-        <v>0.002870908346139144</v>
+        <v>0.002830158362646764</v>
       </c>
       <c r="EN3">
-        <v>0.001361159069287695</v>
+        <v>0.001301215615722369</v>
       </c>
       <c r="EO3">
-        <v>0.01289066065617912</v>
+        <v>0.01297729196642192</v>
       </c>
       <c r="EP3">
-        <v>0.01195808360870773</v>
+        <v>0.01203285904994909</v>
       </c>
       <c r="EQ3">
-        <v>0.002498336727173962</v>
+        <v>0.002452850233899275</v>
       </c>
       <c r="ER3">
-        <v>8.69227544246682E-06</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0004977105653351855</v>
+        <v>0.0004267900752021028</v>
       </c>
       <c r="ET3">
-        <v>0.000681604234696008</v>
+        <v>0.000613021588133112</v>
       </c>
       <c r="EU3">
-        <v>0.001334851867948567</v>
+        <v>0.001274573970453148</v>
       </c>
       <c r="EV3">
-        <v>0.0007388798776115359</v>
+        <v>0.0006710253773409172</v>
       </c>
       <c r="EW3">
-        <v>0.0001837509093535555</v>
+        <v>0.0001088390443918237</v>
       </c>
       <c r="EX3">
-        <v>0.001572729280057348</v>
+        <v>0.001515475522437566</v>
       </c>
       <c r="EY3">
-        <v>0.007671729390517504</v>
+        <v>0.007692012332460937</v>
       </c>
       <c r="EZ3">
-        <v>0.006209143716066845</v>
+        <v>0.006210832779674246</v>
       </c>
       <c r="FA3">
-        <v>0.01148478658461527</v>
+        <v>0.01155354499216315</v>
       </c>
       <c r="FB3">
-        <v>0.0650524633113949</v>
+        <v>0.06580222856948216</v>
       </c>
       <c r="FC3">
-        <v>0.02714105438157334</v>
+        <v>0.02740885120697139</v>
       </c>
       <c r="FD3">
-        <v>0.001907535197100125</v>
+        <v>0.001854537833205801</v>
       </c>
       <c r="FE3">
-        <v>0.003873960997197985</v>
+        <v>0.003845962840339917</v>
       </c>
       <c r="FF3">
-        <v>0.002959333150640271</v>
+        <v>0.002919707313299124</v>
       </c>
       <c r="FG3">
-        <v>0.01156170258853056</v>
+        <v>0.01163143883063807</v>
       </c>
       <c r="FH3">
-        <v>0.002147283109304121</v>
+        <v>0.002097333664987235</v>
       </c>
       <c r="FI3">
-        <v>0.001935579198527662</v>
+        <v>0.001882938358534609</v>
       </c>
       <c r="FJ3">
-        <v>0.003620228184282109</v>
+        <v>0.003589004317548967</v>
       </c>
       <c r="FK3">
-        <v>0.0001596752881280233</v>
+        <v>8.445734935485475E-05</v>
       </c>
       <c r="FL3">
-        <v>5.690869289684888E-05</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.009412582479132934</v>
+        <v>0.009454996918120313</v>
       </c>
       <c r="FN3">
-        <v>0.01055770703742373</v>
+        <v>0.01061467946579143</v>
       </c>
       <c r="FO3">
-        <v>0.0009245693070637688</v>
+        <v>0.0008590754798941082</v>
       </c>
       <c r="FP3">
-        <v>0.000593147030193231</v>
+        <v>0.0005234398255772911</v>
       </c>
       <c r="FQ3">
-        <v>0.001148330258453973</v>
+        <v>0.001085681108337551</v>
       </c>
       <c r="FR3">
-        <v>0.002257764914928026</v>
+        <v>0.002209220027819652</v>
       </c>
       <c r="FS3">
-        <v>0.004734421240998381</v>
+        <v>0.004717362130902293</v>
       </c>
       <c r="FT3">
-        <v>0.001727747587948315</v>
+        <v>0.001672464580902078</v>
       </c>
       <c r="FU3">
-        <v>2.495497927029457E-05</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>6.527242332259162E-05</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>3.500791878202389E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>2.99314615236147E-05</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0003976960602441021</v>
+        <v>0.0003255040838849556</v>
       </c>
       <c r="FZ3">
-        <v>0.001826992893000244</v>
+        <v>0.001772971593325953</v>
       </c>
       <c r="GA3">
-        <v>0.001706539086868729</v>
+        <v>0.001650986455761726</v>
       </c>
       <c r="GB3">
-        <v>4.318265819814634E-05</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.00187304489534445</v>
+        <v>0.001819609055615294</v>
       </c>
       <c r="GD3">
-        <v>0.005338622571754314</v>
+        <v>0.005329244684188157</v>
       </c>
       <c r="GE3">
-        <v>0.0002058873804803782</v>
+        <v>0.0001312569368795359</v>
       </c>
       <c r="GF3">
-        <v>0.0006089315009967151</v>
+        <v>0.000539424964645784</v>
       </c>
       <c r="GG3">
-        <v>0.0003835351195232613</v>
+        <v>0.0003111631148666369</v>
       </c>
       <c r="GH3">
-        <v>0.001034244452646612</v>
+        <v>0.0009701449276016596</v>
       </c>
       <c r="GI3">
-        <v>0.006186982314938753</v>
+        <v>0.006188389640249704</v>
       </c>
       <c r="GJ3">
-        <v>0.0009750395496328783</v>
+        <v>0.0009101873515768575</v>
       </c>
       <c r="GK3">
-        <v>0.0001925254698002109</v>
+        <v>0.0001177251559853605</v>
       </c>
       <c r="GL3">
-        <v>0.002220034513007419</v>
+        <v>0.002171009958611763</v>
       </c>
       <c r="GM3">
-        <v>0.0002478562626167392</v>
+        <v>0.0001737593701794113</v>
       </c>
       <c r="GN3">
-        <v>3.149131760301675E-05</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002495983927054197</v>
+        <v>0.002450467522588706</v>
       </c>
       <c r="GP3">
-        <v>0.01037747352824922</v>
+        <v>0.01043215464472989</v>
       </c>
       <c r="GQ3">
-        <v>0.0008522451433822191</v>
+        <v>0.0007858318578015118</v>
       </c>
       <c r="GR3">
-        <v>0.0003720160689369018</v>
+        <v>0.0002994976223802295</v>
       </c>
       <c r="GS3">
-        <v>1.118846856953167E-05</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.518609989758143E-05</v>
+        <v>5.131391500186956E-06</v>
       </c>
       <c r="C4">
-        <v>2.696171170587419E-08</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.783717177601887E-05</v>
+        <v>5.788239444726141E-05</v>
       </c>
       <c r="E4">
-        <v>4.858594127200982E-05</v>
+        <v>3.859462535119321E-05</v>
       </c>
       <c r="F4">
-        <v>1.530355640065651E-05</v>
+        <v>5.249070934219604E-06</v>
       </c>
       <c r="G4">
-        <v>9.438876647115593E-05</v>
+        <v>8.448438373337713E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001406303036817878</v>
+        <v>0.000130813686796897</v>
       </c>
       <c r="I4">
-        <v>4.515401918215998E-05</v>
+        <v>3.51561895166145E-05</v>
       </c>
       <c r="J4">
-        <v>8.124252212697918E-05</v>
+        <v>7.131318798367325E-05</v>
       </c>
       <c r="K4">
-        <v>0.0003240217684830891</v>
+        <v>0.0003145532262793523</v>
       </c>
       <c r="L4">
-        <v>0.0003549609492930959</v>
+        <v>0.0003455511292633014</v>
       </c>
       <c r="M4">
-        <v>3.338925087415111E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001017861626648243</v>
+        <v>9.189582009147886E-05</v>
       </c>
       <c r="O4">
-        <v>2.389648362562463E-09</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001307042534219177</v>
+        <v>0.0001208687970191514</v>
       </c>
       <c r="Q4">
-        <v>5.508012444203152E-05</v>
+        <v>4.510113439875076E-05</v>
       </c>
       <c r="R4">
-        <v>1.355926935499001E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.006442926349295E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3.929330402872286E-05</v>
+        <v>2.928435079992661E-05</v>
       </c>
       <c r="U4">
-        <v>2.296452360122535E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.597679146550682E-05</v>
+        <v>4.599950328489799E-05</v>
       </c>
       <c r="W4">
-        <v>1.094166928645963E-05</v>
+        <v>8.789050134373167E-07</v>
       </c>
       <c r="X4">
-        <v>1.391182336422009E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.012691778874123E-05</v>
+        <v>2.010056687477315E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0001859442748681354</v>
+        <v>0.0001762136633275478</v>
       </c>
       <c r="AA4">
-        <v>0.0001280808433532352</v>
+        <v>0.0001182404077513324</v>
       </c>
       <c r="AB4">
-        <v>0.0001022926176780836</v>
+        <v>9.240323634994906E-05</v>
       </c>
       <c r="AC4">
-        <v>0.0002553624866855469</v>
+        <v>0.0002457636300331751</v>
       </c>
       <c r="AD4">
-        <v>0.0004036618405681151</v>
+        <v>0.0003943444542141235</v>
       </c>
       <c r="AE4">
-        <v>0.000331190808670779</v>
+        <v>0.0003217358732146637</v>
       </c>
       <c r="AF4">
-        <v>8.601039225180494E-05</v>
+        <v>7.609010746570482E-05</v>
       </c>
       <c r="AG4">
-        <v>2.091955954768693E-05</v>
+        <v>1.087573318420707E-05</v>
       </c>
       <c r="AH4">
-        <v>0.0001459717538216303</v>
+        <v>0.0001361652749415606</v>
       </c>
       <c r="AI4">
-        <v>0.0001335280434958463</v>
+        <v>0.0001236979466109327</v>
       </c>
       <c r="AJ4">
-        <v>2.783317072868952E-05</v>
+        <v>1.780246631180657E-05</v>
       </c>
       <c r="AK4">
-        <v>8.929607233782607E-05</v>
+        <v>7.938202373098082E-05</v>
       </c>
       <c r="AL4">
-        <v>0.0001095150468671712</v>
+        <v>9.963937361830783E-05</v>
       </c>
       <c r="AM4">
-        <v>4.588692420134789E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.14618318000778E-05</v>
+        <v>1.40005478892873E-06</v>
       </c>
       <c r="AO4">
-        <v>2.269868059426541E-05</v>
+        <v>1.265823098003445E-05</v>
       </c>
       <c r="AP4">
-        <v>5.563968945668128E-05</v>
+        <v>4.566176146072246E-05</v>
       </c>
       <c r="AQ4">
-        <v>9.438876647115593E-05</v>
+        <v>8.448438373337713E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0003290045486135414</v>
+        <v>0.0003195454636634833</v>
       </c>
       <c r="AS4">
-        <v>0.0004519680618328017</v>
+        <v>0.0004427423600759242</v>
       </c>
       <c r="AT4">
-        <v>0.0003163959082834394</v>
+        <v>0.0003069128922934749</v>
       </c>
       <c r="AU4">
-        <v>0.0003290045486135414</v>
+        <v>0.0003195454636634833</v>
       </c>
       <c r="AV4">
-        <v>0.0003483794691207887</v>
+        <v>0.000338957157524852</v>
       </c>
       <c r="AW4">
-        <v>0.0005798354551804487</v>
+        <v>0.0005708524441192242</v>
       </c>
       <c r="AX4">
-        <v>0.0009977929261228322</v>
+        <v>0.0009896031930562614</v>
       </c>
       <c r="AY4">
-        <v>0.0008340797218367199</v>
+        <v>0.0008255792631786156</v>
       </c>
       <c r="AZ4">
-        <v>0.0002427822563561888</v>
+        <v>0.0002331595225857325</v>
       </c>
       <c r="BA4">
-        <v>6.845801179227283E-05</v>
+        <v>5.850441281001552E-05</v>
       </c>
       <c r="BB4">
-        <v>4.249898111264945E-05</v>
+        <v>3.249611221842178E-05</v>
       </c>
       <c r="BC4">
-        <v>2.329978361000266E-05</v>
+        <v>1.326047488169445E-05</v>
       </c>
       <c r="BD4">
-        <v>1.751611045858254E-05</v>
+        <v>7.465824391769178E-06</v>
       </c>
       <c r="BE4">
-        <v>1.901575949784428E-05</v>
+        <v>8.968319745943929E-06</v>
       </c>
       <c r="BF4">
-        <v>6.883188180206098E-05</v>
+        <v>5.887899242035455E-05</v>
       </c>
       <c r="BG4">
-        <v>0.0001653540843290716</v>
+        <v>0.0001555843928672098</v>
       </c>
       <c r="BH4">
-        <v>0.0003270975785636157</v>
+        <v>0.0003176348742085171</v>
       </c>
       <c r="BI4">
-        <v>0.0005197834836082511</v>
+        <v>0.0005106864946643574</v>
       </c>
       <c r="BJ4">
-        <v>0.0008397362219848105</v>
+        <v>0.0008312464992924593</v>
       </c>
       <c r="BK4">
-        <v>0.001044087627334856</v>
+        <v>0.001035985761025776</v>
       </c>
       <c r="BL4">
-        <v>0.0007370239692957406</v>
+        <v>0.0007283393000466121</v>
       </c>
       <c r="BM4">
-        <v>0.0005839476152881076</v>
+        <v>0.000574972409054768</v>
       </c>
       <c r="BN4">
-        <v>0.0007541364197437551</v>
+        <v>0.000745484229709185</v>
       </c>
       <c r="BO4">
-        <v>0.0003827851100215495</v>
+        <v>0.0003734280998969729</v>
       </c>
       <c r="BP4">
-        <v>0.0002565657067170479</v>
+        <v>0.0002469691337610809</v>
       </c>
       <c r="BQ4">
-        <v>0.0002357252761714326</v>
+        <v>0.0002260891483418233</v>
       </c>
       <c r="BR4">
-        <v>0.0001022926176780836</v>
+        <v>9.240323634994906E-05</v>
       </c>
       <c r="BS4">
-        <v>4.588692420134789E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.743781871833896E-05</v>
+        <v>1.74063639283397E-05</v>
       </c>
       <c r="BU4">
-        <v>4.817005526112166E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>8.169506213882696E-05</v>
+        <v>7.176658691074101E-05</v>
       </c>
       <c r="BW4">
-        <v>5.886397154109497E-05</v>
+        <v>4.889216319176037E-05</v>
       </c>
       <c r="BX4">
-        <v>0.0001549497140566788</v>
+        <v>0.0001451602752316063</v>
       </c>
       <c r="BY4">
-        <v>0.0004686404522692952</v>
+        <v>0.0004594463944986389</v>
       </c>
       <c r="BZ4">
-        <v>0.0002627054068777891</v>
+        <v>0.0002531204869950887</v>
       </c>
       <c r="CA4">
-        <v>0.0001939595150779794</v>
+        <v>0.0001842441163619549</v>
       </c>
       <c r="CB4">
-        <v>0.0005950248655781168</v>
+        <v>0.0005860706838257525</v>
       </c>
       <c r="CC4">
-        <v>0.0007188975788211806</v>
+        <v>0.0007101785059121449</v>
       </c>
       <c r="CD4">
-        <v>0.0005512222544313375</v>
+        <v>0.0005421849358769135</v>
       </c>
       <c r="CE4">
-        <v>0.0001860126248699249</v>
+        <v>0.0001762821430567764</v>
       </c>
       <c r="CF4">
-        <v>0.0003765328198578608</v>
+        <v>0.0003671639429656156</v>
       </c>
       <c r="CG4">
-        <v>0.0006329113165700074</v>
+        <v>0.0006240290428225404</v>
       </c>
       <c r="CH4">
-        <v>0.0002834141274199561</v>
+        <v>0.000273868512426977</v>
       </c>
       <c r="CI4">
-        <v>2.366421561954371E-05</v>
+        <v>1.362559857858126E-05</v>
       </c>
       <c r="CJ4">
-        <v>5.415380141777982E-05</v>
+        <v>4.417305322511265E-05</v>
       </c>
       <c r="CK4">
-        <v>0.0001228026132150479</v>
+        <v>0.0001129521595990876</v>
       </c>
       <c r="CL4">
-        <v>4.911156528577098E-05</v>
+        <v>3.912124699268582E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001224694932063266</v>
+        <v>0.0001126184073328021</v>
       </c>
       <c r="CN4">
-        <v>0.0349929939161381</v>
+        <v>0.03504932664467128</v>
       </c>
       <c r="CO4">
-        <v>0.01919780550261035</v>
+        <v>0.01922415916326945</v>
       </c>
       <c r="CP4">
-        <v>0.094643766477832</v>
+        <v>0.09481331561838575</v>
       </c>
       <c r="CQ4">
-        <v>0.08692599227577591</v>
+        <v>0.08708089317848768</v>
       </c>
       <c r="CR4">
-        <v>5.541553545081278E-05</v>
+        <v>4.543718201338532E-05</v>
       </c>
       <c r="CS4">
-        <v>3.483872091209913E-05</v>
+        <v>2.482131294087705E-05</v>
       </c>
       <c r="CT4">
-        <v>8.416051220337395E-05</v>
+        <v>7.423671636833417E-05</v>
       </c>
       <c r="CU4">
-        <v>0.009115577238651416</v>
+        <v>0.009122794957558258</v>
       </c>
       <c r="CV4">
-        <v>0.01402411436715994</v>
+        <v>0.0140406484274668</v>
       </c>
       <c r="CW4">
-        <v>0.03072285080434312</v>
+        <v>0.03077107885524733</v>
       </c>
       <c r="CX4">
-        <v>0.02310567760492085</v>
+        <v>0.02313944835741394</v>
       </c>
       <c r="CY4">
-        <v>0.05247160537373888</v>
+        <v>0.05256111228579642</v>
       </c>
       <c r="CZ4">
-        <v>0.004871008627526</v>
+        <v>0.004870170208882744</v>
       </c>
       <c r="DA4">
-        <v>0.002506355865617937</v>
+        <v>0.002501029365934307</v>
       </c>
       <c r="DB4">
-        <v>0.006538413671179689</v>
+        <v>0.006540739966224461</v>
       </c>
       <c r="DC4">
-        <v>0.01467268938414003</v>
+        <v>0.01469045443162769</v>
       </c>
       <c r="DD4">
-        <v>0.06984040182846465</v>
+        <v>0.06996287449655973</v>
       </c>
       <c r="DE4">
-        <v>0.004014486105101715</v>
+        <v>0.004012022017541876</v>
       </c>
       <c r="DF4">
-        <v>0.02831651874134387</v>
+        <v>0.02836017960442128</v>
       </c>
       <c r="DG4">
-        <v>0.006459597169116225</v>
+        <v>0.006461773871436738</v>
       </c>
       <c r="DH4">
-        <v>0.01179864730889584</v>
+        <v>0.0118109574608678</v>
       </c>
       <c r="DI4">
-        <v>0.00645717916905292</v>
+        <v>0.00645935128203989</v>
       </c>
       <c r="DJ4">
-        <v>0.01146126230006289</v>
+        <v>0.01147293209955442</v>
       </c>
       <c r="DK4">
-        <v>0.02331190761032007</v>
+        <v>0.02334606978475558</v>
       </c>
       <c r="DL4">
-        <v>0.007957681208336986</v>
+        <v>0.007962701255220226</v>
       </c>
       <c r="DM4">
-        <v>0.03674384096197635</v>
+        <v>0.03680349677606256</v>
       </c>
       <c r="DN4">
-        <v>0.0001211414531715577</v>
+        <v>0.0001112878466948407</v>
       </c>
       <c r="DO4">
-        <v>0.01758005146025655</v>
+        <v>0.01760333464420024</v>
       </c>
       <c r="DP4">
-        <v>0.004925397828949943</v>
+        <v>0.004924662640323222</v>
       </c>
       <c r="DQ4">
-        <v>0.001644297043048707</v>
+        <v>0.001637334366620828</v>
       </c>
       <c r="DR4">
-        <v>0.001663667843555847</v>
+        <v>0.00165674193266238</v>
       </c>
       <c r="DS4">
-        <v>0.002736040071631211</v>
+        <v>0.00273114950966617</v>
       </c>
       <c r="DT4">
-        <v>0.0006241126863396539</v>
+        <v>0.000615213712903271</v>
       </c>
       <c r="DU4">
-        <v>0.0001189441631140313</v>
+        <v>0.0001090863862085705</v>
       </c>
       <c r="DV4">
-        <v>0.0001634255842785823</v>
+        <v>0.0001536522325480111</v>
       </c>
       <c r="DW4">
-        <v>2.642313769177399E-05</v>
+        <v>1.638975705001725E-05</v>
       </c>
       <c r="DX4">
-        <v>0.0001406303036817878</v>
+        <v>0.000130813686796897</v>
       </c>
       <c r="DY4">
-        <v>2.891475075700595E-07</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>3.591222494020412E-05</v>
+        <v>2.589685446605261E-05</v>
       </c>
       <c r="EA4">
-        <v>0.001279803333506038</v>
+        <v>0.001272148852626576</v>
       </c>
       <c r="EB4">
-        <v>0.007343841492266285</v>
+        <v>0.007347696479130608</v>
       </c>
       <c r="EC4">
-        <v>0.040865847069893</v>
+        <v>0.04093332639944806</v>
       </c>
       <c r="ED4">
-        <v>0.01678423243942152</v>
+        <v>0.01680600516892703</v>
       </c>
       <c r="EE4">
-        <v>8.601039225180494E-05</v>
+        <v>7.609010746570482E-05</v>
       </c>
       <c r="EF4">
-        <v>0.001259259632968191</v>
+        <v>0.00125156616040489</v>
       </c>
       <c r="EG4">
-        <v>0.0004354929714014737</v>
+        <v>0.0004262360001312899</v>
       </c>
       <c r="EH4">
-        <v>0.005554436345418559</v>
+        <v>0.005554895063941718</v>
       </c>
       <c r="EI4">
-        <v>0.000770053380160471</v>
+        <v>0.000761431400315497</v>
       </c>
       <c r="EJ4">
-        <v>0.003512191191951325</v>
+        <v>0.003508773754997992</v>
       </c>
       <c r="EK4">
-        <v>0.0002526456466144184</v>
+        <v>0.0002430416334339468</v>
       </c>
       <c r="EL4">
-        <v>0.002311742060522828</v>
+        <v>0.002306046186298076</v>
       </c>
       <c r="EM4">
-        <v>0.0001082072588329326</v>
+        <v>9.832910341891753E-05</v>
       </c>
       <c r="EN4">
-        <v>0.007904547206945904</v>
+        <v>0.0079094664061664</v>
       </c>
       <c r="EO4">
-        <v>0.01818005647596506</v>
+        <v>0.01820447846184132</v>
       </c>
       <c r="EP4">
-        <v>0.007078181185311136</v>
+        <v>0.00708153195227221</v>
       </c>
       <c r="EQ4">
-        <v>0.001246836232642939</v>
+        <v>0.001239119180622918</v>
       </c>
       <c r="ER4">
-        <v>0.0004354929714014737</v>
+        <v>0.0004262360001312899</v>
       </c>
       <c r="ES4">
-        <v>2.641025669143676E-09</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.002316807460655444</v>
+        <v>0.00231112120049609</v>
       </c>
       <c r="EU4">
-        <v>0.002402042062886938</v>
+        <v>0.002396517576924803</v>
       </c>
       <c r="EV4">
-        <v>0.0005547593645239411</v>
+        <v>0.0005457287593597451</v>
       </c>
       <c r="EW4">
-        <v>0.000327641848577865</v>
+        <v>0.000318180177240371</v>
       </c>
       <c r="EX4">
-        <v>0.004024340405359706</v>
+        <v>0.004021895021137146</v>
       </c>
       <c r="EY4">
-        <v>0.01204828931543162</v>
+        <v>0.01206107328477519</v>
       </c>
       <c r="EZ4">
-        <v>0.0002939771276965019</v>
+        <v>0.0002844515611444755</v>
       </c>
       <c r="FA4">
-        <v>0.04751699524402415</v>
+        <v>0.04759709836870799</v>
       </c>
       <c r="FB4">
-        <v>0.0663410017368482</v>
+        <v>0.06645683258782034</v>
       </c>
       <c r="FC4">
-        <v>0.002956404877400497</v>
+        <v>0.002951932565050228</v>
       </c>
       <c r="FD4">
-        <v>0.00548775274367274</v>
+        <v>0.005488084897563019</v>
       </c>
       <c r="FE4">
-        <v>3.43962359005146E-05</v>
+        <v>2.437798809833588E-05</v>
       </c>
       <c r="FF4">
-        <v>0.01169268930612179</v>
+        <v>0.01170479835114436</v>
       </c>
       <c r="FG4">
-        <v>0.006416952867999771</v>
+        <v>0.006419048631976015</v>
       </c>
       <c r="FH4">
-        <v>0.0002602731768141118</v>
+        <v>0.0002506836405895069</v>
       </c>
       <c r="FI4">
-        <v>0.003549431092926288</v>
+        <v>0.003546084336834097</v>
       </c>
       <c r="FJ4">
-        <v>0.001065418427893309</v>
+        <v>0.001057357047173955</v>
       </c>
       <c r="FK4">
-        <v>0.0003936514103060359</v>
+        <v>0.0003843150242819918</v>
       </c>
       <c r="FL4">
-        <v>0.003586867493906396</v>
+        <v>0.00358359179162987</v>
       </c>
       <c r="FM4">
-        <v>0.01322305334618767</v>
+        <v>0.01323806700280637</v>
       </c>
       <c r="FN4">
-        <v>0.004539185818838675</v>
+        <v>0.004537717604700527</v>
       </c>
       <c r="FO4">
-        <v>0.0008486224222174567</v>
+        <v>0.0008401495654207783</v>
       </c>
       <c r="FP4">
-        <v>0.003037648779527512</v>
+        <v>0.003033330667076128</v>
       </c>
       <c r="FQ4">
-        <v>2.293817960053564E-05</v>
+        <v>1.289818455239005E-05</v>
       </c>
       <c r="FR4">
-        <v>0.004189483509683254</v>
+        <v>0.004187351564984417</v>
       </c>
       <c r="FS4">
-        <v>0.003309872586654499</v>
+        <v>0.003306071151546691</v>
       </c>
       <c r="FT4">
-        <v>7.819950204731104E-06</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>7.736052202534603E-06</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>1.881949749270601E-05</v>
+        <v>8.771685238001706E-06</v>
       </c>
       <c r="FW4">
-        <v>2.733344471560639E-06</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>4.077518606751944E-06</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001803291747211287</v>
+        <v>0.001796630840721373</v>
       </c>
       <c r="FZ4">
-        <v>0.001811818147434513</v>
+        <v>0.001805173423944404</v>
       </c>
       <c r="GA4">
-        <v>0.001517535539730013</v>
+        <v>0.001510332271571771</v>
       </c>
       <c r="GB4">
-        <v>0.0002381175962340651</v>
+        <v>0.000228486008997683</v>
       </c>
       <c r="GC4">
-        <v>0.003533021592496677</v>
+        <v>0.003529643691380173</v>
       </c>
       <c r="GD4">
-        <v>0.001786511246771963</v>
+        <v>0.001779818491104409</v>
       </c>
       <c r="GE4">
-        <v>4.312227712896773E-05</v>
+        <v>3.312059124269727E-05</v>
       </c>
       <c r="GF4">
-        <v>0.001021529926744282</v>
+        <v>0.001013385246204729</v>
       </c>
       <c r="GG4">
-        <v>9.605219251470545E-05</v>
+        <v>8.61509669385228E-05</v>
       </c>
       <c r="GH4">
-        <v>0.002934908076837698</v>
+        <v>0.002930394963831794</v>
       </c>
       <c r="GI4">
-        <v>0.003231309684597674</v>
+        <v>0.003227359138095214</v>
       </c>
       <c r="GJ4">
-        <v>0.0002859519774863985</v>
+        <v>0.0002764111793007536</v>
       </c>
       <c r="GK4">
-        <v>0.001709998744768818</v>
+        <v>0.001703160769339986</v>
       </c>
       <c r="GL4">
-        <v>0.0009065401637337789</v>
+        <v>0.0008981772340781117</v>
       </c>
       <c r="GM4">
-        <v>8.741100228847377E-05</v>
+        <v>7.749337584251211E-05</v>
       </c>
       <c r="GN4">
-        <v>0.0006627708173517474</v>
+        <v>0.000653945216559182</v>
       </c>
       <c r="GO4">
-        <v>0.006876741180037311</v>
+        <v>0.006879709616415644</v>
       </c>
       <c r="GP4">
-        <v>0.005701122449258891</v>
+        <v>0.00570185957615225</v>
       </c>
       <c r="GQ4">
-        <v>4.769886124878551E-07</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0001454270738073702</v>
+        <v>0.0001356195611315211</v>
       </c>
       <c r="GS4">
-        <v>0.0001843070348252715</v>
+        <v>0.0001745733158237859</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.00043883954043947</v>
+        <v>0.0003909305867031149</v>
       </c>
       <c r="C5">
-        <v>0.0001550049166230729</v>
+        <v>0.0001045041551224784</v>
       </c>
       <c r="D5">
-        <v>4.994222691196187E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.393810326062667E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.144639587919214E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001014663677894603</v>
+        <v>5.047672433117053E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001070723876673279</v>
+        <v>5.613393502448754E-05</v>
       </c>
       <c r="I5">
-        <v>0.0002701064941154774</v>
+        <v>0.0002206567712732743</v>
       </c>
       <c r="J5">
-        <v>0.0003560713322426529</v>
+        <v>0.0003074065888082254</v>
       </c>
       <c r="K5">
-        <v>0.000511562288855137</v>
+        <v>0.0004643173956954875</v>
       </c>
       <c r="L5">
-        <v>0.0006932596848966893</v>
+        <v>0.0006476739435187025</v>
       </c>
       <c r="M5">
-        <v>0.0009147490300713367</v>
+        <v>0.0008711857967186261</v>
       </c>
       <c r="N5">
-        <v>0.0007418518538380634</v>
+        <v>0.0006967098270395386</v>
       </c>
       <c r="O5">
-        <v>0.0005361475483195241</v>
+        <v>0.0004891271530224287</v>
       </c>
       <c r="P5">
-        <v>0.000673911755318202</v>
+        <v>0.0006281493402369537</v>
       </c>
       <c r="Q5">
-        <v>0.0004875539893781802</v>
+        <v>0.0004400898668089756</v>
       </c>
       <c r="R5">
-        <v>0.0001986822756715208</v>
+        <v>0.0001485803496504782</v>
       </c>
       <c r="S5">
-        <v>0.0001670748963601171</v>
+        <v>0.0001166843506844141</v>
       </c>
       <c r="T5">
-        <v>0.0001141005475142128</v>
+        <v>6.322627181713954E-05</v>
       </c>
       <c r="U5">
-        <v>8.546350813809752E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>9.686415388972379E-08</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.821577360315233E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001652746663993368</v>
+        <v>0.000114867682101992</v>
       </c>
       <c r="Y5">
-        <v>0.0002117265153873398</v>
+        <v>0.000161743701549721</v>
       </c>
       <c r="Z5">
-        <v>0.0001103452875960247</v>
+        <v>5.943672111482565E-05</v>
       </c>
       <c r="AA5">
-        <v>0.0003471857924362328</v>
+        <v>0.0002984399115748413</v>
       </c>
       <c r="AB5">
-        <v>0.00030956623325581</v>
+        <v>0.0002604768331145644</v>
       </c>
       <c r="AC5">
-        <v>3.750387518294299E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.87335117204355E-05</v>
+        <v>7.353657418033026E-06</v>
       </c>
       <c r="AE5">
-        <v>0.0004318663505913876</v>
+        <v>0.0003838937218623667</v>
       </c>
       <c r="AF5">
-        <v>0.0003935642514258346</v>
+        <v>0.0003452418708706653</v>
       </c>
       <c r="AG5">
-        <v>0.0001169614524518853</v>
+        <v>6.611330082498543E-05</v>
       </c>
       <c r="AH5">
-        <v>4.484936202291469E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001720953162507425</v>
+        <v>0.0001217506140421871</v>
       </c>
       <c r="AJ5">
-        <v>0.0001508719267131139</v>
+        <v>0.0001003334252243738</v>
       </c>
       <c r="AK5">
-        <v>1.867718959309995E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.039161977360884E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>4.613743899485273E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>4.17089590913313E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>8.13275382282035E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002308447949708302</v>
+        <v>0.0001810365578102818</v>
       </c>
       <c r="AQ5">
-        <v>0.0001739322262107237</v>
+        <v>0.000123604297563591</v>
       </c>
       <c r="AR5">
-        <v>0.0002137634553429632</v>
+        <v>0.0001637992416208669</v>
       </c>
       <c r="AS5">
-        <v>7.019332847077269E-05</v>
+        <v>1.891811835036225E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0003547212322720661</v>
+        <v>0.0003060441605334338</v>
       </c>
       <c r="AU5">
-        <v>0.0002868357937510139</v>
+        <v>0.000237538832852025</v>
       </c>
       <c r="AV5">
-        <v>0.0003053177933483662</v>
+        <v>0.0002561895989987539</v>
       </c>
       <c r="AW5">
-        <v>0.0001920095358168926</v>
+        <v>0.0001418466783325513</v>
       </c>
       <c r="AX5">
-        <v>0.000162782956453621</v>
+        <v>0.000112353219353617</v>
       </c>
       <c r="AY5">
-        <v>6.204453864830168E-05</v>
+        <v>1.069491866045838E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.000171422706265396</v>
+        <v>0.0001210718621853561</v>
       </c>
       <c r="BA5">
-        <v>6.890704849879549E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>7.410880038547045E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.265801372423333E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.883114915402709E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001280559772101807</v>
+        <v>7.730913413761596E-05</v>
       </c>
       <c r="BF5">
-        <v>0.0001652746663993368</v>
+        <v>0.000114867682101992</v>
       </c>
       <c r="BG5">
-        <v>0.0002654773342163279</v>
+        <v>0.0002159853406588499</v>
       </c>
       <c r="BH5">
-        <v>0.0001041652477306626</v>
+        <v>5.320024882733347E-05</v>
       </c>
       <c r="BI5">
-        <v>7.469328437273692E-05</v>
+        <v>2.345916515409395E-05</v>
       </c>
       <c r="BJ5">
-        <v>0.0001835538560011075</v>
+        <v>0.0001333137863137453</v>
       </c>
       <c r="BK5">
-        <v>0.00013489849706111</v>
+        <v>8.421413578106988E-05</v>
       </c>
       <c r="BL5">
-        <v>2.201229452044157E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.836896959981481E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>7.939888827022094E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.047221055399374E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.33335057095171E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1.172873424447855E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.270932750525605E-07</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.197528173910728E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001036420777420604</v>
+        <v>5.267230156378061E-05</v>
       </c>
       <c r="BU5">
-        <v>2.871190337448433E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.458178768232211E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0001258638072579392</v>
+        <v>7.509694660250749E-05</v>
       </c>
       <c r="BX5">
-        <v>0.0001848011659739337</v>
+        <v>0.0001345724859740892</v>
       </c>
       <c r="BY5">
-        <v>0.0002208009051896457</v>
+        <v>0.0001709009532440298</v>
       </c>
       <c r="BZ5">
-        <v>0.0003158348731192418</v>
+        <v>0.0002668027144422362</v>
       </c>
       <c r="CA5">
-        <v>6.566863856934727E-05</v>
+        <v>1.435211169110226E-05</v>
       </c>
       <c r="CB5">
-        <v>3.559924522443714E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>6.683446454394867E-05</v>
+        <v>1.552858329015953E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0001748779961901193</v>
+        <v>0.0001245587037479105</v>
       </c>
       <c r="CE5">
-        <v>1.814965360459282E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>5.115999888543157E-07</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>4.218421408097743E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>4.310803906085104E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>4.484936202291469E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>7.002343847447388E-05</v>
+        <v>1.874667702038345E-05</v>
       </c>
       <c r="CK5">
-        <v>0.0001419190969081597</v>
+        <v>9.12988435404966E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0001310447371450678</v>
+        <v>8.032518563792422E-05</v>
       </c>
       <c r="CM5">
-        <v>0.003383145326295014</v>
+        <v>0.003362122009319491</v>
       </c>
       <c r="CN5">
-        <v>0.08655265811436938</v>
+        <v>0.0872910889686072</v>
       </c>
       <c r="CO5">
-        <v>0.03966569413584575</v>
+        <v>0.03997598132090331</v>
       </c>
       <c r="CP5">
-        <v>0.1020273677772384</v>
+        <v>0.1029071044105749</v>
       </c>
       <c r="CQ5">
-        <v>1.310925771440256E-06</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.009015772803582955</v>
+        <v>0.009046183266716464</v>
       </c>
       <c r="CS5">
-        <v>0.0001543666066369791</v>
+        <v>0.0001038600164719472</v>
       </c>
       <c r="CT5">
-        <v>0.009389026795451267</v>
+        <v>0.009422845590454757</v>
       </c>
       <c r="CU5">
-        <v>0.0002218663351664343</v>
+        <v>0.0001719761120891607</v>
       </c>
       <c r="CV5">
-        <v>0.02604131943266549</v>
+        <v>0.02622719698910267</v>
       </c>
       <c r="CW5">
-        <v>0.007903191827821572</v>
+        <v>0.007923442867934201</v>
       </c>
       <c r="CX5">
-        <v>0.06383768360923635</v>
+        <v>0.06436869492284411</v>
       </c>
       <c r="CY5">
-        <v>0.01583012165512599</v>
+        <v>0.01592275667009251</v>
       </c>
       <c r="CZ5">
-        <v>0.002121684753777113</v>
+        <v>0.00208914253448385</v>
       </c>
       <c r="DA5">
-        <v>0.006041617868377703</v>
+        <v>0.006044870130198528</v>
       </c>
       <c r="DB5">
-        <v>0.005688539876069837</v>
+        <v>0.005688568041162993</v>
       </c>
       <c r="DC5">
-        <v>0.06782365452239823</v>
+        <v>0.06839106333473909</v>
       </c>
       <c r="DD5">
-        <v>0.02880772937239667</v>
+        <v>0.02901886812728968</v>
       </c>
       <c r="DE5">
-        <v>0.01145299775048573</v>
+        <v>0.01150566349190645</v>
       </c>
       <c r="DF5">
-        <v>0.0132203917119814</v>
+        <v>0.01328919623636765</v>
       </c>
       <c r="DG5">
-        <v>0.01252398872715319</v>
+        <v>0.01258643411663599</v>
       </c>
       <c r="DH5">
-        <v>0.02765264439756127</v>
+        <v>0.02785323560837428</v>
       </c>
       <c r="DI5">
-        <v>0.0002327164449300545</v>
+        <v>0.0001829252985557923</v>
       </c>
       <c r="DJ5">
-        <v>0.01857377759535288</v>
+        <v>0.01869146603288168</v>
       </c>
       <c r="DK5">
-        <v>0.001057072376970689</v>
+        <v>0.001014808755168418</v>
       </c>
       <c r="DL5">
-        <v>0.05194579286831231</v>
+        <v>0.05236821455906366</v>
       </c>
       <c r="DM5">
-        <v>0.008185481821671619</v>
+        <v>0.008208310564912887</v>
       </c>
       <c r="DN5">
-        <v>0.008788292808538821</v>
+        <v>0.008816626060620919</v>
       </c>
       <c r="DO5">
-        <v>0.005795537373738796</v>
+        <v>0.00579654257588784</v>
       </c>
       <c r="DP5">
-        <v>0.002503643945455775</v>
+        <v>0.002474589548702639</v>
       </c>
       <c r="DQ5">
-        <v>0.0008350854418068824</v>
+        <v>0.0007907947682856161</v>
       </c>
       <c r="DR5">
-        <v>0.002072492054848822</v>
+        <v>0.002039500637295981</v>
       </c>
       <c r="DS5">
-        <v>0.002371650648331372</v>
+        <v>0.002341390967854514</v>
       </c>
       <c r="DT5">
-        <v>0.0008350854418068824</v>
+        <v>0.0007907947682856161</v>
       </c>
       <c r="DU5">
-        <v>0.000187455435916108</v>
+        <v>0.0001372509931194349</v>
       </c>
       <c r="DV5">
-        <v>0.001030963277539501</v>
+        <v>0.0009884612430808971</v>
       </c>
       <c r="DW5">
-        <v>0.001503026067255171</v>
+        <v>0.001464834627420798</v>
       </c>
       <c r="DX5">
-        <v>0.0008104355523439033</v>
+        <v>0.0007659197907976499</v>
       </c>
       <c r="DY5">
-        <v>0.0006653560455045961</v>
+        <v>0.000619515504806306</v>
       </c>
       <c r="DZ5">
-        <v>0.005369332883024059</v>
+        <v>0.005366446241065661</v>
       </c>
       <c r="EA5">
-        <v>5.641061877104189E-07</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02561929244185975</v>
+        <v>0.02580131630061628</v>
       </c>
       <c r="EC5">
-        <v>0.01671882963576466</v>
+        <v>0.01681957979966328</v>
       </c>
       <c r="ED5">
-        <v>0.0004165513909250382</v>
+        <v>0.0003684389151581947</v>
       </c>
       <c r="EE5">
-        <v>0.001787433561059088</v>
+        <v>0.001751839160094524</v>
       </c>
       <c r="EF5">
-        <v>0.0003921447914567588</v>
+        <v>0.000343809449243426</v>
       </c>
       <c r="EG5">
-        <v>0.004661171598452017</v>
+        <v>0.004651818451840279</v>
       </c>
       <c r="EH5">
-        <v>0.002243062451132786</v>
+        <v>0.002211628580265032</v>
       </c>
       <c r="EI5">
-        <v>0.001009613178004632</v>
+        <v>0.0009669161872260502</v>
       </c>
       <c r="EJ5">
-        <v>0.001614217364832765</v>
+        <v>0.001577041257322907</v>
       </c>
       <c r="EK5">
-        <v>0.002097399154306197</v>
+        <v>0.00206463517346594</v>
       </c>
       <c r="EL5">
-        <v>0.001967199057142728</v>
+        <v>0.001933246167006643</v>
       </c>
       <c r="EM5">
-        <v>0.00163249176443464</v>
+        <v>0.001595482527795355</v>
       </c>
       <c r="EN5">
-        <v>0.009544644792060984</v>
+        <v>0.009579884597392408</v>
       </c>
       <c r="EO5">
-        <v>0.005204441386616376</v>
+        <v>0.005200049054284829</v>
       </c>
       <c r="EP5">
-        <v>0.0006046172168278482</v>
+        <v>0.000558222045529392</v>
       </c>
       <c r="EQ5">
-        <v>0.000999663378221398</v>
+        <v>0.0009568755318312485</v>
       </c>
       <c r="ER5">
-        <v>0.002211517351820025</v>
+        <v>0.002179795430001252</v>
       </c>
       <c r="ES5">
-        <v>5.673830876390286E-05</v>
+        <v>5.340235463252598E-06</v>
       </c>
       <c r="ET5">
-        <v>0.0004413435103849188</v>
+        <v>0.0003934574214021964</v>
       </c>
       <c r="EU5">
-        <v>0.0004069362111345139</v>
+        <v>0.000358735935305435</v>
       </c>
       <c r="EV5">
-        <v>1.561590765979284E-05</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.001858779759504744</v>
+        <v>0.00182383684928713</v>
       </c>
       <c r="EX5">
-        <v>0.01123940475513905</v>
+        <v>0.01129012009327112</v>
       </c>
       <c r="EY5">
-        <v>0.002234195951325951</v>
+        <v>0.002202681116893104</v>
       </c>
       <c r="EZ5">
-        <v>0.02632329542652238</v>
+        <v>0.02651174781882835</v>
       </c>
       <c r="FA5">
-        <v>0.06724670353496766</v>
+        <v>0.06780884397649208</v>
       </c>
       <c r="FB5">
-        <v>0.009696485788752986</v>
+        <v>0.009733112115111566</v>
       </c>
       <c r="FC5">
-        <v>0.007837540329251852</v>
+        <v>0.007857191879205602</v>
       </c>
       <c r="FD5">
-        <v>0.002772064539607981</v>
+        <v>0.002745461198933385</v>
       </c>
       <c r="FE5">
-        <v>0.004149609109596884</v>
+        <v>0.004135584680769183</v>
       </c>
       <c r="FF5">
-        <v>0.005483369180539673</v>
+        <v>0.005481523849741033</v>
       </c>
       <c r="FG5">
-        <v>0.0002475110746077397</v>
+        <v>0.0001978550239295279</v>
       </c>
       <c r="FH5">
-        <v>0.007342626140034021</v>
+        <v>0.007357758430071556</v>
       </c>
       <c r="FI5">
-        <v>0.006698726554061975</v>
+        <v>0.006707979138784235</v>
       </c>
       <c r="FJ5">
-        <v>7.217203142766477E-06</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.002008869256234904</v>
+        <v>0.001975296873395964</v>
       </c>
       <c r="FL5">
-        <v>0.01619563264716299</v>
+        <v>0.01629160528956318</v>
       </c>
       <c r="FM5">
-        <v>0.009097558801801171</v>
+        <v>0.009128716085679583</v>
       </c>
       <c r="FN5">
-        <v>0.0003611116221328455</v>
+        <v>0.0003124929036064991</v>
       </c>
       <c r="FO5">
-        <v>0.001477224167817289</v>
+        <v>0.001438797120492907</v>
       </c>
       <c r="FP5">
-        <v>0.0009126924401161413</v>
+        <v>0.0008691104272158828</v>
       </c>
       <c r="FQ5">
-        <v>0.005157788887632744</v>
+        <v>0.005152970552625903</v>
       </c>
       <c r="FR5">
-        <v>0.009004103803837175</v>
+        <v>0.009034407712654881</v>
       </c>
       <c r="FS5">
-        <v>0.002391279947903729</v>
+        <v>0.002361199510432373</v>
       </c>
       <c r="FT5">
-        <v>0.000297032323528873</v>
+        <v>0.000247828471231968</v>
       </c>
       <c r="FU5">
-        <v>0.0003963396213653706</v>
+        <v>0.0003480425838260082</v>
       </c>
       <c r="FV5">
-        <v>0.0009846249785490238</v>
+        <v>0.0009416998105012537</v>
       </c>
       <c r="FW5">
-        <v>0.001563643065934573</v>
+        <v>0.001526005144221808</v>
       </c>
       <c r="FX5">
-        <v>0.003218372529884743</v>
+        <v>0.003195844606433346</v>
       </c>
       <c r="FY5">
-        <v>0.004271981906930878</v>
+        <v>0.00425907491318561</v>
       </c>
       <c r="FZ5">
-        <v>0.004738086896776345</v>
+        <v>0.004729436094595689</v>
       </c>
       <c r="GA5">
-        <v>0.0007880638428312919</v>
+        <v>0.0007433437962347002</v>
       </c>
       <c r="GB5">
-        <v>0.0009105301401632491</v>
+        <v>0.0008669283824350652</v>
       </c>
       <c r="GC5">
-        <v>0.002424254247185353</v>
+        <v>0.002394474911263023</v>
       </c>
       <c r="GD5">
-        <v>7.016602847136743E-06</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001418952369086795</v>
+        <v>0.001379993218601934</v>
       </c>
       <c r="GF5">
-        <v>0.0004875539893781802</v>
+        <v>0.0004400898668089756</v>
       </c>
       <c r="GG5">
-        <v>0.004012590912581953</v>
+        <v>0.003997315315654707</v>
       </c>
       <c r="GH5">
-        <v>0.007047011346474266</v>
+        <v>0.007059444259293933</v>
       </c>
       <c r="GI5">
-        <v>0.001143485175088106</v>
+        <v>0.001102010623195907</v>
       </c>
       <c r="GJ5">
-        <v>0.003402612325870907</v>
+        <v>0.003381766769874538</v>
       </c>
       <c r="GK5">
-        <v>0.006632461855505614</v>
+        <v>0.006641109350694032</v>
       </c>
       <c r="GL5">
-        <v>0.001578925265601636</v>
+        <v>0.001541426891782004</v>
       </c>
       <c r="GM5">
-        <v>0.0001702214562915663</v>
+        <v>0.000119859643116329</v>
       </c>
       <c r="GN5">
-        <v>0.001157939874773197</v>
+        <v>0.001116597314539978</v>
       </c>
       <c r="GO5">
-        <v>0.002705664041054578</v>
+        <v>0.002678454370801912</v>
       </c>
       <c r="GP5">
-        <v>0.0008220297820913122</v>
+        <v>0.000777619892106025</v>
       </c>
       <c r="GQ5">
-        <v>0.001988591556676672</v>
+        <v>0.00195483401003196</v>
       </c>
       <c r="GR5">
-        <v>0.001638284064308449</v>
+        <v>0.001601327719481953</v>
       </c>
       <c r="GS5">
-        <v>0.0001848011659739337</v>
+        <v>0.0001345724859740892</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.957667170913006E-05</v>
+        <v>1.909832019574298E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002109132145082734</v>
+        <v>0.0001813685485195859</v>
       </c>
       <c r="D6">
-        <v>0.0001798425053172879</v>
+        <v>0.0001501180271737689</v>
       </c>
       <c r="E6">
-        <v>9.091617263273834E-05</v>
+        <v>6.067706074195017E-05</v>
       </c>
       <c r="F6">
-        <v>0.0004147508492007797</v>
+        <v>0.0003863858307091775</v>
       </c>
       <c r="G6">
-        <v>0.000753454380381668</v>
+        <v>0.0007270495042034038</v>
       </c>
       <c r="H6">
-        <v>0.0002078635645876797</v>
+        <v>0.0001783012496898434</v>
       </c>
       <c r="I6">
-        <v>9.091617263273834E-05</v>
+        <v>6.067706074195017E-05</v>
       </c>
       <c r="J6">
-        <v>0.0003193906916837531</v>
+        <v>0.0002904738056662825</v>
       </c>
       <c r="K6">
-        <v>0.0004971716870547183</v>
+        <v>0.0004692836537637575</v>
       </c>
       <c r="L6">
-        <v>7.193118812706652E-05</v>
+        <v>4.158220648878004E-05</v>
       </c>
       <c r="M6">
-        <v>3.703399603571437E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.058824120354797E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.327041861295284E-05</v>
+        <v>2.281344352152304E-05</v>
       </c>
       <c r="P6">
-        <v>4.982374870269671E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000129691816623104</v>
+        <v>9.967710682298029E-05</v>
       </c>
       <c r="R6">
-        <v>8.98653426600997E-05</v>
+        <v>5.962014941466397E-05</v>
       </c>
       <c r="S6">
-        <v>1.708629655510958E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6.202599438497646E-05</v>
+        <v>3.161968949024801E-05</v>
       </c>
       <c r="U6">
-        <v>0.0001888330950831922</v>
+        <v>0.0001591606472074433</v>
       </c>
       <c r="V6">
-        <v>0.0002896823524572944</v>
+        <v>0.0002605935385813402</v>
       </c>
       <c r="W6">
-        <v>0.0003472945909571956</v>
+        <v>0.0003185391901580288</v>
       </c>
       <c r="X6">
-        <v>0.0003292076914281396</v>
+        <v>0.0003003476182715267</v>
       </c>
       <c r="Y6">
-        <v>0.0003412118711155765</v>
+        <v>0.0003124212684497502</v>
       </c>
       <c r="Z6">
-        <v>0.0003721628103096806</v>
+        <v>0.0003435513266667366</v>
       </c>
       <c r="AA6">
-        <v>0.0004215889390227305</v>
+        <v>0.0003932634938687776</v>
       </c>
       <c r="AB6">
-        <v>0.0005125775266535833</v>
+        <v>0.0004847786499119061</v>
       </c>
       <c r="AC6">
-        <v>8.809820770611208E-05</v>
+        <v>5.784278771168258E-05</v>
       </c>
       <c r="AD6">
-        <v>9.943067741103894E-05</v>
+        <v>6.924084059286332E-05</v>
       </c>
       <c r="AE6">
-        <v>0.0002168308043541921</v>
+        <v>0.0001873203845931998</v>
       </c>
       <c r="AF6">
-        <v>0.0001109547271109775</v>
+        <v>8.083158217924043E-05</v>
       </c>
       <c r="AG6">
-        <v>1.801692353087805E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.423992884808738E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.460165661980426E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.032632342923225E-05</v>
+        <v>2.991018221261046E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0001331061565342019</v>
+        <v>0.0001031112061741659</v>
       </c>
       <c r="AL6">
-        <v>0.0004282115188502928</v>
+        <v>0.0003999243998363071</v>
       </c>
       <c r="AM6">
-        <v>0.0003630576405467597</v>
+        <v>0.0003343934635396213</v>
       </c>
       <c r="AN6">
-        <v>0.0002963846122827819</v>
+        <v>0.0002673345856702292</v>
       </c>
       <c r="AO6">
-        <v>0.0004930033871632519</v>
+        <v>0.0004650912311211539</v>
       </c>
       <c r="AP6">
-        <v>0.0005087251867538899</v>
+        <v>0.0004809040157821631</v>
       </c>
       <c r="AQ6">
-        <v>0.0005746411450375801</v>
+        <v>0.0005472014423620521</v>
       </c>
       <c r="AR6">
-        <v>0.0002382738237958619</v>
+        <v>0.0002088874989021029</v>
       </c>
       <c r="AS6">
-        <v>0.0003110755519002615</v>
+        <v>0.0002821105445736504</v>
       </c>
       <c r="AT6">
-        <v>0.0003445593910284143</v>
+        <v>0.0003157881611025267</v>
       </c>
       <c r="AU6">
-        <v>0.0001391161963777134</v>
+        <v>0.0001091560272712446</v>
       </c>
       <c r="AV6">
-        <v>1.616246757916409E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>5.978191444340749E-05</v>
+        <v>2.936262262754289E-05</v>
       </c>
       <c r="AX6">
-        <v>3.437948110483223E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>8.678438274032126E-05</v>
+        <v>5.65213593887647E-05</v>
       </c>
       <c r="AZ6">
-        <v>0.0001200123368751368</v>
+        <v>8.994161006875712E-05</v>
       </c>
       <c r="BA6">
-        <v>6.001389843736712E-05</v>
+        <v>2.959594915738041E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0001473208661640814</v>
+        <v>0.0001174081790556868</v>
       </c>
       <c r="BC6">
-        <v>0.0001121914870787749</v>
+        <v>8.207549951423704E-05</v>
       </c>
       <c r="BD6">
-        <v>0.000262454813166241</v>
+        <v>0.000233208428296957</v>
       </c>
       <c r="BE6">
-        <v>0.0006735946324610441</v>
+        <v>0.0006467275926009134</v>
       </c>
       <c r="BF6">
-        <v>0.0002571705233038325</v>
+        <v>0.0002278935572353531</v>
       </c>
       <c r="BG6">
-        <v>7.218563212044135E-05</v>
+        <v>4.183812299835819E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0001612796458006248</v>
+        <v>0.0001314477408279013</v>
       </c>
       <c r="BI6">
-        <v>0.000182768585241099</v>
+        <v>0.0001530610408834514</v>
       </c>
       <c r="BJ6">
-        <v>0.0001933650249651905</v>
+        <v>0.0001637188042370944</v>
       </c>
       <c r="BK6">
-        <v>0.0001504639660822419</v>
+        <v>0.0001205694686960599</v>
       </c>
       <c r="BL6">
-        <v>6.258050237053828E-05</v>
+        <v>3.217740651990156E-05</v>
       </c>
       <c r="BM6">
-        <v>3.367759512310783E-05</v>
+        <v>3.107232603367771E-06</v>
       </c>
       <c r="BN6">
-        <v>1.400653163530003E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>1.460165661980426E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.880193725005948E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>7.372974308023603E-05</v>
+        <v>4.339117002450633E-05</v>
       </c>
       <c r="BR6">
-        <v>0.0001455413062104173</v>
+        <v>0.0001156183204471721</v>
       </c>
       <c r="BS6">
-        <v>0.0003742981302540815</v>
+        <v>0.000345699004117305</v>
       </c>
       <c r="BT6">
-        <v>0.0003181364317164113</v>
+        <v>0.0002892122870558869</v>
       </c>
       <c r="BU6">
-        <v>0.0001804711153009202</v>
+        <v>0.0001507502750439719</v>
       </c>
       <c r="BV6">
-        <v>0.0005076693367813821</v>
+        <v>0.0004798420554033054</v>
       </c>
       <c r="BW6">
-        <v>0.0007898799794332236</v>
+        <v>0.0007636859051847199</v>
       </c>
       <c r="BX6">
-        <v>0.0006339145334942286</v>
+        <v>0.00060681785728897</v>
       </c>
       <c r="BY6">
-        <v>0.0002559402433358663</v>
+        <v>0.0002266561574011899</v>
       </c>
       <c r="BZ6">
-        <v>0.0001711569555434409</v>
+        <v>0.0001413822124571061</v>
       </c>
       <c r="CA6">
-        <v>9.475159753287213E-05</v>
+        <v>6.453468198178601E-05</v>
       </c>
       <c r="CB6">
-        <v>3.515013908476595E-05</v>
+        <v>4.588298459431394E-06</v>
       </c>
       <c r="CC6">
-        <v>1.263606467098405E-07</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.215696890232318E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>2.095686545432829E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>6.092437141366037E-05</v>
+        <v>3.051169121545666E-05</v>
       </c>
       <c r="CG6">
-        <v>0.0002647359431068453</v>
+        <v>0.0002355027595741497</v>
       </c>
       <c r="CH6">
-        <v>0.0002658802530770499</v>
+        <v>0.0002366536918856815</v>
       </c>
       <c r="CI6">
-        <v>0.0005109882166949656</v>
+        <v>0.0004831801423116575</v>
       </c>
       <c r="CJ6">
-        <v>0.0004614344679852386</v>
+        <v>0.0004333396165515354</v>
       </c>
       <c r="CK6">
-        <v>0.0005259174363062408</v>
+        <v>0.0004981957601809113</v>
       </c>
       <c r="CL6">
-        <v>0.0007344719308759302</v>
+        <v>0.0007079571996206985</v>
       </c>
       <c r="CM6">
-        <v>0.0002642484931195374</v>
+        <v>0.0002350124886202507</v>
       </c>
       <c r="CN6">
-        <v>0.1470442061712851</v>
+        <v>0.1478644139407902</v>
       </c>
       <c r="CO6">
-        <v>0.007212515312201609</v>
+        <v>0.007223490260770806</v>
       </c>
       <c r="CP6">
-        <v>0.1252340767391739</v>
+        <v>0.125928065105503</v>
       </c>
       <c r="CQ6">
-        <v>0.006043113142650327</v>
+        <v>0.006047320536521008</v>
       </c>
       <c r="CR6">
-        <v>0.02070217346095992</v>
+        <v>0.02079121564915208</v>
       </c>
       <c r="CS6">
-        <v>0.0002612119631986021</v>
+        <v>0.0002319583857181216</v>
       </c>
       <c r="CT6">
-        <v>0.0009631851349207301</v>
+        <v>0.0009379940108546655</v>
       </c>
       <c r="CU6">
-        <v>0.002037986146935223</v>
+        <v>0.002019015102520299</v>
       </c>
       <c r="CV6">
-        <v>0.0203690204696345</v>
+        <v>0.02045613463755231</v>
       </c>
       <c r="CW6">
-        <v>0.0008420485780748655</v>
+        <v>0.0008161564135149573</v>
       </c>
       <c r="CX6">
-        <v>0.04344873886868826</v>
+        <v>0.04366941979469737</v>
       </c>
       <c r="CY6">
-        <v>0.02406669337335505</v>
+        <v>0.02417520668374473</v>
       </c>
       <c r="CZ6">
-        <v>0.001369488364341468</v>
+        <v>0.001346648595011082</v>
       </c>
       <c r="DA6">
-        <v>0.002771944627824522</v>
+        <v>0.002757221141944369</v>
       </c>
       <c r="DB6">
-        <v>0.002785176627479989</v>
+        <v>0.002770529717720329</v>
       </c>
       <c r="DC6">
-        <v>0.06700718225527705</v>
+        <v>0.06736420041272106</v>
       </c>
       <c r="DD6">
-        <v>0.04431067884624519</v>
+        <v>0.04453634798426283</v>
       </c>
       <c r="DE6">
-        <v>0.004451954884080666</v>
+        <v>0.004446953939854118</v>
       </c>
       <c r="DF6">
-        <v>0.01315985965734555</v>
+        <v>0.01320525302860513</v>
       </c>
       <c r="DG6">
-        <v>0.009508834752410388</v>
+        <v>0.009533098942116222</v>
       </c>
       <c r="DH6">
-        <v>0.02103952645217597</v>
+        <v>0.0211305209668476</v>
       </c>
       <c r="DI6">
-        <v>1.132037670524173E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.00905156076431682</v>
+        <v>0.009073178621728078</v>
       </c>
       <c r="DK6">
-        <v>0.0006393975833514617</v>
+        <v>0.0006123326386076197</v>
       </c>
       <c r="DL6">
-        <v>0.03739248902637998</v>
+        <v>0.03757812127269371</v>
       </c>
       <c r="DM6">
-        <v>0.0132182726558246</v>
+        <v>0.01326400407431258</v>
       </c>
       <c r="DN6">
-        <v>0.008316327783460704</v>
+        <v>0.008333690706561378</v>
       </c>
       <c r="DO6">
-        <v>0.01024239673331001</v>
+        <v>0.01027090618692911</v>
       </c>
       <c r="DP6">
-        <v>0.003261578415075511</v>
+        <v>0.003249688533855706</v>
       </c>
       <c r="DQ6">
-        <v>0.00269724842976945</v>
+        <v>0.002682092662661101</v>
       </c>
       <c r="DR6">
-        <v>0.003938034897462039</v>
+        <v>0.00393005979968023</v>
       </c>
       <c r="DS6">
-        <v>0.004790979275253201</v>
+        <v>0.004787940330218318</v>
       </c>
       <c r="DT6">
-        <v>0.00111949797085068</v>
+        <v>0.001095211459153892</v>
       </c>
       <c r="DU6">
-        <v>0.001433479962675264</v>
+        <v>0.001411010525000869</v>
       </c>
       <c r="DV6">
-        <v>0.0011614092697594</v>
+        <v>0.001137365306789848</v>
       </c>
       <c r="DW6">
-        <v>0.001915151950133561</v>
+        <v>0.001895470040656687</v>
       </c>
       <c r="DX6">
-        <v>0.003548469507605484</v>
+        <v>0.003538239920176615</v>
       </c>
       <c r="DY6">
-        <v>0.001570483059107998</v>
+        <v>0.001548806484635944</v>
       </c>
       <c r="DZ6">
-        <v>0.004723144877019463</v>
+        <v>0.004719713361308347</v>
       </c>
       <c r="EA6">
-        <v>0.001877422251115961</v>
+        <v>0.001857521992632639</v>
       </c>
       <c r="EB6">
-        <v>0.01738870054723562</v>
+        <v>0.01745856703200466</v>
       </c>
       <c r="EC6">
-        <v>0.02504909734777536</v>
+        <v>0.02516329601843377</v>
       </c>
       <c r="ED6">
-        <v>0.003892202298655421</v>
+        <v>0.003883961958831588</v>
       </c>
       <c r="EE6">
-        <v>0.0003658651404736584</v>
+        <v>0.0003372172110072003</v>
       </c>
       <c r="EF6">
-        <v>0.0004134546892345289</v>
+        <v>0.0003850821696165409</v>
       </c>
       <c r="EG6">
-        <v>0.005961473444776049</v>
+        <v>0.00596520837405301</v>
       </c>
       <c r="EH6">
-        <v>0.006913394819990063</v>
+        <v>0.006922638700886224</v>
       </c>
       <c r="EI6">
-        <v>0.0001617915557872958</v>
+        <v>0.0001319626133358722</v>
       </c>
       <c r="EJ6">
-        <v>0.000543788485840917</v>
+        <v>0.0005161702329077063</v>
       </c>
       <c r="EK6">
-        <v>0.003944973897281362</v>
+        <v>0.003937038956822716</v>
       </c>
       <c r="EL6">
-        <v>0.007200587812512175</v>
+        <v>0.007211493734352444</v>
       </c>
       <c r="EM6">
-        <v>0.0001001324313927668</v>
+        <v>6.994665575951102E-05</v>
       </c>
       <c r="EN6">
-        <v>0.007671597800248088</v>
+        <v>0.007685229547248039</v>
       </c>
       <c r="EO6">
-        <v>0.007809634096653919</v>
+        <v>0.007824064686182668</v>
       </c>
       <c r="EP6">
-        <v>0.0004644575679065236</v>
+        <v>0.0004363802117320299</v>
       </c>
       <c r="EQ6">
-        <v>0.0007266993810783105</v>
+        <v>0.0007001396685862796</v>
       </c>
       <c r="ER6">
-        <v>0.001724145755106952</v>
+        <v>0.00170335845613598</v>
       </c>
       <c r="ES6">
-        <v>0.0001496034461046479</v>
+        <v>0.0001197039687242696</v>
       </c>
       <c r="ET6">
-        <v>0.0008179507787023204</v>
+        <v>0.0007919191555544142</v>
       </c>
       <c r="EU6">
-        <v>0.00031243171186495</v>
+        <v>0.0002834745528962263</v>
       </c>
       <c r="EV6">
-        <v>5.212807664269696E-05</v>
+        <v>2.166449059913332E-05</v>
       </c>
       <c r="EW6">
-        <v>0.002602026532248824</v>
+        <v>0.002586319697751731</v>
       </c>
       <c r="EX6">
-        <v>0.01148671720091058</v>
+        <v>0.01152242777579167</v>
       </c>
       <c r="EY6">
-        <v>0.006904207820229273</v>
+        <v>0.006913398534195343</v>
       </c>
       <c r="EZ6">
-        <v>0.01099692871366362</v>
+        <v>0.0110298047886058</v>
       </c>
       <c r="FA6">
-        <v>0.04946560671202196</v>
+        <v>0.04972110840654317</v>
       </c>
       <c r="FB6">
-        <v>0.01279896266674253</v>
+        <v>0.0128422674578814</v>
       </c>
       <c r="FC6">
-        <v>0.00651864733026844</v>
+        <v>0.006525606731711465</v>
       </c>
       <c r="FD6">
-        <v>0.006199353838582155</v>
+        <v>0.006204465427334106</v>
       </c>
       <c r="FE6">
-        <v>0.0006589191428431623</v>
+        <v>0.0006319671731092017</v>
       </c>
       <c r="FF6">
-        <v>0.004968818870622641</v>
+        <v>0.004966809117443701</v>
       </c>
       <c r="FG6">
-        <v>3.391173511701133E-05</v>
+        <v>3.342727610334448E-06</v>
       </c>
       <c r="FH6">
-        <v>0.004266433888911235</v>
+        <v>0.004260359299094468</v>
       </c>
       <c r="FI6">
-        <v>0.005647995852938331</v>
+        <v>0.005649916627252389</v>
       </c>
       <c r="FJ6">
-        <v>2.722555029110521E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001442109562450567</v>
+        <v>0.0001142802714913417</v>
       </c>
       <c r="FL6">
-        <v>0.01145160820182474</v>
+        <v>0.01148711559419265</v>
       </c>
       <c r="FM6">
-        <v>0.011521880699995</v>
+        <v>0.01155779477279121</v>
       </c>
       <c r="FN6">
-        <v>0.001418447163066686</v>
+        <v>0.001395890727696997</v>
       </c>
       <c r="FO6">
-        <v>0.0007887482794626908</v>
+        <v>0.0007625476558493472</v>
       </c>
       <c r="FP6">
-        <v>0.000268943712997284</v>
+        <v>0.0002397348806361818</v>
       </c>
       <c r="FQ6">
-        <v>0.005234741863698577</v>
+        <v>0.005234271057896419</v>
       </c>
       <c r="FR6">
-        <v>0.007390598807564698</v>
+        <v>0.007402604359485892</v>
       </c>
       <c r="FS6">
-        <v>0.00297874672243984</v>
+        <v>0.002965220039955061</v>
       </c>
       <c r="FT6">
-        <v>0.0009099581763066456</v>
+        <v>0.0008844590176197845</v>
       </c>
       <c r="FU6">
-        <v>0.00100781937375855</v>
+        <v>0.0009828865565954714</v>
       </c>
       <c r="FV6">
-        <v>0.0007336599308970729</v>
+        <v>0.0007071405004421859</v>
       </c>
       <c r="FW6">
-        <v>0.0009384331355652189</v>
+        <v>0.0009130987669303502</v>
       </c>
       <c r="FX6">
-        <v>0.002015552447519348</v>
+        <v>0.001996451574982124</v>
       </c>
       <c r="FY6">
-        <v>0.005725199250928121</v>
+        <v>0.00572756681611739</v>
       </c>
       <c r="FZ6">
-        <v>0.004252251089280525</v>
+        <v>0.004246094420881403</v>
       </c>
       <c r="GA6">
-        <v>0.0002303878340011962</v>
+        <v>0.000200955871371612</v>
       </c>
       <c r="GB6">
-        <v>0.002002201647866974</v>
+        <v>0.001983023511690886</v>
       </c>
       <c r="GC6">
-        <v>0.003604486506146921</v>
+        <v>0.003594581099835163</v>
       </c>
       <c r="GD6">
-        <v>3.028863521134907E-06</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0005557138255304068</v>
+        <v>0.0005281645868257896</v>
       </c>
       <c r="GF6">
-        <v>0.0001248627067488436</v>
+        <v>9.482004996343961E-05</v>
       </c>
       <c r="GG6">
-        <v>0.001689588156006757</v>
+        <v>0.001668600865580108</v>
       </c>
       <c r="GH6">
-        <v>0.006592591128343102</v>
+        <v>0.006599978456731292</v>
       </c>
       <c r="GI6">
-        <v>0.001947052249302946</v>
+        <v>0.001927554952977261</v>
       </c>
       <c r="GJ6">
-        <v>0.001943953549383629</v>
+        <v>0.001924438320287043</v>
       </c>
       <c r="GK6">
-        <v>0.005541153555720275</v>
+        <v>0.00554245601316323</v>
       </c>
       <c r="GL6">
-        <v>0.001028952373208292</v>
+        <v>0.001004141856767278</v>
       </c>
       <c r="GM6">
-        <v>0.0001636675257384495</v>
+        <v>0.0001338494398850277</v>
       </c>
       <c r="GN6">
-        <v>0.0005177436865190676</v>
+        <v>0.000489974707335631</v>
       </c>
       <c r="GO6">
-        <v>0.005840949047914245</v>
+        <v>0.005843986479384629</v>
       </c>
       <c r="GP6">
-        <v>0.000287184772522326</v>
+        <v>0.0002580815046721413</v>
       </c>
       <c r="GQ6">
-        <v>0.0007523490104104494</v>
+        <v>0.0007259377372441026</v>
       </c>
       <c r="GR6">
-        <v>0.0006364403334284621</v>
+        <v>0.0006093582745119836</v>
       </c>
       <c r="GS6">
-        <v>9.866625743094279E-05</v>
+        <v>6.847199676769261E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.901555739401241E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.469645636273139E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001203920594332948</v>
+        <v>3.634161613711461E-05</v>
       </c>
       <c r="E2">
-        <v>0.0002971781540195424</v>
+        <v>0.0001646038437327689</v>
       </c>
       <c r="F2">
-        <v>0.0005569945554564455</v>
+        <v>0.0003766530445712703</v>
       </c>
       <c r="G2">
-        <v>0.0009072955643590426</v>
+        <v>0.0006800114513152029</v>
       </c>
       <c r="H2">
-        <v>0.001327055428992543</v>
+        <v>0.001053461701716558</v>
       </c>
       <c r="I2">
-        <v>0.001792928807430773</v>
+        <v>0.001473445704597476</v>
       </c>
       <c r="J2">
-        <v>0.002351829793544514</v>
+        <v>0.00198730508829776</v>
       </c>
       <c r="K2">
-        <v>0.002858079135314078</v>
+        <v>0.002448033006113036</v>
       </c>
       <c r="L2">
-        <v>0.00332719889402016</v>
+        <v>0.002871292973963321</v>
       </c>
       <c r="M2">
-        <v>0.003627700998813954</v>
+        <v>0.003124398652464393</v>
       </c>
       <c r="N2">
-        <v>0.003859744217959351</v>
+        <v>0.003308421570252866</v>
       </c>
       <c r="O2">
-        <v>0.004012642230574643</v>
+        <v>0.003412578020562602</v>
       </c>
       <c r="P2">
-        <v>0.004162584172946036</v>
+        <v>0.003513751461561351</v>
       </c>
       <c r="Q2">
-        <v>0.004223905818005556</v>
+        <v>0.003525496996518531</v>
       </c>
       <c r="R2">
-        <v>0.004226761520641173</v>
+        <v>0.003525496996518531</v>
       </c>
       <c r="S2">
-        <v>0.004243990328062686</v>
+        <v>0.003525496996518531</v>
       </c>
       <c r="T2">
-        <v>0.004293672510161858</v>
+        <v>0.003525496996518531</v>
       </c>
       <c r="U2">
-        <v>0.004366262576151111</v>
+        <v>0.003548613643046176</v>
       </c>
       <c r="V2">
-        <v>0.004617391796871253</v>
+        <v>0.003751896495717613</v>
       </c>
       <c r="W2">
-        <v>0.004947151624079041</v>
+        <v>0.004034526526205691</v>
       </c>
       <c r="X2">
-        <v>0.00526022361990995</v>
+        <v>0.004300316646857346</v>
       </c>
       <c r="Y2">
-        <v>0.005838384527612787</v>
+        <v>0.004833611470411507</v>
       </c>
       <c r="Z2">
-        <v>0.006622036832270285</v>
+        <v>0.005574270361754123</v>
       </c>
       <c r="AA2">
-        <v>0.00733506263110054</v>
+        <v>0.00624365911839006</v>
       </c>
       <c r="AB2">
-        <v>0.00822641885464446</v>
+        <v>0.007093003448967751</v>
       </c>
       <c r="AC2">
-        <v>0.009171455292617422</v>
+        <v>0.007996517189013315</v>
       </c>
       <c r="AD2">
-        <v>0.009990811560220778</v>
+        <v>0.008773205418334762</v>
       </c>
       <c r="AE2">
-        <v>0.01066119481553269</v>
+        <v>0.009399563024198187</v>
       </c>
       <c r="AF2">
-        <v>0.01100029000351071</v>
+        <v>0.009691613489859115</v>
       </c>
       <c r="AG2">
-        <v>0.01111057979261049</v>
+        <v>0.009752773422161987</v>
       </c>
       <c r="AH2">
-        <v>0.01115119372596146</v>
+        <v>0.009752773422161987</v>
       </c>
       <c r="AI2">
-        <v>0.01115283978749728</v>
+        <v>0.009752773422161987</v>
       </c>
       <c r="AJ2">
-        <v>0.01118652453427653</v>
+        <v>0.009752773422161987</v>
       </c>
       <c r="AK2">
-        <v>0.01127305612141607</v>
+        <v>0.009789958640803722</v>
       </c>
       <c r="AL2">
-        <v>0.01157773704655465</v>
+        <v>0.01004728122180336</v>
       </c>
       <c r="AM2">
-        <v>0.01199565321103603</v>
+        <v>0.01041887097016428</v>
       </c>
       <c r="AN2">
-        <v>0.01269598666881907</v>
+        <v>0.01107545171873607</v>
       </c>
       <c r="AO2">
-        <v>0.01358295531200098</v>
+        <v>0.01192036848433975</v>
       </c>
       <c r="AP2">
-        <v>0.01468754410313827</v>
+        <v>0.01298488859967739</v>
       </c>
       <c r="AQ2">
-        <v>0.01602370691338224</v>
+        <v>0.01428309309941132</v>
       </c>
       <c r="AR2">
-        <v>0.01730554991914441</v>
+        <v>0.01552648277095414</v>
       </c>
       <c r="AS2">
-        <v>0.01844940461352144</v>
+        <v>0.01663062662500711</v>
       </c>
       <c r="AT2">
-        <v>0.0195017313003467</v>
+        <v>0.01764240836442277</v>
       </c>
       <c r="AU2">
-        <v>0.02027040869376865</v>
+        <v>0.01836795587614272</v>
       </c>
       <c r="AV2">
-        <v>0.02072532873130314</v>
+        <v>0.01877688671884597</v>
       </c>
       <c r="AW2">
-        <v>0.02089539240533474</v>
+        <v>0.01889836526356119</v>
       </c>
       <c r="AX2">
-        <v>0.0209489795027561</v>
+        <v>0.01890230576490372</v>
       </c>
       <c r="AY2">
-        <v>0.02094899598263746</v>
+        <v>0.01890230576490372</v>
       </c>
       <c r="AZ2">
-        <v>0.02096867439226108</v>
+        <v>0.01890230576490372</v>
       </c>
       <c r="BA2">
-        <v>0.02109938317304559</v>
+        <v>0.01898407076991831</v>
       </c>
       <c r="BB2">
-        <v>0.02155168091036372</v>
+        <v>0.01939035541502942</v>
       </c>
       <c r="BC2">
-        <v>0.02216501946096899</v>
+        <v>0.0199591484600934</v>
       </c>
       <c r="BD2">
-        <v>0.02304654103370148</v>
+        <v>0.02079856851535951</v>
       </c>
       <c r="BE2">
-        <v>0.02408905191971685</v>
+        <v>0.02180044500124776</v>
       </c>
       <c r="BF2">
-        <v>0.02523788851450494</v>
+        <v>0.02290961615644259</v>
       </c>
       <c r="BG2">
-        <v>0.02630772430277483</v>
+        <v>0.0239390665601074</v>
       </c>
       <c r="BH2">
-        <v>0.02744235549639085</v>
+        <v>0.02503390285839212</v>
       </c>
       <c r="BI2">
-        <v>0.02878720390735146</v>
+        <v>0.02634087211189422</v>
       </c>
       <c r="BJ2">
-        <v>0.03004646201125019</v>
+        <v>0.02756147106231484</v>
       </c>
       <c r="BK2">
-        <v>0.03093513058457236</v>
+        <v>0.02840810324975158</v>
       </c>
       <c r="BL2">
-        <v>0.03171878288922986</v>
+        <v>0.02914876214109419</v>
       </c>
       <c r="BM2">
-        <v>0.03227477693510375</v>
+        <v>0.0296596880932159</v>
       </c>
       <c r="BN2">
-        <v>0.03268165561867445</v>
+        <v>0.03002013977461298</v>
       </c>
       <c r="BO2">
-        <v>0.03285364358286481</v>
+        <v>0.03014356014580289</v>
       </c>
       <c r="BP2">
-        <v>0.03287523111464596</v>
+        <v>0.03014356014580289</v>
       </c>
       <c r="BQ2">
-        <v>0.03288118768013742</v>
+        <v>0.03014356014580289</v>
       </c>
       <c r="BR2">
-        <v>0.03297984908427776</v>
+        <v>0.03019298572210481</v>
       </c>
       <c r="BS2">
-        <v>0.03315663517886401</v>
+        <v>0.03032124794970046</v>
       </c>
       <c r="BT2">
-        <v>0.03346605180439333</v>
+        <v>0.03058334938816763</v>
       </c>
       <c r="BU2">
-        <v>0.03395754584494546</v>
+        <v>0.03102918753771409</v>
       </c>
       <c r="BV2">
-        <v>0.03468921474531392</v>
+        <v>0.03171738929298865</v>
       </c>
       <c r="BW2">
-        <v>0.03554427991586354</v>
+        <v>0.03253011184530822</v>
       </c>
       <c r="BX2">
-        <v>0.03674571571499147</v>
+        <v>0.0336923615484909</v>
       </c>
       <c r="BY2">
-        <v>0.03789872911012418</v>
+        <v>0.0348057475677756</v>
       </c>
       <c r="BZ2">
-        <v>0.03919891431739972</v>
+        <v>0.03606764659578966</v>
       </c>
       <c r="CA2">
-        <v>0.04050451912512242</v>
+        <v>0.0373350146138012</v>
       </c>
       <c r="CB2">
-        <v>0.04171534082502476</v>
+        <v>0.03850673575273877</v>
       </c>
       <c r="CC2">
-        <v>0.04269493590584909</v>
+        <v>0.03944512307321207</v>
       </c>
       <c r="CD2">
-        <v>0.0432717257534388</v>
+        <v>0.03997703434199726</v>
       </c>
       <c r="CE2">
-        <v>0.04359773376033704</v>
+        <v>0.04025587836133095</v>
       </c>
       <c r="CF2">
-        <v>0.04370648368930977</v>
+        <v>0.04031548440055362</v>
       </c>
       <c r="CG2">
-        <v>0.04371466908898513</v>
+        <v>0.04031548440055362</v>
       </c>
       <c r="CH2">
-        <v>0.04371905297204683</v>
+        <v>0.04031548440055362</v>
       </c>
       <c r="CI2">
-        <v>0.04378129514718231</v>
+        <v>0.04032815885450156</v>
       </c>
       <c r="CJ2">
-        <v>0.0440405793285753</v>
+        <v>0.04053967098510306</v>
       </c>
       <c r="CK2">
-        <v>0.04456723217202831</v>
+        <v>0.04102098834446631</v>
       </c>
       <c r="CL2">
-        <v>0.04525561722882551</v>
+        <v>0.04166551180466151</v>
       </c>
       <c r="CM2">
-        <v>0.04614160233192627</v>
+        <v>0.04250943606705054</v>
       </c>
       <c r="CN2">
-        <v>0.0487131809441018</v>
+        <v>0.0450543148796521</v>
       </c>
       <c r="CO2">
-        <v>0.1052658076101397</v>
+        <v>0.1020721783223726</v>
       </c>
       <c r="CP2">
-        <v>0.1066730317262468</v>
+        <v>0.1034420917192404</v>
       </c>
       <c r="CQ2">
-        <v>0.2548815739546209</v>
+        <v>0.2529511434528</v>
       </c>
       <c r="CR2">
-        <v>0.2835018123160163</v>
+        <v>0.281782066966472</v>
       </c>
       <c r="CS2">
-        <v>0.2879370496819584</v>
+        <v>0.2862075883065846</v>
       </c>
       <c r="CT2">
-        <v>0.2879371349647055</v>
+        <v>0.2862075883065846</v>
       </c>
       <c r="CU2">
-        <v>0.2879498455717542</v>
+        <v>0.2862075883065846</v>
       </c>
       <c r="CV2">
-        <v>0.2925709782530341</v>
+        <v>0.2908206990511324</v>
       </c>
       <c r="CW2">
-        <v>0.3176361003211044</v>
+        <v>0.3160641080168957</v>
       </c>
       <c r="CX2">
-        <v>0.3217762386626985</v>
+        <v>0.3201918410554246</v>
       </c>
       <c r="CY2">
-        <v>0.3727873628715187</v>
+        <v>0.3716177015811475</v>
       </c>
       <c r="CZ2">
-        <v>0.4136635262441247</v>
+        <v>0.4128162400047303</v>
       </c>
       <c r="DA2">
-        <v>0.4176507219730998</v>
+        <v>0.4167896366439701</v>
       </c>
       <c r="DB2">
-        <v>0.427150616256916</v>
+        <v>0.4263259698039811</v>
       </c>
       <c r="DC2">
-        <v>0.4278509497146991</v>
+        <v>0.4269825505525529</v>
       </c>
       <c r="DD2">
-        <v>0.4564305620727426</v>
+        <v>0.4557724778326214</v>
       </c>
       <c r="DE2">
-        <v>0.5010743887562105</v>
+        <v>0.500773014791306</v>
       </c>
       <c r="DF2">
-        <v>0.5044586548354392</v>
+        <v>0.5041379872015291</v>
       </c>
       <c r="DG2">
-        <v>0.547263408367169</v>
+        <v>0.5472826912866405</v>
       </c>
       <c r="DH2">
-        <v>0.5473107895510784</v>
+        <v>0.5472826912866405</v>
       </c>
       <c r="DI2">
-        <v>0.5676068862256665</v>
+        <v>0.5677136140868779</v>
       </c>
       <c r="DJ2">
-        <v>0.5678893945989756</v>
+        <v>0.5679485620545909</v>
       </c>
       <c r="DK2">
-        <v>0.5838285089140782</v>
+        <v>0.5839827967270778</v>
       </c>
       <c r="DL2">
-        <v>0.5912290408246805</v>
+        <v>0.5914006357412355</v>
       </c>
       <c r="DM2">
-        <v>0.6222497203841313</v>
+        <v>0.6226538759975668</v>
       </c>
       <c r="DN2">
-        <v>0.6505609087200277</v>
+        <v>0.6511729330711477</v>
       </c>
       <c r="DO2">
-        <v>0.6536164165721312</v>
+        <v>0.6542061512361522</v>
       </c>
       <c r="DP2">
-        <v>0.6634231403812633</v>
+        <v>0.6640521101003534</v>
       </c>
       <c r="DQ2">
-        <v>0.6646655123837688</v>
+        <v>0.6652556690640598</v>
       </c>
       <c r="DR2">
-        <v>0.665097667139425</v>
+        <v>0.6656416271617985</v>
       </c>
       <c r="DS2">
-        <v>0.6651369713346679</v>
+        <v>0.6656416271617985</v>
       </c>
       <c r="DT2">
-        <v>0.6665073784477372</v>
+        <v>0.6669743880373111</v>
       </c>
       <c r="DU2">
-        <v>0.6665096080709212</v>
+        <v>0.6669743880373111</v>
       </c>
       <c r="DV2">
-        <v>0.6665105156515561</v>
+        <v>0.6669743880373111</v>
       </c>
       <c r="DW2">
-        <v>0.6666088492396693</v>
+        <v>0.6670234828101543</v>
       </c>
       <c r="DX2">
-        <v>0.6667628632523768</v>
+        <v>0.6671287654308156</v>
       </c>
       <c r="DY2">
-        <v>0.6677929042373633</v>
+        <v>0.6681180583757839</v>
       </c>
       <c r="DZ2">
-        <v>0.6678346745208097</v>
+        <v>0.6681180583757839</v>
       </c>
       <c r="EA2">
-        <v>0.6683565830638712</v>
+        <v>0.668594588199306</v>
       </c>
       <c r="EB2">
-        <v>0.6716110983323944</v>
+        <v>0.6718286273621743</v>
       </c>
       <c r="EC2">
-        <v>0.6846921064116808</v>
+        <v>0.6849787094909847</v>
       </c>
       <c r="ED2">
-        <v>0.7166076890449682</v>
+        <v>0.7171350081936416</v>
       </c>
       <c r="EE2">
-        <v>0.7226087605401039</v>
+        <v>0.723140633320694</v>
       </c>
       <c r="EF2">
-        <v>0.7234077021360229</v>
+        <v>0.7238967208366728</v>
       </c>
       <c r="EG2">
-        <v>0.7262256693685274</v>
+        <v>0.7266902336423533</v>
       </c>
       <c r="EH2">
-        <v>0.727765419795569</v>
+        <v>0.7281938810803131</v>
       </c>
       <c r="EI2">
-        <v>0.73157803731014</v>
+        <v>0.7319911085503197</v>
       </c>
       <c r="EJ2">
-        <v>0.7318188531200093</v>
+        <v>0.7321839840046351</v>
       </c>
       <c r="EK2">
-        <v>0.7378434420170854</v>
+        <v>0.7382133408508856</v>
       </c>
       <c r="EL2">
-        <v>0.7378435281790225</v>
+        <v>0.7382133408508856</v>
       </c>
       <c r="EM2">
-        <v>0.7397452622359306</v>
+        <v>0.7400822707243846</v>
       </c>
       <c r="EN2">
-        <v>0.74077049012052</v>
+        <v>0.7410667067065223</v>
       </c>
       <c r="EO2">
-        <v>0.7515924690134186</v>
+        <v>0.7519371728110883</v>
       </c>
       <c r="EP2">
-        <v>0.7624331979078642</v>
+        <v>0.762826559788496</v>
       </c>
       <c r="EQ2">
-        <v>0.7642675745592148</v>
+        <v>0.76462751841931</v>
       </c>
       <c r="ER2">
-        <v>0.7642689655183296</v>
+        <v>0.76462751841931</v>
       </c>
       <c r="ES2">
-        <v>0.7652768640014892</v>
+        <v>0.7655944670748439</v>
       </c>
       <c r="ET2">
-        <v>0.7652827402212741</v>
+        <v>0.7655944670748439</v>
       </c>
       <c r="EU2">
-        <v>0.7655277682714908</v>
+        <v>0.7657915931562217</v>
       </c>
       <c r="EV2">
-        <v>0.7657423145491926</v>
+        <v>0.7659579596805778</v>
       </c>
       <c r="EW2">
-        <v>0.7657672303382483</v>
+        <v>0.7659579596805778</v>
       </c>
       <c r="EX2">
-        <v>0.7658323721336231</v>
+        <v>0.7659735601793956</v>
       </c>
       <c r="EY2">
-        <v>0.7689815411934544</v>
+        <v>0.7691012930993546</v>
       </c>
       <c r="EZ2">
-        <v>0.7740007936075823</v>
+        <v>0.7741161516956065</v>
       </c>
       <c r="FA2">
-        <v>0.7835384818945169</v>
+        <v>0.783690623280587</v>
       </c>
       <c r="FB2">
-        <v>0.8490381132987533</v>
+        <v>0.8497370267231827</v>
       </c>
       <c r="FC2">
-        <v>0.8842818322066383</v>
+        <v>0.8852517914554765</v>
       </c>
       <c r="FD2">
-        <v>0.8848386054525764</v>
+        <v>0.8857635037086179</v>
       </c>
       <c r="FE2">
-        <v>0.8895975198452244</v>
+        <v>0.8905156517878646</v>
       </c>
       <c r="FF2">
-        <v>0.8909733793587437</v>
+        <v>0.8918539147522883</v>
       </c>
       <c r="FG2">
-        <v>0.8994734470600663</v>
+        <v>0.9003813097752218</v>
       </c>
       <c r="FH2">
-        <v>0.9005570778494744</v>
+        <v>0.9014246808957319</v>
       </c>
       <c r="FI2">
-        <v>0.9037214316105585</v>
+        <v>0.9045677368971757</v>
       </c>
       <c r="FJ2">
-        <v>0.9094741250852011</v>
+        <v>0.9103227205013128</v>
       </c>
       <c r="FK2">
-        <v>0.9101199354684856</v>
+        <v>0.9109242812992496</v>
       </c>
       <c r="FL2">
-        <v>0.9102452425188244</v>
+        <v>0.91100059534712</v>
       </c>
       <c r="FM2">
-        <v>0.9237943616367337</v>
+        <v>0.9246230544736249</v>
       </c>
       <c r="FN2">
-        <v>0.9412423530763306</v>
+        <v>0.9421799168714813</v>
       </c>
       <c r="FO2">
-        <v>0.944205613120823</v>
+        <v>0.9451200465621541</v>
       </c>
       <c r="FP2">
-        <v>0.9460143572700587</v>
+        <v>0.9468951390984021</v>
       </c>
       <c r="FQ2">
-        <v>0.9504997319401375</v>
+        <v>0.9513712546506706</v>
       </c>
       <c r="FR2">
-        <v>0.9509139117543106</v>
+        <v>0.9517390739988586</v>
       </c>
       <c r="FS2">
-        <v>0.9563253992008011</v>
+        <v>0.9571497421182594</v>
       </c>
       <c r="FT2">
-        <v>0.9594626149596461</v>
+        <v>0.9602654128051871</v>
       </c>
       <c r="FU2">
-        <v>0.9594697938124385</v>
+        <v>0.9602654128051871</v>
       </c>
       <c r="FV2">
-        <v>0.9595565769895987</v>
+        <v>0.9603028519066233</v>
       </c>
       <c r="FW2">
-        <v>0.9596307102457153</v>
+        <v>0.9603275258065782</v>
       </c>
       <c r="FX2">
-        <v>0.9600868479233503</v>
+        <v>0.9607376853859005</v>
       </c>
       <c r="FY2">
-        <v>0.9610976084067461</v>
+        <v>0.961707522123465</v>
       </c>
       <c r="FZ2">
-        <v>0.9663490388400305</v>
+        <v>0.966956674608497</v>
       </c>
       <c r="GA2">
-        <v>0.9702699574635373</v>
+        <v>0.9708631901500614</v>
       </c>
       <c r="GB2">
-        <v>0.9716771815796443</v>
+        <v>0.9722331035469293</v>
       </c>
       <c r="GC2">
-        <v>0.9719156730393218</v>
+        <v>0.972423633468936</v>
       </c>
       <c r="GD2">
-        <v>0.9752912103178303</v>
+        <v>0.9757797975317</v>
       </c>
       <c r="GE2">
-        <v>0.9753677150641425</v>
+        <v>0.9758068645335607</v>
       </c>
       <c r="GF2">
-        <v>0.976953763095004</v>
+        <v>0.9773572314916524</v>
       </c>
       <c r="GG2">
-        <v>0.9783790686126029</v>
+        <v>0.9787453910682643</v>
       </c>
       <c r="GH2">
-        <v>0.9786692498365451</v>
+        <v>0.9789880818103337</v>
       </c>
       <c r="GI2">
-        <v>0.9837418295550729</v>
+        <v>0.9840567536899076</v>
       </c>
       <c r="GJ2">
-        <v>0.9847403121374556</v>
+        <v>0.9850142006362901</v>
       </c>
       <c r="GK2">
-        <v>0.984936782523666</v>
+        <v>0.985162326541116</v>
       </c>
       <c r="GL2">
-        <v>0.9883912862086898</v>
+        <v>0.9885981766419153</v>
       </c>
       <c r="GM2">
-        <v>0.9892613441304764</v>
+        <v>0.9894260285764374</v>
       </c>
       <c r="GN2">
-        <v>0.9892731094649472</v>
+        <v>0.9894260285764374</v>
       </c>
       <c r="GO2">
-        <v>0.9905291727685823</v>
+        <v>0.9906434036119484</v>
       </c>
       <c r="GP2">
-        <v>0.9976556220565707</v>
+        <v>0.9977846622515617</v>
       </c>
       <c r="GQ2">
-        <v>0.9981410765466244</v>
+        <v>0.9982244058113711</v>
       </c>
       <c r="GR2">
-        <v>0.9993518982465268</v>
+        <v>0.9993961269503087</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002503442127433845</v>
+        <v>0.0001762789496613614</v>
       </c>
       <c r="C3">
-        <v>0.0004839714946358195</v>
+        <v>0.0003356284458251864</v>
       </c>
       <c r="D3">
-        <v>0.000734315707379204</v>
+        <v>0.0005119073954865478</v>
       </c>
       <c r="E3">
-        <v>0.0008105938752620259</v>
+        <v>0.0005119073954865478</v>
       </c>
       <c r="F3">
-        <v>0.0008195139647160893</v>
+        <v>0.0005119073954865478</v>
       </c>
       <c r="G3">
-        <v>0.0009612405019304591</v>
+        <v>0.0005781878111302542</v>
       </c>
       <c r="H3">
-        <v>0.001034168035642722</v>
+        <v>0.0005781878111302542</v>
       </c>
       <c r="I3">
-        <v>0.001188342543490737</v>
+        <v>0.0006570744486851445</v>
       </c>
       <c r="J3">
-        <v>0.001560358612427639</v>
+        <v>0.000956572071065374</v>
       </c>
       <c r="K3">
-        <v>0.001732840451207559</v>
+        <v>0.001053998780983973</v>
       </c>
       <c r="L3">
-        <v>0.001869734488175938</v>
+        <v>0.001115385260717985</v>
       </c>
       <c r="M3">
-        <v>0.002187610104356904</v>
+        <v>0.001360054141779641</v>
       </c>
       <c r="N3">
-        <v>0.002683518269600341</v>
+        <v>0.001785018902944779</v>
       </c>
       <c r="O3">
-        <v>0.003247126838289963</v>
+        <v>0.002278544744019004</v>
       </c>
       <c r="P3">
-        <v>0.003798650366364413</v>
+        <v>0.002759831907136459</v>
       </c>
       <c r="Q3">
-        <v>0.004161347504826949</v>
+        <v>0.003049892127309357</v>
       </c>
       <c r="R3">
-        <v>0.004577544176012797</v>
+        <v>0.003394132020740148</v>
       </c>
       <c r="S3">
-        <v>0.004901839412520544</v>
+        <v>0.003645302134878802</v>
       </c>
       <c r="T3">
-        <v>0.005019963388533462</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="U3">
-        <v>0.005022834170979595</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="V3">
-        <v>0.005052347092481905</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="W3">
-        <v>0.005053257713978259</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="X3">
-        <v>0.005056539399345308</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="Y3">
-        <v>0.005112870422212752</v>
+        <v>0.003687679929530328</v>
       </c>
       <c r="Z3">
-        <v>0.005393644576505125</v>
+        <v>0.0038947756771422</v>
       </c>
       <c r="AA3">
-        <v>0.005805758267483135</v>
+        <v>0.004234880683363355</v>
       </c>
       <c r="AB3">
-        <v>0.006145986684801936</v>
+        <v>0.004502186537131108</v>
       </c>
       <c r="AC3">
-        <v>0.006504872963070485</v>
+        <v>0.004788387449574919</v>
       </c>
       <c r="AD3">
-        <v>0.00699010281777036</v>
+        <v>0.005202538146639933</v>
       </c>
       <c r="AE3">
-        <v>0.007303051873700547</v>
+        <v>0.005442217836000552</v>
       </c>
       <c r="AF3">
-        <v>0.007536679155592982</v>
+        <v>0.005601567332164377</v>
       </c>
       <c r="AG3">
-        <v>0.00776913446742576</v>
+        <v>0.005759729958991816</v>
       </c>
       <c r="AH3">
-        <v>0.007944708546363087</v>
+        <v>0.0058602882207733</v>
       </c>
       <c r="AI3">
-        <v>0.008008370139603682</v>
+        <v>0.0058602882207733</v>
       </c>
       <c r="AJ3">
-        <v>0.008118340540201555</v>
+        <v>0.005894408783456924</v>
       </c>
       <c r="AK3">
-        <v>0.008206202978674056</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AL3">
-        <v>0.00821673042720994</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AM3">
-        <v>0.00821815923178267</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AN3">
-        <v>0.008219592934855651</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AO3">
-        <v>0.008246369711218681</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AP3">
-        <v>0.008311023374509776</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AQ3">
-        <v>0.008332765273616514</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AR3">
-        <v>0.008370394505531972</v>
+        <v>0.005906140325089742</v>
       </c>
       <c r="AS3">
-        <v>0.008538203224074016</v>
+        <v>0.005998834505307708</v>
       </c>
       <c r="AT3">
-        <v>0.008578062242102977</v>
+        <v>0.005998834505307708</v>
       </c>
       <c r="AU3">
-        <v>0.008674731951023799</v>
+        <v>0.006019485284378575</v>
       </c>
       <c r="AV3">
-        <v>0.00901441306831474</v>
+        <v>0.00628623688028324</v>
       </c>
       <c r="AW3">
-        <v>0.009279479131807518</v>
+        <v>0.006477424839850888</v>
       </c>
       <c r="AX3">
-        <v>0.009481347222083301</v>
+        <v>0.006604611389216202</v>
       </c>
       <c r="AY3">
-        <v>0.009829093599784792</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="AZ3">
-        <v>0.009881064182430274</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BA3">
-        <v>0.009881606978217904</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BB3">
-        <v>0.009895320536915971</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BC3">
-        <v>0.00997000683071776</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BD3">
-        <v>0.01001265971888894</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BE3">
-        <v>0.010072303176925</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BF3">
-        <v>0.01010336514850616</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BG3">
-        <v>0.01010664683387321</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BH3">
-        <v>0.01018092676765431</v>
+        <v>0.006879530779334011</v>
       </c>
       <c r="BI3">
-        <v>0.01044856546127805</v>
+        <v>0.007073324074926358</v>
       </c>
       <c r="BJ3">
-        <v>0.01060025889899977</v>
+        <v>0.007149698100465219</v>
       </c>
       <c r="BK3">
-        <v>0.01065134042759999</v>
+        <v>0.007149698100465219</v>
       </c>
       <c r="BL3">
-        <v>0.01070767145046744</v>
+        <v>0.007149698100465219</v>
       </c>
       <c r="BM3">
-        <v>0.01085128085777765</v>
+        <v>0.007217885323166615</v>
       </c>
       <c r="BN3">
-        <v>0.01102957807685359</v>
+        <v>0.00732120134441693</v>
       </c>
       <c r="BO3">
-        <v>0.01117503338425777</v>
+        <v>0.007391257934173827</v>
       </c>
       <c r="BP3">
-        <v>0.0112901617001182</v>
+        <v>0.007430601984790747</v>
       </c>
       <c r="BQ3">
-        <v>0.01131552228140914</v>
+        <v>0.007430601984790747</v>
       </c>
       <c r="BR3">
-        <v>0.01139427875541812</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BS3">
-        <v>0.01143950294472019</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BT3">
-        <v>0.01146008655876796</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BU3">
-        <v>0.01146741551914103</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BV3">
-        <v>0.01146743384501097</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BW3">
-        <v>0.01147066197517529</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BX3">
-        <v>0.01147099971895248</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BY3">
-        <v>0.01154089984251064</v>
+        <v>0.007433111797667852</v>
       </c>
       <c r="BZ3">
-        <v>0.01165680926841083</v>
+        <v>0.007473246888590705</v>
       </c>
       <c r="CA3">
-        <v>0.01173282839228046</v>
+        <v>0.007473246888590705</v>
       </c>
       <c r="CB3">
-        <v>0.01193981881281699</v>
+        <v>0.007605620888494727</v>
       </c>
       <c r="CC3">
-        <v>0.01205408108263333</v>
+        <v>0.007644087883008419</v>
       </c>
       <c r="CD3">
-        <v>0.01218417525925558</v>
+        <v>0.007698588055647782</v>
       </c>
       <c r="CE3">
-        <v>0.01237599121901967</v>
+        <v>0.007815594681583006</v>
       </c>
       <c r="CF3">
-        <v>0.01245516610304995</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CG3">
-        <v>0.01247667001114457</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CH3">
-        <v>0.01250371228552111</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CI3">
-        <v>0.0125037336368622</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CJ3">
-        <v>0.01250974251586807</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CK3">
-        <v>0.0125097921967506</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CL3">
-        <v>0.01251288386570798</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CM3">
-        <v>0.01252661259340682</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="CN3">
-        <v>0.0155166511456101</v>
+        <v>0.01076933129692747</v>
       </c>
       <c r="CO3">
-        <v>0.1213433465325541</v>
+        <v>0.1178641554974768</v>
       </c>
       <c r="CP3">
-        <v>0.129200335932502</v>
+        <v>0.1257437830532445</v>
       </c>
       <c r="CQ3">
-        <v>0.2719316931980207</v>
+        <v>0.2702124387714464</v>
       </c>
       <c r="CR3">
-        <v>0.2819961307103353</v>
+        <v>0.2803275777676657</v>
       </c>
       <c r="CS3">
-        <v>0.2969507179715754</v>
+        <v>0.2953950350756954</v>
       </c>
       <c r="CT3">
-        <v>0.2969509472169771</v>
+        <v>0.2953950350756954</v>
       </c>
       <c r="CU3">
-        <v>0.2972160132804699</v>
+        <v>0.295586223035263</v>
       </c>
       <c r="CV3">
-        <v>0.299272772385166</v>
+        <v>0.2975918818623218</v>
       </c>
       <c r="CW3">
-        <v>0.3264391277680273</v>
+        <v>0.3250263557226716</v>
       </c>
       <c r="CX3">
-        <v>0.32773791293414</v>
+        <v>0.326264404474651</v>
       </c>
       <c r="CY3">
-        <v>0.3799217455904771</v>
+        <v>0.3790344032530171</v>
       </c>
       <c r="CZ3">
-        <v>0.411020577173515</v>
+        <v>0.4104513469551488</v>
       </c>
       <c r="DA3">
-        <v>0.4126911950585552</v>
+        <v>0.4120659555421884</v>
       </c>
       <c r="DB3">
-        <v>0.4178334598203143</v>
+        <v>0.4171963461159641</v>
       </c>
       <c r="DC3">
-        <v>0.4184143061498813</v>
+        <v>0.4177073288618839</v>
       </c>
       <c r="DD3">
-        <v>0.4692516467376774</v>
+        <v>0.4691137175935007</v>
       </c>
       <c r="DE3">
-        <v>0.5136323789968099</v>
+        <v>0.5139814150170949</v>
       </c>
       <c r="DF3">
-        <v>0.5194097117908961</v>
+        <v>0.5197549472546673</v>
       </c>
       <c r="DG3">
-        <v>0.5501934483578945</v>
+        <v>0.5508527901320778</v>
       </c>
       <c r="DH3">
-        <v>0.5523041280653354</v>
+        <v>0.5529130550554867</v>
       </c>
       <c r="DI3">
-        <v>0.5735344221460306</v>
+        <v>0.5743360023581469</v>
       </c>
       <c r="DJ3">
-        <v>0.5735734774440187</v>
+        <v>0.5743360023581469</v>
       </c>
       <c r="DK3">
-        <v>0.593994456483517</v>
+        <v>0.5949393457827409</v>
       </c>
       <c r="DL3">
-        <v>0.5968336968280441</v>
+        <v>0.597737433547894</v>
       </c>
       <c r="DM3">
-        <v>0.6314195185885818</v>
+        <v>0.6326856975972051</v>
       </c>
       <c r="DN3">
-        <v>0.6470966383866014</v>
+        <v>0.648484873011323</v>
       </c>
       <c r="DO3">
-        <v>0.6566612768734744</v>
+        <v>0.6580938590279812</v>
       </c>
       <c r="DP3">
-        <v>0.6678459414428124</v>
+        <v>0.669343466548217</v>
       </c>
       <c r="DQ3">
-        <v>0.6701474959599695</v>
+        <v>0.6715970328762769</v>
       </c>
       <c r="DR3">
-        <v>0.6713850816229668</v>
+        <v>0.6727731040947426</v>
       </c>
       <c r="DS3">
-        <v>0.6728569806978916</v>
+        <v>0.6741864675558119</v>
       </c>
       <c r="DT3">
-        <v>0.675359156125261</v>
+        <v>0.6766432052913721</v>
       </c>
       <c r="DU3">
-        <v>0.67543142952894</v>
+        <v>0.6766432052913721</v>
       </c>
       <c r="DV3">
-        <v>0.6754316839343529</v>
+        <v>0.6766432052913721</v>
       </c>
       <c r="DW3">
-        <v>0.675440388284796</v>
+        <v>0.6766432052913721</v>
       </c>
       <c r="DX3">
-        <v>0.6755426725740027</v>
+        <v>0.6766695420289903</v>
       </c>
       <c r="DY3">
-        <v>0.6760149349580424</v>
+        <v>0.6770705603997044</v>
       </c>
       <c r="DZ3">
-        <v>0.67608855471179</v>
+        <v>0.6770705603997044</v>
       </c>
       <c r="EA3">
-        <v>0.6766674537912579</v>
+        <v>0.6775795711400991</v>
       </c>
       <c r="EB3">
-        <v>0.6774280547899751</v>
+        <v>0.6782725937795543</v>
       </c>
       <c r="EC3">
-        <v>0.6994599829114764</v>
+        <v>0.7005073663111915</v>
       </c>
       <c r="ED3">
-        <v>0.7302983394812551</v>
+        <v>0.7316605235764732</v>
       </c>
       <c r="EE3">
-        <v>0.7349941021202856</v>
+        <v>0.7363387356378962</v>
       </c>
       <c r="EF3">
-        <v>0.7355835156002888</v>
+        <v>0.7368583944485918</v>
       </c>
       <c r="EG3">
-        <v>0.7367978053621004</v>
+        <v>0.7380108736046552</v>
       </c>
       <c r="EH3">
-        <v>0.7397766601137343</v>
+        <v>0.7409503506974173</v>
       </c>
       <c r="EI3">
-        <v>0.7441586913367948</v>
+        <v>0.7453108428696611</v>
       </c>
       <c r="EJ3">
-        <v>0.7443716144476333</v>
+        <v>0.7454492249822671</v>
       </c>
       <c r="EK3">
-        <v>0.7481474526398365</v>
+        <v>0.7491958175806039</v>
       </c>
       <c r="EL3">
-        <v>0.7487282989694036</v>
+        <v>0.7497068003265238</v>
       </c>
       <c r="EM3">
-        <v>0.7515992073155427</v>
+        <v>0.7525369586891706</v>
       </c>
       <c r="EN3">
-        <v>0.7529603663848304</v>
+        <v>0.753838174304893</v>
       </c>
       <c r="EO3">
-        <v>0.7658510270410096</v>
+        <v>0.7668154662713149</v>
       </c>
       <c r="EP3">
-        <v>0.7778091106497174</v>
+        <v>0.778848325321264</v>
       </c>
       <c r="EQ3">
-        <v>0.7803074473768913</v>
+        <v>0.7813011755551633</v>
       </c>
       <c r="ER3">
-        <v>0.7803161396523337</v>
+        <v>0.7813011755551633</v>
       </c>
       <c r="ES3">
-        <v>0.7808138502176689</v>
+        <v>0.7817279656303654</v>
       </c>
       <c r="ET3">
-        <v>0.7814954544523649</v>
+        <v>0.7823409872184985</v>
       </c>
       <c r="EU3">
-        <v>0.7828303063203135</v>
+        <v>0.7836155611889517</v>
       </c>
       <c r="EV3">
-        <v>0.783569186197925</v>
+        <v>0.7842865865662926</v>
       </c>
       <c r="EW3">
-        <v>0.7837529371072786</v>
+        <v>0.7843954256106844</v>
       </c>
       <c r="EX3">
-        <v>0.7853256663873359</v>
+        <v>0.785910901133122</v>
       </c>
       <c r="EY3">
-        <v>0.7929973957778534</v>
+        <v>0.793602913465583</v>
       </c>
       <c r="EZ3">
-        <v>0.7992065394939203</v>
+        <v>0.7998137462452573</v>
       </c>
       <c r="FA3">
-        <v>0.8106913260785356</v>
+        <v>0.8113672912374204</v>
       </c>
       <c r="FB3">
-        <v>0.8757437893899305</v>
+        <v>0.8771695198069025</v>
       </c>
       <c r="FC3">
-        <v>0.9028848437715038</v>
+        <v>0.9045783710138738</v>
       </c>
       <c r="FD3">
-        <v>0.9047923789686039</v>
+        <v>0.9064329088470796</v>
       </c>
       <c r="FE3">
-        <v>0.9086663399658018</v>
+        <v>0.9102788716874195</v>
       </c>
       <c r="FF3">
-        <v>0.911625673116442</v>
+        <v>0.9131985790007187</v>
       </c>
       <c r="FG3">
-        <v>0.9231873757049727</v>
+        <v>0.9248300178313568</v>
       </c>
       <c r="FH3">
-        <v>0.9253346588142768</v>
+        <v>0.926927351496344</v>
       </c>
       <c r="FI3">
-        <v>0.9272702380128045</v>
+        <v>0.9288102898548786</v>
       </c>
       <c r="FJ3">
-        <v>0.9308904661970866</v>
+        <v>0.9323992941724275</v>
       </c>
       <c r="FK3">
-        <v>0.9310501414852146</v>
+        <v>0.9324837515217823</v>
       </c>
       <c r="FL3">
-        <v>0.9311070501781115</v>
+        <v>0.9324837515217823</v>
       </c>
       <c r="FM3">
-        <v>0.9405196326572444</v>
+        <v>0.9419387484399027</v>
       </c>
       <c r="FN3">
-        <v>0.9510773396946681</v>
+        <v>0.9525534279056941</v>
       </c>
       <c r="FO3">
-        <v>0.9520019090017319</v>
+        <v>0.9534125033855881</v>
       </c>
       <c r="FP3">
-        <v>0.9525950560319251</v>
+        <v>0.9539359432111655</v>
       </c>
       <c r="FQ3">
-        <v>0.953743386290379</v>
+        <v>0.955021624319503</v>
       </c>
       <c r="FR3">
-        <v>0.956001151205307</v>
+        <v>0.9572308443473226</v>
       </c>
       <c r="FS3">
-        <v>0.9607355724463055</v>
+        <v>0.961948206478225</v>
       </c>
       <c r="FT3">
-        <v>0.9624633200342538</v>
+        <v>0.9636206710591271</v>
       </c>
       <c r="FU3">
-        <v>0.9624882750135241</v>
+        <v>0.9636206710591271</v>
       </c>
       <c r="FV3">
-        <v>0.9625535474368466</v>
+        <v>0.9636206710591271</v>
       </c>
       <c r="FW3">
-        <v>0.9625885553556286</v>
+        <v>0.9636206710591271</v>
       </c>
       <c r="FX3">
-        <v>0.9626184868171522</v>
+        <v>0.9636206710591271</v>
       </c>
       <c r="FY3">
-        <v>0.9630161828773963</v>
+        <v>0.9639461751430121</v>
       </c>
       <c r="FZ3">
-        <v>0.9648431757703966</v>
+        <v>0.965719146736338</v>
       </c>
       <c r="GA3">
-        <v>0.9665497148572653</v>
+        <v>0.9673701331920996</v>
       </c>
       <c r="GB3">
-        <v>0.9665928975154634</v>
+        <v>0.9673701331920996</v>
       </c>
       <c r="GC3">
-        <v>0.9684659424108079</v>
+        <v>0.9691897422477149</v>
       </c>
       <c r="GD3">
-        <v>0.9738045649825622</v>
+        <v>0.9745189869319031</v>
       </c>
       <c r="GE3">
-        <v>0.9740104523630425</v>
+        <v>0.9746502438687826</v>
       </c>
       <c r="GF3">
-        <v>0.9746193838640392</v>
+        <v>0.9751896688334284</v>
       </c>
       <c r="GG3">
-        <v>0.9750029189835625</v>
+        <v>0.9755008319482951</v>
       </c>
       <c r="GH3">
-        <v>0.9760371634362092</v>
+        <v>0.9764709768758967</v>
       </c>
       <c r="GI3">
-        <v>0.9822241457511479</v>
+        <v>0.9826593665161464</v>
       </c>
       <c r="GJ3">
-        <v>0.9831991853007808</v>
+        <v>0.9835695538677233</v>
       </c>
       <c r="GK3">
-        <v>0.983391710770581</v>
+        <v>0.9836872790237087</v>
       </c>
       <c r="GL3">
-        <v>0.9856117452835884</v>
+        <v>0.9858582889823204</v>
       </c>
       <c r="GM3">
-        <v>0.9858596015462051</v>
+        <v>0.9860320483524998</v>
       </c>
       <c r="GN3">
-        <v>0.9858910928638082</v>
+        <v>0.9860320483524998</v>
       </c>
       <c r="GO3">
-        <v>0.9883870767908624</v>
+        <v>0.9884825158750885</v>
       </c>
       <c r="GP3">
-        <v>0.9987645503191116</v>
+        <v>0.9989146705198184</v>
       </c>
       <c r="GQ3">
-        <v>0.9996167954624938</v>
+        <v>0.99970050237762</v>
       </c>
       <c r="GR3">
-        <v>0.9999888115314307</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.518609989758143E-05</v>
+        <v>5.131391500186956E-06</v>
       </c>
       <c r="C4">
-        <v>1.521306160928731E-05</v>
+        <v>5.131391500186956E-06</v>
       </c>
       <c r="D4">
-        <v>8.305023338530618E-05</v>
+        <v>6.301378594744837E-05</v>
       </c>
       <c r="E4">
-        <v>0.000131636174657316</v>
+        <v>0.0001016084112986416</v>
       </c>
       <c r="F4">
-        <v>0.0001469397310579725</v>
+        <v>0.0001068574822328612</v>
       </c>
       <c r="G4">
-        <v>0.0002413284975291285</v>
+        <v>0.0001913418659662383</v>
       </c>
       <c r="H4">
-        <v>0.0003819588012109162</v>
+        <v>0.0003221555527631353</v>
       </c>
       <c r="I4">
-        <v>0.0004271128203930762</v>
+        <v>0.0003573117422797498</v>
       </c>
       <c r="J4">
-        <v>0.0005083553425200554</v>
+        <v>0.0004286249302634231</v>
       </c>
       <c r="K4">
-        <v>0.0008323771110031446</v>
+        <v>0.0007431781565427754</v>
       </c>
       <c r="L4">
-        <v>0.00118733806029624</v>
+        <v>0.001088729285806077</v>
       </c>
       <c r="M4">
-        <v>0.001187671952804982</v>
+        <v>0.001088729285806077</v>
       </c>
       <c r="N4">
-        <v>0.001289458115469806</v>
+        <v>0.001180625105897556</v>
       </c>
       <c r="O4">
-        <v>0.001289460505118169</v>
+        <v>0.001180625105897556</v>
       </c>
       <c r="P4">
-        <v>0.001420164758540087</v>
+        <v>0.001301493902916707</v>
       </c>
       <c r="Q4">
-        <v>0.001475244882982118</v>
+        <v>0.001346595037315458</v>
       </c>
       <c r="R4">
-        <v>0.001476600809917617</v>
+        <v>0.001346595037315458</v>
       </c>
       <c r="S4">
-        <v>0.00148666523918111</v>
+        <v>0.001346595037315458</v>
       </c>
       <c r="T4">
-        <v>0.001525958543209833</v>
+        <v>0.001375879388115384</v>
       </c>
       <c r="U4">
-        <v>0.001528254995569956</v>
+        <v>0.001375879388115384</v>
       </c>
       <c r="V4">
-        <v>0.001584231787035462</v>
+        <v>0.001421878891400282</v>
       </c>
       <c r="W4">
-        <v>0.001595173456321922</v>
+        <v>0.00142275779641372</v>
       </c>
       <c r="X4">
-        <v>0.001596564638658344</v>
+        <v>0.00142275779641372</v>
       </c>
       <c r="Y4">
-        <v>0.001626691556447085</v>
+        <v>0.001442858363288493</v>
       </c>
       <c r="Z4">
-        <v>0.001812635831315221</v>
+        <v>0.001619072026616041</v>
       </c>
       <c r="AA4">
-        <v>0.001940716674668456</v>
+        <v>0.001737312434367373</v>
       </c>
       <c r="AB4">
-        <v>0.002043009292346539</v>
+        <v>0.001829715670717322</v>
       </c>
       <c r="AC4">
-        <v>0.002298371779032086</v>
+        <v>0.002075479300750497</v>
       </c>
       <c r="AD4">
-        <v>0.002702033619600201</v>
+        <v>0.002469823754964621</v>
       </c>
       <c r="AE4">
-        <v>0.00303322442827098</v>
+        <v>0.002791559628179285</v>
       </c>
       <c r="AF4">
-        <v>0.003119234820522785</v>
+        <v>0.002867649735644989</v>
       </c>
       <c r="AG4">
-        <v>0.003140154380070472</v>
+        <v>0.002878525468829196</v>
       </c>
       <c r="AH4">
-        <v>0.003286126133892102</v>
+        <v>0.003014690743770757</v>
       </c>
       <c r="AI4">
-        <v>0.003419654177387948</v>
+        <v>0.00313838869038169</v>
       </c>
       <c r="AJ4">
-        <v>0.003447487348116638</v>
+        <v>0.003156191156693496</v>
       </c>
       <c r="AK4">
-        <v>0.003536783420454464</v>
+        <v>0.003235573180424477</v>
       </c>
       <c r="AL4">
-        <v>0.003646298467321635</v>
+        <v>0.003335212554042784</v>
       </c>
       <c r="AM4">
-        <v>0.00365088715974177</v>
+        <v>0.003335212554042784</v>
       </c>
       <c r="AN4">
-        <v>0.003662348991541848</v>
+        <v>0.003336612608831713</v>
       </c>
       <c r="AO4">
-        <v>0.003685047672136114</v>
+        <v>0.003349270839811748</v>
       </c>
       <c r="AP4">
-        <v>0.003740687361592795</v>
+        <v>0.00339493260127247</v>
       </c>
       <c r="AQ4">
-        <v>0.003835076128063951</v>
+        <v>0.003479416985005847</v>
       </c>
       <c r="AR4">
-        <v>0.004164080676677492</v>
+        <v>0.00379896244866933</v>
       </c>
       <c r="AS4">
-        <v>0.004616048738510294</v>
+        <v>0.004241704808745255</v>
       </c>
       <c r="AT4">
-        <v>0.004932444646793733</v>
+        <v>0.004548617701038729</v>
       </c>
       <c r="AU4">
-        <v>0.005261449195407275</v>
+        <v>0.004868163164702213</v>
       </c>
       <c r="AV4">
-        <v>0.005609828664528064</v>
+        <v>0.005207120322227064</v>
       </c>
       <c r="AW4">
-        <v>0.006189664119708512</v>
+        <v>0.005777972766346289</v>
       </c>
       <c r="AX4">
-        <v>0.007187457045831344</v>
+        <v>0.00676757595940255</v>
       </c>
       <c r="AY4">
-        <v>0.008021536767668064</v>
+        <v>0.007593155222581166</v>
       </c>
       <c r="AZ4">
-        <v>0.008264319024024252</v>
+        <v>0.007826314745166898</v>
       </c>
       <c r="BA4">
-        <v>0.008332777035816525</v>
+        <v>0.007884819157976914</v>
       </c>
       <c r="BB4">
-        <v>0.008375276016929174</v>
+        <v>0.007917315270195336</v>
       </c>
       <c r="BC4">
-        <v>0.008398575800539177</v>
+        <v>0.00793057574507703</v>
       </c>
       <c r="BD4">
-        <v>0.008416091910997759</v>
+        <v>0.0079380415694688</v>
       </c>
       <c r="BE4">
-        <v>0.008435107670495602</v>
+        <v>0.007947009889214743</v>
       </c>
       <c r="BF4">
-        <v>0.008503939552297663</v>
+        <v>0.008005888881635097</v>
       </c>
       <c r="BG4">
-        <v>0.008669293636626734</v>
+        <v>0.008161473274502307</v>
       </c>
       <c r="BH4">
-        <v>0.008996391215190349</v>
+        <v>0.008479108148710824</v>
       </c>
       <c r="BI4">
-        <v>0.009516174698798601</v>
+        <v>0.008989794643375182</v>
       </c>
       <c r="BJ4">
-        <v>0.01035591092078341</v>
+        <v>0.009821041142667641</v>
       </c>
       <c r="BK4">
-        <v>0.01139999854811827</v>
+        <v>0.01085702690369342</v>
       </c>
       <c r="BL4">
-        <v>0.01213702251741401</v>
+        <v>0.01158536620374003</v>
       </c>
       <c r="BM4">
-        <v>0.01272097013270212</v>
+        <v>0.0121603386127948</v>
       </c>
       <c r="BN4">
-        <v>0.01347510655244587</v>
+        <v>0.01290582284250398</v>
       </c>
       <c r="BO4">
-        <v>0.01385789166246742</v>
+        <v>0.01327925094240095</v>
       </c>
       <c r="BP4">
-        <v>0.01411445736918447</v>
+        <v>0.01352622007616203</v>
       </c>
       <c r="BQ4">
-        <v>0.0143501826453559</v>
+        <v>0.01375230922450386</v>
       </c>
       <c r="BR4">
-        <v>0.01445247526303398</v>
+        <v>0.01384471246085381</v>
       </c>
       <c r="BS4">
-        <v>0.01445706395545412</v>
+        <v>0.01384471246085381</v>
       </c>
       <c r="BT4">
-        <v>0.01448450177417246</v>
+        <v>0.01386211882478215</v>
       </c>
       <c r="BU4">
-        <v>0.01448931877969857</v>
+        <v>0.01386211882478215</v>
       </c>
       <c r="BV4">
-        <v>0.0145710138418374</v>
+        <v>0.01393388541169289</v>
       </c>
       <c r="BW4">
-        <v>0.01462987781337849</v>
+        <v>0.01398277757488465</v>
       </c>
       <c r="BX4">
-        <v>0.01478482752743517</v>
+        <v>0.01412793785011626</v>
       </c>
       <c r="BY4">
-        <v>0.01525346797970447</v>
+        <v>0.01458738424461489</v>
       </c>
       <c r="BZ4">
-        <v>0.01551617338658226</v>
+        <v>0.01484050473160998</v>
       </c>
       <c r="CA4">
-        <v>0.01571013290166023</v>
+        <v>0.01502474884797194</v>
       </c>
       <c r="CB4">
-        <v>0.01630515776723835</v>
+        <v>0.01561081953179769</v>
       </c>
       <c r="CC4">
-        <v>0.01702405534605953</v>
+        <v>0.01632099803770984</v>
       </c>
       <c r="CD4">
-        <v>0.01757527760049087</v>
+        <v>0.01686318297358675</v>
       </c>
       <c r="CE4">
-        <v>0.0177612902253608</v>
+        <v>0.01703946511664353</v>
       </c>
       <c r="CF4">
-        <v>0.01813782304521866</v>
+        <v>0.01740662905960914</v>
       </c>
       <c r="CG4">
-        <v>0.01877073436178866</v>
+        <v>0.01803065810243168</v>
       </c>
       <c r="CH4">
-        <v>0.01905414848920862</v>
+        <v>0.01830452661485866</v>
       </c>
       <c r="CI4">
-        <v>0.01907781270482816</v>
+        <v>0.01831815221343724</v>
       </c>
       <c r="CJ4">
-        <v>0.01913196650624594</v>
+        <v>0.01836232526666235</v>
       </c>
       <c r="CK4">
-        <v>0.01925476911946099</v>
+        <v>0.01847527742626144</v>
       </c>
       <c r="CL4">
-        <v>0.01930388068474676</v>
+        <v>0.01851439867325413</v>
       </c>
       <c r="CM4">
-        <v>0.01942635017795308</v>
+        <v>0.01862701708058693</v>
       </c>
       <c r="CN4">
-        <v>0.05441934409409118</v>
+        <v>0.05367634372525821</v>
       </c>
       <c r="CO4">
-        <v>0.07361714959670153</v>
+        <v>0.07290050288852766</v>
       </c>
       <c r="CP4">
-        <v>0.1682609160745335</v>
+        <v>0.1677138185069134</v>
       </c>
       <c r="CQ4">
-        <v>0.2551869083503094</v>
+        <v>0.2547947116854011</v>
       </c>
       <c r="CR4">
-        <v>0.2552423238857602</v>
+        <v>0.2548401488674145</v>
       </c>
       <c r="CS4">
-        <v>0.2552771626066723</v>
+        <v>0.2548649701803554</v>
       </c>
       <c r="CT4">
-        <v>0.2553613231188757</v>
+        <v>0.2549392068967237</v>
       </c>
       <c r="CU4">
-        <v>0.2644769003575271</v>
+        <v>0.264062001854282</v>
       </c>
       <c r="CV4">
-        <v>0.2785010147246871</v>
+        <v>0.2781026502817487</v>
       </c>
       <c r="CW4">
-        <v>0.3092238655290302</v>
+        <v>0.3088737291369961</v>
       </c>
       <c r="CX4">
-        <v>0.332329543133951</v>
+        <v>0.33201317749441</v>
       </c>
       <c r="CY4">
-        <v>0.3848011485076899</v>
+        <v>0.3845742897802064</v>
       </c>
       <c r="CZ4">
-        <v>0.3896721571352159</v>
+        <v>0.3894444599890892</v>
       </c>
       <c r="DA4">
-        <v>0.3921785130008338</v>
+        <v>0.3919454893550235</v>
       </c>
       <c r="DB4">
-        <v>0.3987169266720135</v>
+        <v>0.3984862293212479</v>
       </c>
       <c r="DC4">
-        <v>0.4133896160561535</v>
+        <v>0.4131766837528756</v>
       </c>
       <c r="DD4">
-        <v>0.4832300178846182</v>
+        <v>0.4831395582494354</v>
       </c>
       <c r="DE4">
-        <v>0.4872445039897199</v>
+        <v>0.4871515802669772</v>
       </c>
       <c r="DF4">
-        <v>0.5155610227310637</v>
+        <v>0.5155117598713985</v>
       </c>
       <c r="DG4">
-        <v>0.52202061990018</v>
+        <v>0.5219735337428353</v>
       </c>
       <c r="DH4">
-        <v>0.5338192672090758</v>
+        <v>0.5337844912037031</v>
       </c>
       <c r="DI4">
-        <v>0.5402764463781288</v>
+        <v>0.540243842485743</v>
       </c>
       <c r="DJ4">
-        <v>0.5517377086781917</v>
+        <v>0.5517167745852974</v>
       </c>
       <c r="DK4">
-        <v>0.5750496162885118</v>
+        <v>0.5750628443700531</v>
       </c>
       <c r="DL4">
-        <v>0.5830072974968488</v>
+        <v>0.5830255456252733</v>
       </c>
       <c r="DM4">
-        <v>0.6197511384588251</v>
+        <v>0.6198290424013359</v>
       </c>
       <c r="DN4">
-        <v>0.6198722799119967</v>
+        <v>0.6199403302480306</v>
       </c>
       <c r="DO4">
-        <v>0.6374523313722532</v>
+        <v>0.6375436648922309</v>
       </c>
       <c r="DP4">
-        <v>0.6423777292012032</v>
+        <v>0.6424683275325541</v>
       </c>
       <c r="DQ4">
-        <v>0.6440220262442519</v>
+        <v>0.644105661899175</v>
       </c>
       <c r="DR4">
-        <v>0.6456856940878077</v>
+        <v>0.6457624038318374</v>
       </c>
       <c r="DS4">
-        <v>0.6484217341594389</v>
+        <v>0.6484935533415035</v>
       </c>
       <c r="DT4">
-        <v>0.6490458468457786</v>
+        <v>0.6491087670544068</v>
       </c>
       <c r="DU4">
-        <v>0.6491647910088926</v>
+        <v>0.6492178534406153</v>
       </c>
       <c r="DV4">
-        <v>0.6493282165931712</v>
+        <v>0.6493715056731634</v>
       </c>
       <c r="DW4">
-        <v>0.6493546397308629</v>
+        <v>0.6493878954302134</v>
       </c>
       <c r="DX4">
-        <v>0.6494952700345448</v>
+        <v>0.6495187091170103</v>
       </c>
       <c r="DY4">
-        <v>0.6494955591820524</v>
+        <v>0.6495187091170103</v>
       </c>
       <c r="DZ4">
-        <v>0.6495314714069925</v>
+        <v>0.6495446059714763</v>
       </c>
       <c r="EA4">
-        <v>0.6508112747404986</v>
+        <v>0.6508167548241029</v>
       </c>
       <c r="EB4">
-        <v>0.6581551162327649</v>
+        <v>0.6581644513032335</v>
       </c>
       <c r="EC4">
-        <v>0.6990209633026579</v>
+        <v>0.6990977777026816</v>
       </c>
       <c r="ED4">
-        <v>0.7158051957420795</v>
+        <v>0.7159037828716086</v>
       </c>
       <c r="EE4">
-        <v>0.7158912061343312</v>
+        <v>0.7159798729790743</v>
       </c>
       <c r="EF4">
-        <v>0.7171504657672995</v>
+        <v>0.7172314391394792</v>
       </c>
       <c r="EG4">
-        <v>0.7175859587387009</v>
+        <v>0.7176576751396104</v>
       </c>
       <c r="EH4">
-        <v>0.7231403950841194</v>
+        <v>0.7232125702035521</v>
       </c>
       <c r="EI4">
-        <v>0.7239104484642799</v>
+        <v>0.7239740016038676</v>
       </c>
       <c r="EJ4">
-        <v>0.7274226396562312</v>
+        <v>0.7274827753588656</v>
       </c>
       <c r="EK4">
-        <v>0.7276752853028456</v>
+        <v>0.7277258169922995</v>
       </c>
       <c r="EL4">
-        <v>0.7299870273633685</v>
+        <v>0.7300318631785976</v>
       </c>
       <c r="EM4">
-        <v>0.7300952346222015</v>
+        <v>0.7301301922820165</v>
       </c>
       <c r="EN4">
-        <v>0.7379997818291474</v>
+        <v>0.7380396586881829</v>
       </c>
       <c r="EO4">
-        <v>0.7561798383051125</v>
+        <v>0.7562441371500243</v>
       </c>
       <c r="EP4">
-        <v>0.7632580194904236</v>
+        <v>0.7633256691022965</v>
       </c>
       <c r="EQ4">
-        <v>0.7645048557230666</v>
+        <v>0.7645647882829194</v>
       </c>
       <c r="ER4">
-        <v>0.764940348694468</v>
+        <v>0.7649910242830507</v>
       </c>
       <c r="ES4">
-        <v>0.7649403513354937</v>
+        <v>0.7649910242830507</v>
       </c>
       <c r="ET4">
-        <v>0.7672571587961491</v>
+        <v>0.7673021454835467</v>
       </c>
       <c r="EU4">
-        <v>0.7696592008590361</v>
+        <v>0.7696986630604715</v>
       </c>
       <c r="EV4">
-        <v>0.77021396022356</v>
+        <v>0.7702443918198313</v>
       </c>
       <c r="EW4">
-        <v>0.770541602072138</v>
+        <v>0.7705625719970717</v>
       </c>
       <c r="EX4">
-        <v>0.7745659424774977</v>
+        <v>0.7745844670182088</v>
       </c>
       <c r="EY4">
-        <v>0.7866142317929293</v>
+        <v>0.7866455403029841</v>
       </c>
       <c r="EZ4">
-        <v>0.7869082089206259</v>
+        <v>0.7869299918641285</v>
       </c>
       <c r="FA4">
-        <v>0.83442520416465</v>
+        <v>0.8345270902328364</v>
       </c>
       <c r="FB4">
-        <v>0.9007662059014983</v>
+        <v>0.9009839228206568</v>
       </c>
       <c r="FC4">
-        <v>0.9037226107788987</v>
+        <v>0.903935855385707</v>
       </c>
       <c r="FD4">
-        <v>0.9092103635225715</v>
+        <v>0.90942394028327</v>
       </c>
       <c r="FE4">
-        <v>0.909244759758472</v>
+        <v>0.9094483182713683</v>
       </c>
       <c r="FF4">
-        <v>0.9209374490645937</v>
+        <v>0.9211531166225126</v>
       </c>
       <c r="FG4">
-        <v>0.9273544019325936</v>
+        <v>0.9275721652544887</v>
       </c>
       <c r="FH4">
-        <v>0.9276146751094076</v>
+        <v>0.9278228488950783</v>
       </c>
       <c r="FI4">
-        <v>0.9311641062023339</v>
+        <v>0.9313689332319124</v>
       </c>
       <c r="FJ4">
-        <v>0.9322295246302272</v>
+        <v>0.9324262902790863</v>
       </c>
       <c r="FK4">
-        <v>0.9326231760405332</v>
+        <v>0.9328106053033683</v>
       </c>
       <c r="FL4">
-        <v>0.9362100435344396</v>
+        <v>0.9363941970949983</v>
       </c>
       <c r="FM4">
-        <v>0.9494330968806273</v>
+        <v>0.9496322640978047</v>
       </c>
       <c r="FN4">
-        <v>0.953972282699466</v>
+        <v>0.9541699817025052</v>
       </c>
       <c r="FO4">
-        <v>0.9548209051216835</v>
+        <v>0.955010131267926</v>
       </c>
       <c r="FP4">
-        <v>0.957858553901211</v>
+        <v>0.9580434619350021</v>
       </c>
       <c r="FQ4">
-        <v>0.9578814920808115</v>
+        <v>0.9580563601195545</v>
       </c>
       <c r="FR4">
-        <v>0.9620709755904948</v>
+        <v>0.9622437116845389</v>
       </c>
       <c r="FS4">
-        <v>0.9653808481771493</v>
+        <v>0.9655497828360856</v>
       </c>
       <c r="FT4">
-        <v>0.965388668127354</v>
+        <v>0.9655497828360856</v>
       </c>
       <c r="FU4">
-        <v>0.9653964041795565</v>
+        <v>0.9655497828360856</v>
       </c>
       <c r="FV4">
-        <v>0.9654152236770492</v>
+        <v>0.9655585545213237</v>
       </c>
       <c r="FW4">
-        <v>0.9654179570215208</v>
+        <v>0.9655585545213237</v>
       </c>
       <c r="FX4">
-        <v>0.9654220345401275</v>
+        <v>0.9655585545213237</v>
       </c>
       <c r="FY4">
-        <v>0.9672253262873388</v>
+        <v>0.967355185362045</v>
       </c>
       <c r="FZ4">
-        <v>0.9690371444347733</v>
+        <v>0.9691603587859894</v>
       </c>
       <c r="GA4">
-        <v>0.9705546799745033</v>
+        <v>0.9706706910575612</v>
       </c>
       <c r="GB4">
-        <v>0.9707927975707373</v>
+        <v>0.9708991770665589</v>
       </c>
       <c r="GC4">
-        <v>0.974325819163234</v>
+        <v>0.9744288207579391</v>
       </c>
       <c r="GD4">
-        <v>0.976112330410006</v>
+        <v>0.9762086392490436</v>
       </c>
       <c r="GE4">
-        <v>0.976155452687135</v>
+        <v>0.9762417598402863</v>
       </c>
       <c r="GF4">
-        <v>0.9771769826138793</v>
+        <v>0.977255145086491</v>
       </c>
       <c r="GG4">
-        <v>0.977273034806394</v>
+        <v>0.9773412960534296</v>
       </c>
       <c r="GH4">
-        <v>0.9802079428832318</v>
+        <v>0.9802716910172613</v>
       </c>
       <c r="GI4">
-        <v>0.9834392525678295</v>
+        <v>0.9834990501553565</v>
       </c>
       <c r="GJ4">
-        <v>0.9837252045453159</v>
+        <v>0.9837754613346573</v>
       </c>
       <c r="GK4">
-        <v>0.9854352032900847</v>
+        <v>0.9854786221039973</v>
       </c>
       <c r="GL4">
-        <v>0.9863417434538185</v>
+        <v>0.9863767993380754</v>
       </c>
       <c r="GM4">
-        <v>0.986429154456107</v>
+        <v>0.9864542927139179</v>
       </c>
       <c r="GN4">
-        <v>0.9870919252734588</v>
+        <v>0.9871082379304771</v>
       </c>
       <c r="GO4">
-        <v>0.9939686664534961</v>
+        <v>0.9939879475468927</v>
       </c>
       <c r="GP4">
-        <v>0.999669788902755</v>
+        <v>0.9996898071230449</v>
       </c>
       <c r="GQ4">
-        <v>0.9996702658913675</v>
+        <v>0.9996898071230449</v>
       </c>
       <c r="GR4">
-        <v>0.9998156929651749</v>
+        <v>0.9998254266841764</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.00043883954043947</v>
+        <v>0.0003909305867031149</v>
       </c>
       <c r="C5">
-        <v>0.0005938444570625429</v>
+        <v>0.0004954347418255932</v>
       </c>
       <c r="D5">
-        <v>0.0006437866839745048</v>
+        <v>0.0004954347418255932</v>
       </c>
       <c r="E5">
-        <v>0.0006777247872351315</v>
+        <v>0.0004954347418255932</v>
       </c>
       <c r="F5">
-        <v>0.0007291711831143236</v>
+        <v>0.0004954347418255932</v>
       </c>
       <c r="G5">
-        <v>0.0008306375509037839</v>
+        <v>0.0005459114661567637</v>
       </c>
       <c r="H5">
-        <v>0.0009377099385711118</v>
+        <v>0.0006020454011812513</v>
       </c>
       <c r="I5">
-        <v>0.001207816432686589</v>
+        <v>0.0008227021724545255</v>
       </c>
       <c r="J5">
-        <v>0.001563887764929242</v>
+        <v>0.001130108761262751</v>
       </c>
       <c r="K5">
-        <v>0.002075450053784379</v>
+        <v>0.001594426156958238</v>
       </c>
       <c r="L5">
-        <v>0.002768709738681068</v>
+        <v>0.002242100100476941</v>
       </c>
       <c r="M5">
-        <v>0.003683458768752405</v>
+        <v>0.003113285897195567</v>
       </c>
       <c r="N5">
-        <v>0.004425310622590469</v>
+        <v>0.003809995724235106</v>
       </c>
       <c r="O5">
-        <v>0.004961458170909993</v>
+        <v>0.004299122877257535</v>
       </c>
       <c r="P5">
-        <v>0.005635369926228195</v>
+        <v>0.004927272217494488</v>
       </c>
       <c r="Q5">
-        <v>0.006122923915606375</v>
+        <v>0.005367362084303464</v>
       </c>
       <c r="R5">
-        <v>0.006321606191277896</v>
+        <v>0.005515942433953942</v>
       </c>
       <c r="S5">
-        <v>0.006488681087638013</v>
+        <v>0.005632626784638357</v>
       </c>
       <c r="T5">
-        <v>0.006602781635152225</v>
+        <v>0.005695853056455496</v>
       </c>
       <c r="U5">
-        <v>0.006611327985966035</v>
+        <v>0.005695853056455496</v>
       </c>
       <c r="V5">
-        <v>0.006611424850119924</v>
+        <v>0.005695853056455496</v>
       </c>
       <c r="W5">
-        <v>0.006613246427480239</v>
+        <v>0.005695853056455496</v>
       </c>
       <c r="X5">
-        <v>0.006778521093879576</v>
+        <v>0.005810720738557489</v>
       </c>
       <c r="Y5">
-        <v>0.006990247609266916</v>
+        <v>0.00597246444010721</v>
       </c>
       <c r="Z5">
-        <v>0.007100592896862941</v>
+        <v>0.006031901161222035</v>
       </c>
       <c r="AA5">
-        <v>0.007447778689299174</v>
+        <v>0.006330341072796876</v>
       </c>
       <c r="AB5">
-        <v>0.007757344922554984</v>
+        <v>0.00659081790591144</v>
       </c>
       <c r="AC5">
-        <v>0.007794848797737927</v>
+        <v>0.00659081790591144</v>
       </c>
       <c r="AD5">
-        <v>0.007853582309458363</v>
+        <v>0.006598171563329473</v>
       </c>
       <c r="AE5">
-        <v>0.00828544866004975</v>
+        <v>0.00698206528519184</v>
       </c>
       <c r="AF5">
-        <v>0.008679012911475584</v>
+        <v>0.007327307156062505</v>
       </c>
       <c r="AG5">
-        <v>0.00879597436392747</v>
+        <v>0.00739342045688749</v>
       </c>
       <c r="AH5">
-        <v>0.008840823725950384</v>
+        <v>0.00739342045688749</v>
       </c>
       <c r="AI5">
-        <v>0.009012919042201127</v>
+        <v>0.007515171070929677</v>
       </c>
       <c r="AJ5">
-        <v>0.009163790968914242</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AK5">
-        <v>0.009182468158507342</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AL5">
-        <v>0.009192859778280951</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AM5">
-        <v>0.009238997217275804</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AN5">
-        <v>0.009280706176367136</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AO5">
-        <v>0.009288838930189957</v>
+        <v>0.007615504496154051</v>
       </c>
       <c r="AP5">
-        <v>0.009519683725160787</v>
+        <v>0.007796541053964334</v>
       </c>
       <c r="AQ5">
-        <v>0.00969361595137151</v>
+        <v>0.007920145351527925</v>
       </c>
       <c r="AR5">
-        <v>0.009907379406714474</v>
+        <v>0.008083944593148791</v>
       </c>
       <c r="AS5">
-        <v>0.009977572735185247</v>
+        <v>0.008102862711499154</v>
       </c>
       <c r="AT5">
-        <v>0.01033229396745731</v>
+        <v>0.008408906872032587</v>
       </c>
       <c r="AU5">
-        <v>0.01061912976120833</v>
+        <v>0.008646445704884613</v>
       </c>
       <c r="AV5">
-        <v>0.01092444755455669</v>
+        <v>0.008902635303883367</v>
       </c>
       <c r="AW5">
-        <v>0.01111645709037359</v>
+        <v>0.009044481982215918</v>
       </c>
       <c r="AX5">
-        <v>0.01127924004682721</v>
+        <v>0.009156835201569536</v>
       </c>
       <c r="AY5">
-        <v>0.01134128458547551</v>
+        <v>0.009167530120229994</v>
       </c>
       <c r="AZ5">
-        <v>0.0115127072917409</v>
+        <v>0.009288601982415351</v>
       </c>
       <c r="BA5">
-        <v>0.01151959799659078</v>
+        <v>0.009288601982415351</v>
       </c>
       <c r="BB5">
-        <v>0.01152700887662933</v>
+        <v>0.009288601982415351</v>
       </c>
       <c r="BC5">
-        <v>0.01153966689035356</v>
+        <v>0.009288601982415351</v>
       </c>
       <c r="BD5">
-        <v>0.01157849803950759</v>
+        <v>0.009288601982415351</v>
       </c>
       <c r="BE5">
-        <v>0.01170655401671777</v>
+        <v>0.009365911116552966</v>
       </c>
       <c r="BF5">
-        <v>0.01187182868311711</v>
+        <v>0.009480778798654959</v>
       </c>
       <c r="BG5">
-        <v>0.01213730601733344</v>
+        <v>0.009696764139313809</v>
       </c>
       <c r="BH5">
-        <v>0.0122414712650641</v>
+        <v>0.009749964388141142</v>
       </c>
       <c r="BI5">
-        <v>0.01231616454943684</v>
+        <v>0.009773423553295236</v>
       </c>
       <c r="BJ5">
-        <v>0.01249971840543794</v>
+        <v>0.00990673733960898</v>
       </c>
       <c r="BK5">
-        <v>0.01263461690249905</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BL5">
-        <v>0.0126566291970195</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BM5">
-        <v>0.01267499816661931</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BN5">
-        <v>0.01268293805544633</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BO5">
-        <v>0.01270341026600033</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BP5">
-        <v>0.01271674377170984</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BQ5">
-        <v>0.01272847250595432</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BR5">
-        <v>0.01272869959922937</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BS5">
-        <v>0.01274067488096848</v>
+        <v>0.00999095147539005</v>
       </c>
       <c r="BT5">
-        <v>0.01284431695871054</v>
+        <v>0.01004362377695383</v>
       </c>
       <c r="BU5">
-        <v>0.01287302886208502</v>
+        <v>0.01004362377695383</v>
       </c>
       <c r="BV5">
-        <v>0.01288761064976735</v>
+        <v>0.01004362377695383</v>
       </c>
       <c r="BW5">
-        <v>0.01301347445702529</v>
+        <v>0.01011872072355634</v>
       </c>
       <c r="BX5">
-        <v>0.01319827562299922</v>
+        <v>0.01025329320953043</v>
       </c>
       <c r="BY5">
-        <v>0.01341907652818887</v>
+        <v>0.01042419416277446</v>
       </c>
       <c r="BZ5">
-        <v>0.01373491140130811</v>
+        <v>0.01069099687721669</v>
       </c>
       <c r="CA5">
-        <v>0.01380058003987746</v>
+        <v>0.0107053489889078</v>
       </c>
       <c r="CB5">
-        <v>0.0138041399643999</v>
+        <v>0.0107053489889078</v>
       </c>
       <c r="CC5">
-        <v>0.01387097442894385</v>
+        <v>0.01072087757219796</v>
       </c>
       <c r="CD5">
-        <v>0.01404585242513397</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CE5">
-        <v>0.01406400207873856</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CF5">
-        <v>0.01406451367872741</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CG5">
-        <v>0.01406873210013551</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CH5">
-        <v>0.01411184013919636</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CI5">
-        <v>0.01415668950121928</v>
+        <v>0.01084543627594587</v>
       </c>
       <c r="CJ5">
-        <v>0.01422671293969375</v>
+        <v>0.01086418295296625</v>
       </c>
       <c r="CK5">
-        <v>0.01436863203660191</v>
+        <v>0.01095548179650675</v>
       </c>
       <c r="CL5">
-        <v>0.01449967677374698</v>
+        <v>0.01103580698214467</v>
       </c>
       <c r="CM5">
-        <v>0.01788282210004199</v>
+        <v>0.01439792899146416</v>
       </c>
       <c r="CN5">
-        <v>0.1044354802144114</v>
+        <v>0.1016890179600714</v>
       </c>
       <c r="CO5">
-        <v>0.1441011743502571</v>
+        <v>0.1416649992809747</v>
       </c>
       <c r="CP5">
-        <v>0.2461285421274955</v>
+        <v>0.2445721036915496</v>
       </c>
       <c r="CQ5">
-        <v>0.2461298530532669</v>
+        <v>0.2445721036915496</v>
       </c>
       <c r="CR5">
-        <v>0.2551456258568499</v>
+        <v>0.253618286958266</v>
       </c>
       <c r="CS5">
-        <v>0.2552999924634868</v>
+        <v>0.253722146974738</v>
       </c>
       <c r="CT5">
-        <v>0.2646890192589381</v>
+        <v>0.2631449925651927</v>
       </c>
       <c r="CU5">
-        <v>0.2649108855941045</v>
+        <v>0.2633169686772819</v>
       </c>
       <c r="CV5">
-        <v>0.29095220502677</v>
+        <v>0.2895441656663845</v>
       </c>
       <c r="CW5">
-        <v>0.2988553968545916</v>
+        <v>0.2974676085343188</v>
       </c>
       <c r="CX5">
-        <v>0.3626930804638279</v>
+        <v>0.3618363034571629</v>
       </c>
       <c r="CY5">
-        <v>0.3785232021189539</v>
+        <v>0.3777590601272554</v>
       </c>
       <c r="CZ5">
-        <v>0.380644886872731</v>
+        <v>0.3798482026617392</v>
       </c>
       <c r="DA5">
-        <v>0.3866865047411087</v>
+        <v>0.3858930727919378</v>
       </c>
       <c r="DB5">
-        <v>0.3923750446171785</v>
+        <v>0.3915816408331008</v>
       </c>
       <c r="DC5">
-        <v>0.4601986991395768</v>
+        <v>0.4599727041678399</v>
       </c>
       <c r="DD5">
-        <v>0.4890064285119735</v>
+        <v>0.4889915722951295</v>
       </c>
       <c r="DE5">
-        <v>0.5004594262624592</v>
+        <v>0.500497235787036</v>
       </c>
       <c r="DF5">
-        <v>0.5136798179744406</v>
+        <v>0.5137864320234036</v>
       </c>
       <c r="DG5">
-        <v>0.5262038067015938</v>
+        <v>0.5263728661400395</v>
       </c>
       <c r="DH5">
-        <v>0.5538564510991552</v>
+        <v>0.5542261017484138</v>
       </c>
       <c r="DI5">
-        <v>0.5540891675440852</v>
+        <v>0.5544090270469696</v>
       </c>
       <c r="DJ5">
-        <v>0.5726629451394381</v>
+        <v>0.5731004930798512</v>
       </c>
       <c r="DK5">
-        <v>0.5737200175164088</v>
+        <v>0.5741153018350197</v>
       </c>
       <c r="DL5">
-        <v>0.6256658103847211</v>
+        <v>0.6264835163940834</v>
       </c>
       <c r="DM5">
-        <v>0.6338512922063928</v>
+        <v>0.6346918269589963</v>
       </c>
       <c r="DN5">
-        <v>0.6426395850149316</v>
+        <v>0.6435084530196172</v>
       </c>
       <c r="DO5">
-        <v>0.6484351223886704</v>
+        <v>0.649304995595505</v>
       </c>
       <c r="DP5">
-        <v>0.6509387663341262</v>
+        <v>0.6517795851442076</v>
       </c>
       <c r="DQ5">
-        <v>0.6517738517759331</v>
+        <v>0.6525703799124932</v>
       </c>
       <c r="DR5">
-        <v>0.6538463438307819</v>
+        <v>0.6546098805497892</v>
       </c>
       <c r="DS5">
-        <v>0.6562179944791132</v>
+        <v>0.6569512715176437</v>
       </c>
       <c r="DT5">
-        <v>0.6570530799209201</v>
+        <v>0.6577420662859292</v>
       </c>
       <c r="DU5">
-        <v>0.6572405353568362</v>
+        <v>0.6578793172790487</v>
       </c>
       <c r="DV5">
-        <v>0.6582714986343757</v>
+        <v>0.6588677785221296</v>
       </c>
       <c r="DW5">
-        <v>0.6597745247016309</v>
+        <v>0.6603326131495504</v>
       </c>
       <c r="DX5">
-        <v>0.6605849602539748</v>
+        <v>0.661098532940348</v>
       </c>
       <c r="DY5">
-        <v>0.6612503162994794</v>
+        <v>0.6617180484451544</v>
       </c>
       <c r="DZ5">
-        <v>0.6666196491825035</v>
+        <v>0.66708449468622</v>
       </c>
       <c r="EA5">
-        <v>0.6666202132886913</v>
+        <v>0.66708449468622</v>
       </c>
       <c r="EB5">
-        <v>0.692239505730551</v>
+        <v>0.6928858109868363</v>
       </c>
       <c r="EC5">
-        <v>0.7089583353663157</v>
+        <v>0.7097053907864996</v>
       </c>
       <c r="ED5">
-        <v>0.7093748867572407</v>
+        <v>0.7100738297016578</v>
       </c>
       <c r="EE5">
-        <v>0.7111623203182997</v>
+        <v>0.7118256688617522</v>
       </c>
       <c r="EF5">
-        <v>0.7115544651097565</v>
+        <v>0.7121694783109956</v>
       </c>
       <c r="EG5">
-        <v>0.7162156367082085</v>
+        <v>0.7168212967628359</v>
       </c>
       <c r="EH5">
-        <v>0.7184586991593414</v>
+        <v>0.7190329253431009</v>
       </c>
       <c r="EI5">
-        <v>0.719468312337346</v>
+        <v>0.7199998415303269</v>
       </c>
       <c r="EJ5">
-        <v>0.7210825297021788</v>
+        <v>0.7215768827876499</v>
       </c>
       <c r="EK5">
-        <v>0.723179928856485</v>
+        <v>0.7236415179611158</v>
       </c>
       <c r="EL5">
-        <v>0.7251471279136277</v>
+        <v>0.7255747641281224</v>
       </c>
       <c r="EM5">
-        <v>0.7267796196780623</v>
+        <v>0.7271702466559178</v>
       </c>
       <c r="EN5">
-        <v>0.7363242644701232</v>
+        <v>0.7367501312533102</v>
       </c>
       <c r="EO5">
-        <v>0.7415287058567396</v>
+        <v>0.7419501803075951</v>
       </c>
       <c r="EP5">
-        <v>0.7421333230735674</v>
+        <v>0.7425084023531244</v>
       </c>
       <c r="EQ5">
-        <v>0.7431329864517888</v>
+        <v>0.7434652778849556</v>
       </c>
       <c r="ER5">
-        <v>0.7453445038036088</v>
+        <v>0.7456450733149569</v>
       </c>
       <c r="ES5">
-        <v>0.7454012421123727</v>
+        <v>0.7456504135504202</v>
       </c>
       <c r="ET5">
-        <v>0.7458425856227576</v>
+        <v>0.7460438709718223</v>
       </c>
       <c r="EU5">
-        <v>0.7462495218338921</v>
+        <v>0.7464026069071278</v>
       </c>
       <c r="EV5">
-        <v>0.7462651377415519</v>
+        <v>0.7464026069071278</v>
       </c>
       <c r="EW5">
-        <v>0.7481239175010567</v>
+        <v>0.7482264437564149</v>
       </c>
       <c r="EX5">
-        <v>0.7593633222561957</v>
+        <v>0.759516563849686</v>
       </c>
       <c r="EY5">
-        <v>0.7615975182075216</v>
+        <v>0.7617192449665792</v>
       </c>
       <c r="EZ5">
-        <v>0.787920813634044</v>
+        <v>0.7882309927854075</v>
       </c>
       <c r="FA5">
-        <v>0.8551675171690116</v>
+        <v>0.8560398367618997</v>
       </c>
       <c r="FB5">
-        <v>0.8648640029577647</v>
+        <v>0.8657729488770112</v>
       </c>
       <c r="FC5">
-        <v>0.8727015432870165</v>
+        <v>0.8736301407562168</v>
       </c>
       <c r="FD5">
-        <v>0.8754736078266245</v>
+        <v>0.8763756019551502</v>
       </c>
       <c r="FE5">
-        <v>0.8796232169362214</v>
+        <v>0.8805111866359193</v>
       </c>
       <c r="FF5">
-        <v>0.8851065861167611</v>
+        <v>0.8859927104856603</v>
       </c>
       <c r="FG5">
-        <v>0.8853540971913688</v>
+        <v>0.8861905655095899</v>
       </c>
       <c r="FH5">
-        <v>0.8926967233314028</v>
+        <v>0.8935483239396614</v>
       </c>
       <c r="FI5">
-        <v>0.8993954498854648</v>
+        <v>0.9002563030784456</v>
       </c>
       <c r="FJ5">
-        <v>0.8994026670886076</v>
+        <v>0.9002563030784456</v>
       </c>
       <c r="FK5">
-        <v>0.9014115363448425</v>
+        <v>0.9022315999518415</v>
       </c>
       <c r="FL5">
-        <v>0.9176071689920055</v>
+        <v>0.9185232052414047</v>
       </c>
       <c r="FM5">
-        <v>0.9267047277938066</v>
+        <v>0.9276519213270843</v>
       </c>
       <c r="FN5">
-        <v>0.9270658394159395</v>
+        <v>0.9279644142306908</v>
       </c>
       <c r="FO5">
-        <v>0.9285430635837567</v>
+        <v>0.9294032113511836</v>
       </c>
       <c r="FP5">
-        <v>0.9294557560238729</v>
+        <v>0.9302723217783996</v>
       </c>
       <c r="FQ5">
-        <v>0.9346135449115056</v>
+        <v>0.9354252923310254</v>
       </c>
       <c r="FR5">
-        <v>0.9436176487153428</v>
+        <v>0.9444597000436803</v>
       </c>
       <c r="FS5">
-        <v>0.9460089286632466</v>
+        <v>0.9468208995541126</v>
       </c>
       <c r="FT5">
-        <v>0.9463059609867754</v>
+        <v>0.9470687280253446</v>
       </c>
       <c r="FU5">
-        <v>0.9467023006081408</v>
+        <v>0.9474167706091706</v>
       </c>
       <c r="FV5">
-        <v>0.9476869255866898</v>
+        <v>0.9483584704196719</v>
       </c>
       <c r="FW5">
-        <v>0.9492505686526244</v>
+        <v>0.9498844755638938</v>
       </c>
       <c r="FX5">
-        <v>0.9524689411825091</v>
+        <v>0.9530803201703271</v>
       </c>
       <c r="FY5">
-        <v>0.95674092308944</v>
+        <v>0.9573393950835126</v>
       </c>
       <c r="FZ5">
-        <v>0.9614790099862164</v>
+        <v>0.9620688311781083</v>
       </c>
       <c r="GA5">
-        <v>0.9622670738290476</v>
+        <v>0.962812174974343</v>
       </c>
       <c r="GB5">
-        <v>0.9631776039692109</v>
+        <v>0.9636791033567781</v>
       </c>
       <c r="GC5">
-        <v>0.9656018582163963</v>
+        <v>0.9660735782680411</v>
       </c>
       <c r="GD5">
-        <v>0.9656088748192435</v>
+        <v>0.9660735782680411</v>
       </c>
       <c r="GE5">
-        <v>0.9670278271883304</v>
+        <v>0.967453571486643</v>
       </c>
       <c r="GF5">
-        <v>0.9675153811777085</v>
+        <v>0.967893661353452</v>
       </c>
       <c r="GG5">
-        <v>0.9715279720902905</v>
+        <v>0.9718909766691067</v>
       </c>
       <c r="GH5">
-        <v>0.9785749834367647</v>
+        <v>0.9789504209284007</v>
       </c>
       <c r="GI5">
-        <v>0.9797184686118529</v>
+        <v>0.9800524315515966</v>
       </c>
       <c r="GJ5">
-        <v>0.9831210809377238</v>
+        <v>0.9834341983214712</v>
       </c>
       <c r="GK5">
-        <v>0.9897535427932294</v>
+        <v>0.9900753076721652</v>
       </c>
       <c r="GL5">
-        <v>0.991332468058831</v>
+        <v>0.9916167345639473</v>
       </c>
       <c r="GM5">
-        <v>0.9915026895151225</v>
+        <v>0.9917365942070636</v>
       </c>
       <c r="GN5">
-        <v>0.9926606293898957</v>
+        <v>0.9928531915216036</v>
       </c>
       <c r="GO5">
-        <v>0.9953662934309503</v>
+        <v>0.9955316458924055</v>
       </c>
       <c r="GP5">
-        <v>0.9961883232130416</v>
+        <v>0.9963092657845115</v>
       </c>
       <c r="GQ5">
-        <v>0.9981769147697183</v>
+        <v>0.9982640997945434</v>
       </c>
       <c r="GR5">
-        <v>0.9998151988340267</v>
+        <v>0.9998654275140254</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.957667170913006E-05</v>
+        <v>1.909832019574298E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002604898862174034</v>
+        <v>0.0002004668687153289</v>
       </c>
       <c r="D6">
-        <v>0.0004403323915346913</v>
+        <v>0.0003505848958890979</v>
       </c>
       <c r="E6">
-        <v>0.0005312485641674296</v>
+        <v>0.000411261956631048</v>
       </c>
       <c r="F6">
-        <v>0.0009459994133682092</v>
+        <v>0.0007976477873402255</v>
       </c>
       <c r="G6">
-        <v>0.001699453793749877</v>
+        <v>0.001524697291543629</v>
       </c>
       <c r="H6">
-        <v>0.001907317358337557</v>
+        <v>0.001702998541233473</v>
       </c>
       <c r="I6">
-        <v>0.001998233530970295</v>
+        <v>0.001763675601975423</v>
       </c>
       <c r="J6">
-        <v>0.002317624222654048</v>
+        <v>0.002054149407641705</v>
       </c>
       <c r="K6">
-        <v>0.002814795909708767</v>
+        <v>0.002523433061405463</v>
       </c>
       <c r="L6">
-        <v>0.002886727097835833</v>
+        <v>0.002565015267894243</v>
       </c>
       <c r="M6">
-        <v>0.002890430497439405</v>
+        <v>0.002565015267894243</v>
       </c>
       <c r="N6">
-        <v>0.002921018738642952</v>
+        <v>0.002565015267894243</v>
       </c>
       <c r="O6">
-        <v>0.002974289157255905</v>
+        <v>0.002587828711415766</v>
       </c>
       <c r="P6">
-        <v>0.002979271532126175</v>
+        <v>0.002587828711415766</v>
       </c>
       <c r="Q6">
-        <v>0.003108963348749279</v>
+        <v>0.002687505818238746</v>
       </c>
       <c r="R6">
-        <v>0.003198828691409378</v>
+        <v>0.002747125967653411</v>
       </c>
       <c r="S6">
-        <v>0.003200537321064889</v>
+        <v>0.002747125967653411</v>
       </c>
       <c r="T6">
-        <v>0.003262563315449866</v>
+        <v>0.002778745657143658</v>
       </c>
       <c r="U6">
-        <v>0.003451396410533058</v>
+        <v>0.002937906304351102</v>
       </c>
       <c r="V6">
-        <v>0.003741078762990352</v>
+        <v>0.003198499842932442</v>
       </c>
       <c r="W6">
-        <v>0.004088373353947548</v>
+        <v>0.00351703903309047</v>
       </c>
       <c r="X6">
-        <v>0.004417581045375687</v>
+        <v>0.003817386651361997</v>
       </c>
       <c r="Y6">
-        <v>0.004758792916491263</v>
+        <v>0.004129807919811748</v>
       </c>
       <c r="Z6">
-        <v>0.005130955726800944</v>
+        <v>0.004473359246478484</v>
       </c>
       <c r="AA6">
-        <v>0.005552544665823675</v>
+        <v>0.004866622740347262</v>
       </c>
       <c r="AB6">
-        <v>0.006065122192477259</v>
+        <v>0.005351401390259168</v>
       </c>
       <c r="AC6">
-        <v>0.006153220400183371</v>
+        <v>0.005409244177970851</v>
       </c>
       <c r="AD6">
-        <v>0.00625265107759441</v>
+        <v>0.005478485018563715</v>
       </c>
       <c r="AE6">
-        <v>0.006469481881948602</v>
+        <v>0.005665805403156914</v>
       </c>
       <c r="AF6">
-        <v>0.006580436609059579</v>
+        <v>0.005746636985336155</v>
       </c>
       <c r="AG6">
-        <v>0.006582238301412667</v>
+        <v>0.005746636985336155</v>
       </c>
       <c r="AH6">
-        <v>0.006586662294297476</v>
+        <v>0.005746636985336155</v>
       </c>
       <c r="AI6">
-        <v>0.00660126395091728</v>
+        <v>0.005746636985336155</v>
       </c>
       <c r="AJ6">
-        <v>0.006661590274346513</v>
+        <v>0.005776547167548766</v>
       </c>
       <c r="AK6">
-        <v>0.006794696430880715</v>
+        <v>0.005879658373722931</v>
       </c>
       <c r="AL6">
-        <v>0.007222907949731008</v>
+        <v>0.006279582773559238</v>
       </c>
       <c r="AM6">
-        <v>0.007585965590277768</v>
+        <v>0.006613976237098859</v>
       </c>
       <c r="AN6">
-        <v>0.00788235020256055</v>
+        <v>0.006881310822769089</v>
       </c>
       <c r="AO6">
-        <v>0.008375353589723801</v>
+        <v>0.007346402053890243</v>
       </c>
       <c r="AP6">
-        <v>0.008884078776477691</v>
+        <v>0.007827306069672406</v>
       </c>
       <c r="AQ6">
-        <v>0.009458719921515271</v>
+        <v>0.008374507512034458</v>
       </c>
       <c r="AR6">
-        <v>0.009696993745311133</v>
+        <v>0.008583395010936561</v>
       </c>
       <c r="AS6">
-        <v>0.01000806929721139</v>
+        <v>0.008865505555510212</v>
       </c>
       <c r="AT6">
-        <v>0.01035262868823981</v>
+        <v>0.009181293716612738</v>
       </c>
       <c r="AU6">
-        <v>0.01049174488461752</v>
+        <v>0.009290449743883983</v>
       </c>
       <c r="AV6">
-        <v>0.01050790735219669</v>
+        <v>0.009290449743883983</v>
       </c>
       <c r="AW6">
-        <v>0.01056768926664009</v>
+        <v>0.009319812366511526</v>
       </c>
       <c r="AX6">
-        <v>0.01057112721475058</v>
+        <v>0.009319812366511526</v>
       </c>
       <c r="AY6">
-        <v>0.0106579115974909</v>
+        <v>0.00937633372590029</v>
       </c>
       <c r="AZ6">
-        <v>0.01077792393436603</v>
+        <v>0.009466275335969047</v>
       </c>
       <c r="BA6">
-        <v>0.0108379378328034</v>
+        <v>0.009495871285126427</v>
       </c>
       <c r="BB6">
-        <v>0.01098525869896748</v>
+        <v>0.009613279464182114</v>
       </c>
       <c r="BC6">
-        <v>0.01109745018604626</v>
+        <v>0.00969535496369635</v>
       </c>
       <c r="BD6">
-        <v>0.0113599049992125</v>
+        <v>0.009928563391993307</v>
       </c>
       <c r="BE6">
-        <v>0.01203349963167354</v>
+        <v>0.01057529098459422</v>
       </c>
       <c r="BF6">
-        <v>0.01229067015497737</v>
+        <v>0.01080318454182957</v>
       </c>
       <c r="BG6">
-        <v>0.01236285578709782</v>
+        <v>0.01084502266482793</v>
       </c>
       <c r="BH6">
-        <v>0.01252413543289844</v>
+        <v>0.01097647040565583</v>
       </c>
       <c r="BI6">
-        <v>0.01270690401813954</v>
+        <v>0.01112953144653928</v>
       </c>
       <c r="BJ6">
-        <v>0.01290026904310473</v>
+        <v>0.01129325025077638</v>
       </c>
       <c r="BK6">
-        <v>0.01305073300918697</v>
+        <v>0.01141381971947244</v>
       </c>
       <c r="BL6">
-        <v>0.01311331351155751</v>
+        <v>0.01144599712599234</v>
       </c>
       <c r="BM6">
-        <v>0.01314699110668062</v>
+        <v>0.01144910435859571</v>
       </c>
       <c r="BN6">
-        <v>0.01316099763831592</v>
+        <v>0.01144910435859571</v>
       </c>
       <c r="BO6">
-        <v>0.01317559929493572</v>
+        <v>0.01144910435859571</v>
       </c>
       <c r="BP6">
-        <v>0.01320440123218578</v>
+        <v>0.01144910435859571</v>
       </c>
       <c r="BQ6">
-        <v>0.01327813097526602</v>
+        <v>0.01149249552862021</v>
       </c>
       <c r="BR6">
-        <v>0.01342367228147644</v>
+        <v>0.01160811384906739</v>
       </c>
       <c r="BS6">
-        <v>0.01379797041173052</v>
+        <v>0.01195381285318469</v>
       </c>
       <c r="BT6">
-        <v>0.01411610684344693</v>
+        <v>0.01224302514024058</v>
       </c>
       <c r="BU6">
-        <v>0.01429657795874785</v>
+        <v>0.01239377541528455</v>
       </c>
       <c r="BV6">
-        <v>0.01480424729552923</v>
+        <v>0.01287361747068785</v>
       </c>
       <c r="BW6">
-        <v>0.01559412727496246</v>
+        <v>0.01363730337587257</v>
       </c>
       <c r="BX6">
-        <v>0.01622804180845669</v>
+        <v>0.01424412123316154</v>
       </c>
       <c r="BY6">
-        <v>0.01648398205179255</v>
+        <v>0.01447077739056273</v>
       </c>
       <c r="BZ6">
-        <v>0.01665513900733599</v>
+        <v>0.01461215960301984</v>
       </c>
       <c r="CA6">
-        <v>0.01674989060486886</v>
+        <v>0.01467669428500163</v>
       </c>
       <c r="CB6">
-        <v>0.01678504074395363</v>
+        <v>0.01468128258346106</v>
       </c>
       <c r="CC6">
-        <v>0.01678516710460034</v>
+        <v>0.01468128258346106</v>
       </c>
       <c r="CD6">
-        <v>0.01678938280149057</v>
+        <v>0.01468128258346106</v>
       </c>
       <c r="CE6">
-        <v>0.016791478488036</v>
+        <v>0.01468128258346106</v>
       </c>
       <c r="CF6">
-        <v>0.01685240285944966</v>
+        <v>0.01471179427467651</v>
       </c>
       <c r="CG6">
-        <v>0.01711713880255651</v>
+        <v>0.01494729703425066</v>
       </c>
       <c r="CH6">
-        <v>0.01738301905563356</v>
+        <v>0.01518395072613635</v>
       </c>
       <c r="CI6">
-        <v>0.01789400727232852</v>
+        <v>0.01566713086844801</v>
       </c>
       <c r="CJ6">
-        <v>0.01835544174031376</v>
+        <v>0.01610047048499954</v>
       </c>
       <c r="CK6">
-        <v>0.01888135917662</v>
+        <v>0.01659866624518045</v>
       </c>
       <c r="CL6">
-        <v>0.01961583110749593</v>
+        <v>0.01730662344480115</v>
       </c>
       <c r="CM6">
-        <v>0.01988007960061547</v>
+        <v>0.0175416359334214</v>
       </c>
       <c r="CN6">
-        <v>0.1669242857719005</v>
+        <v>0.1654060498742116</v>
       </c>
       <c r="CO6">
-        <v>0.1741368010841021</v>
+        <v>0.1726295401349824</v>
       </c>
       <c r="CP6">
-        <v>0.299370877823276</v>
+        <v>0.2985576052404854</v>
       </c>
       <c r="CQ6">
-        <v>0.3054139909659264</v>
+        <v>0.3046049257770064</v>
       </c>
       <c r="CR6">
-        <v>0.3261161644268863</v>
+        <v>0.3253961414261585</v>
       </c>
       <c r="CS6">
-        <v>0.3263773763900849</v>
+        <v>0.3256280998118766</v>
       </c>
       <c r="CT6">
-        <v>0.3273405615250056</v>
+        <v>0.3265660938227312</v>
       </c>
       <c r="CU6">
-        <v>0.3293785476719409</v>
+        <v>0.3285851089252515</v>
       </c>
       <c r="CV6">
-        <v>0.3497475681415754</v>
+        <v>0.3490412435628038</v>
       </c>
       <c r="CW6">
-        <v>0.3505896167196502</v>
+        <v>0.3498573999763188</v>
       </c>
       <c r="CX6">
-        <v>0.3940383555883385</v>
+        <v>0.3935268197710161</v>
       </c>
       <c r="CY6">
-        <v>0.4181050489616935</v>
+        <v>0.4177020264547608</v>
       </c>
       <c r="CZ6">
-        <v>0.419474537326035</v>
+        <v>0.4190486750497719</v>
       </c>
       <c r="DA6">
-        <v>0.4222464819538596</v>
+        <v>0.4218058961917163</v>
       </c>
       <c r="DB6">
-        <v>0.4250316585813396</v>
+        <v>0.4245764259094367</v>
       </c>
       <c r="DC6">
-        <v>0.4920388408366166</v>
+        <v>0.4919406263221577</v>
       </c>
       <c r="DD6">
-        <v>0.5363495196828618</v>
+        <v>0.5364769743064206</v>
       </c>
       <c r="DE6">
-        <v>0.5408014745669425</v>
+        <v>0.5409239282462748</v>
       </c>
       <c r="DF6">
-        <v>0.5539613342242881</v>
+        <v>0.5541291812748799</v>
       </c>
       <c r="DG6">
-        <v>0.5634701689766984</v>
+        <v>0.563662280216996</v>
       </c>
       <c r="DH6">
-        <v>0.5845096954288744</v>
+        <v>0.5847928011838437</v>
       </c>
       <c r="DI6">
-        <v>0.5845210158055797</v>
+        <v>0.5847928011838437</v>
       </c>
       <c r="DJ6">
-        <v>0.5935725765698965</v>
+        <v>0.5938659798055718</v>
       </c>
       <c r="DK6">
-        <v>0.5942119741532479</v>
+        <v>0.5944783124441794</v>
       </c>
       <c r="DL6">
-        <v>0.6316044631796278</v>
+        <v>0.632056433716873</v>
       </c>
       <c r="DM6">
-        <v>0.6448227358354525</v>
+        <v>0.6453204377911856</v>
       </c>
       <c r="DN6">
-        <v>0.6531390636189132</v>
+        <v>0.6536541284977471</v>
       </c>
       <c r="DO6">
-        <v>0.6633814603522232</v>
+        <v>0.6639250346846762</v>
       </c>
       <c r="DP6">
-        <v>0.6666430387672987</v>
+        <v>0.6671747232185319</v>
       </c>
       <c r="DQ6">
-        <v>0.6693402871970682</v>
+        <v>0.6698568158811929</v>
       </c>
       <c r="DR6">
-        <v>0.6732783220945302</v>
+        <v>0.6737868756808731</v>
       </c>
       <c r="DS6">
-        <v>0.6780693013697834</v>
+        <v>0.6785748160110915</v>
       </c>
       <c r="DT6">
-        <v>0.679188799340634</v>
+        <v>0.6796700274702454</v>
       </c>
       <c r="DU6">
-        <v>0.6806222793033093</v>
+        <v>0.6810810379952463</v>
       </c>
       <c r="DV6">
-        <v>0.6817836885730687</v>
+        <v>0.6822184033020362</v>
       </c>
       <c r="DW6">
-        <v>0.6836988405232023</v>
+        <v>0.6841138733426929</v>
       </c>
       <c r="DX6">
-        <v>0.6872473100308077</v>
+        <v>0.6876521132628696</v>
       </c>
       <c r="DY6">
-        <v>0.6888177930899158</v>
+        <v>0.6892009197475055</v>
       </c>
       <c r="DZ6">
-        <v>0.6935409379669352</v>
+        <v>0.6939206331088139</v>
       </c>
       <c r="EA6">
-        <v>0.6954183602180511</v>
+        <v>0.6957781551014466</v>
       </c>
       <c r="EB6">
-        <v>0.7128070607652868</v>
+        <v>0.7132367221334512</v>
       </c>
       <c r="EC6">
-        <v>0.7378561581130622</v>
+        <v>0.7384000181518851</v>
       </c>
       <c r="ED6">
-        <v>0.7417483604117175</v>
+        <v>0.7422839801107166</v>
       </c>
       <c r="EE6">
-        <v>0.7421142255521912</v>
+        <v>0.7426211973217238</v>
       </c>
       <c r="EF6">
-        <v>0.7425276802414257</v>
+        <v>0.7430062794913403</v>
       </c>
       <c r="EG6">
-        <v>0.7484891536862017</v>
+        <v>0.7489714878653934</v>
       </c>
       <c r="EH6">
-        <v>0.7554025485061918</v>
+        <v>0.7558941265662796</v>
       </c>
       <c r="EI6">
-        <v>0.7555643400619791</v>
+        <v>0.7560260891796156</v>
       </c>
       <c r="EJ6">
-        <v>0.7561081285478201</v>
+        <v>0.7565422594125233</v>
       </c>
       <c r="EK6">
-        <v>0.7600531024451014</v>
+        <v>0.760479298369346</v>
       </c>
       <c r="EL6">
-        <v>0.7672536902576136</v>
+        <v>0.7676907921036985</v>
       </c>
       <c r="EM6">
-        <v>0.7673538226890063</v>
+        <v>0.7677607387594581</v>
       </c>
       <c r="EN6">
-        <v>0.7750254204892544</v>
+        <v>0.7754459683067061</v>
       </c>
       <c r="EO6">
-        <v>0.7828350545859083</v>
+        <v>0.7832700329928888</v>
       </c>
       <c r="EP6">
-        <v>0.7832995121538148</v>
+        <v>0.7837064132046208</v>
       </c>
       <c r="EQ6">
-        <v>0.784026211534893</v>
+        <v>0.784406552873207</v>
       </c>
       <c r="ER6">
-        <v>0.78575035729</v>
+        <v>0.786109911329343</v>
       </c>
       <c r="ES6">
-        <v>0.7858999607361046</v>
+        <v>0.7862296152980673</v>
       </c>
       <c r="ET6">
-        <v>0.7867179115148069</v>
+        <v>0.7870215344536218</v>
       </c>
       <c r="EU6">
-        <v>0.7870303432266718</v>
+        <v>0.787305009006518</v>
       </c>
       <c r="EV6">
-        <v>0.7870824713033144</v>
+        <v>0.7873266734971172</v>
       </c>
       <c r="EW6">
-        <v>0.7896844978355633</v>
+        <v>0.7899129931948689</v>
       </c>
       <c r="EX6">
-        <v>0.8011712150364738</v>
+        <v>0.8014354209706606</v>
       </c>
       <c r="EY6">
-        <v>0.8080754228567031</v>
+        <v>0.8083488195048559</v>
       </c>
       <c r="EZ6">
-        <v>0.8190723515703667</v>
+        <v>0.8193786242934618</v>
       </c>
       <c r="FA6">
-        <v>0.8685379582823887</v>
+        <v>0.869099732700005</v>
       </c>
       <c r="FB6">
-        <v>0.8813369209491312</v>
+        <v>0.8819420001578864</v>
       </c>
       <c r="FC6">
-        <v>0.8878555682793996</v>
+        <v>0.8884676068895978</v>
       </c>
       <c r="FD6">
-        <v>0.8940549221179818</v>
+        <v>0.8946720723169319</v>
       </c>
       <c r="FE6">
-        <v>0.894713841260825</v>
+        <v>0.8953040394900411</v>
       </c>
       <c r="FF6">
-        <v>0.8996826601314476</v>
+        <v>0.9002708486074849</v>
       </c>
       <c r="FG6">
-        <v>0.8997165718665646</v>
+        <v>0.9002741913350952</v>
       </c>
       <c r="FH6">
-        <v>0.9039830057554759</v>
+        <v>0.9045345506341897</v>
       </c>
       <c r="FI6">
-        <v>0.9096310016084141</v>
+        <v>0.9101844672614421</v>
       </c>
       <c r="FJ6">
-        <v>0.9096582271587053</v>
+        <v>0.9101844672614421</v>
       </c>
       <c r="FK6">
-        <v>0.9098024381149503</v>
+        <v>0.9102987475329334</v>
       </c>
       <c r="FL6">
-        <v>0.9212540463167751</v>
+        <v>0.9217858631271261</v>
       </c>
       <c r="FM6">
-        <v>0.9327759270167701</v>
+        <v>0.9333436578999172</v>
       </c>
       <c r="FN6">
-        <v>0.9341943741798369</v>
+        <v>0.9347395486276142</v>
       </c>
       <c r="FO6">
-        <v>0.9349831224592996</v>
+        <v>0.9355020962834636</v>
       </c>
       <c r="FP6">
-        <v>0.9352520661722968</v>
+        <v>0.9357418311640998</v>
       </c>
       <c r="FQ6">
-        <v>0.9404868080359954</v>
+        <v>0.9409761022219962</v>
       </c>
       <c r="FR6">
-        <v>0.94787740684356</v>
+        <v>0.9483787065814822</v>
       </c>
       <c r="FS6">
-        <v>0.9508561535659998</v>
+        <v>0.9513439266214372</v>
       </c>
       <c r="FT6">
-        <v>0.9517661117423065</v>
+        <v>0.952228385639057</v>
       </c>
       <c r="FU6">
-        <v>0.9527739311160651</v>
+        <v>0.9532112721956525</v>
       </c>
       <c r="FV6">
-        <v>0.9535075910469621</v>
+        <v>0.9539184126960947</v>
       </c>
       <c r="FW6">
-        <v>0.9544460241825273</v>
+        <v>0.954831511463025</v>
       </c>
       <c r="FX6">
-        <v>0.9564615766300467</v>
+        <v>0.9568279630380071</v>
       </c>
       <c r="FY6">
-        <v>0.9621867758809748</v>
+        <v>0.9625555298541245</v>
       </c>
       <c r="FZ6">
-        <v>0.9664390269702553</v>
+        <v>0.9668016242750059</v>
       </c>
       <c r="GA6">
-        <v>0.9666694148042565</v>
+        <v>0.9670025801463775</v>
       </c>
       <c r="GB6">
-        <v>0.9686716164521235</v>
+        <v>0.9689856036580684</v>
       </c>
       <c r="GC6">
-        <v>0.9722761029582705</v>
+        <v>0.9725801847579035</v>
       </c>
       <c r="GD6">
-        <v>0.9722791318217916</v>
+        <v>0.9725801847579035</v>
       </c>
       <c r="GE6">
-        <v>0.972834845647322</v>
+        <v>0.9731083493447293</v>
       </c>
       <c r="GF6">
-        <v>0.9729597083540709</v>
+        <v>0.9732031693946928</v>
       </c>
       <c r="GG6">
-        <v>0.9746492965100776</v>
+        <v>0.9748717702602728</v>
       </c>
       <c r="GH6">
-        <v>0.9812418876384207</v>
+        <v>0.9814717487170042</v>
       </c>
       <c r="GI6">
-        <v>0.9831889398877236</v>
+        <v>0.9833993036699814</v>
       </c>
       <c r="GJ6">
-        <v>0.9851328934371072</v>
+        <v>0.9853237419902684</v>
       </c>
       <c r="GK6">
-        <v>0.9906740469928275</v>
+        <v>0.9908661980034317</v>
       </c>
       <c r="GL6">
-        <v>0.9917029993660358</v>
+        <v>0.9918703398601989</v>
       </c>
       <c r="GM6">
-        <v>0.9918666668917743</v>
+        <v>0.9920041893000839</v>
       </c>
       <c r="GN6">
-        <v>0.9923844105782933</v>
+        <v>0.9924941640074195</v>
       </c>
       <c r="GO6">
-        <v>0.9982253596262075</v>
+        <v>0.9983381504868042</v>
       </c>
       <c r="GP6">
-        <v>0.9985125443987298</v>
+        <v>0.9985962319914763</v>
       </c>
       <c r="GQ6">
-        <v>0.9992648934091403</v>
+        <v>0.9993221697287203</v>
       </c>
       <c r="GR6">
-        <v>0.9999013337425687</v>
+        <v>0.9999315280032324</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.04456723217202831</v>
+        <v>0.04250943606705054</v>
       </c>
       <c r="F2">
-        <v>0.5010743887562105</v>
+        <v>0.500773014791306</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0125097921967506</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="F3">
-        <v>0.5136323789968099</v>
+        <v>0.5139814150170949</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>109</v>
       </c>
       <c r="E4">
-        <v>0.01930388068474676</v>
+        <v>0.05367634372525821</v>
       </c>
       <c r="F4">
-        <v>0.5155610227310637</v>
+        <v>0.5155117598713985</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>108</v>
       </c>
       <c r="E5">
-        <v>0.01422671293969375</v>
+        <v>0.01103580698214467</v>
       </c>
       <c r="F5">
-        <v>0.5004594262624592</v>
+        <v>0.500497235787036</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01835544174031376</v>
+        <v>0.01730662344480115</v>
       </c>
       <c r="F6">
-        <v>0.5363495196828618</v>
+        <v>0.5364769743064206</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.04456723217202831</v>
+        <v>0.04250943606705054</v>
       </c>
       <c r="F2">
-        <v>0.7166076890449682</v>
+        <v>0.7171350081936416</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3">
-        <v>0.0125097921967506</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="F3">
-        <v>0.7302983394812551</v>
+        <v>0.7005073663111915</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>133</v>
       </c>
       <c r="E4">
-        <v>0.01930388068474676</v>
+        <v>0.05367634372525821</v>
       </c>
       <c r="F4">
-        <v>0.7158051957420795</v>
+        <v>0.7159037828716086</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.01422671293969375</v>
+        <v>0.01103580698214467</v>
       </c>
       <c r="F5">
-        <v>0.7089583353663157</v>
+        <v>0.7097053907864996</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.01835544174031376</v>
+        <v>0.01730662344480115</v>
       </c>
       <c r="F6">
-        <v>0.7128070607652868</v>
+        <v>0.7132367221334512</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04456723217202831</v>
+        <v>0.04250943606705054</v>
       </c>
       <c r="F2">
-        <v>0.8490381132987533</v>
+        <v>0.8497370267231827</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.0125097921967506</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="F3">
-        <v>0.8106913260785356</v>
+        <v>0.8113672912374204</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.01930388068474676</v>
+        <v>0.05367634372525821</v>
       </c>
       <c r="F4">
-        <v>0.83442520416465</v>
+        <v>0.8345270902328364</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.01422671293969375</v>
+        <v>0.01103580698214467</v>
       </c>
       <c r="F5">
-        <v>0.8551675171690116</v>
+        <v>0.8560398367618997</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.01835544174031376</v>
+        <v>0.01730662344480115</v>
       </c>
       <c r="F6">
-        <v>0.8011712150364738</v>
+        <v>0.8014354209706606</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2">
-        <v>0.04456723217202831</v>
+        <v>0.04250943606705054</v>
       </c>
       <c r="F2">
-        <v>0.9005570778494744</v>
+        <v>0.9003813097752218</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.0125097921967506</v>
+        <v>0.007818528223735636</v>
       </c>
       <c r="F3">
-        <v>0.9028848437715038</v>
+        <v>0.9045783710138738</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.01930388068474676</v>
+        <v>0.05367634372525821</v>
       </c>
       <c r="F4">
-        <v>0.9007662059014983</v>
+        <v>0.9009839228206568</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5">
-        <v>0.01422671293969375</v>
+        <v>0.01103580698214467</v>
       </c>
       <c r="F5">
-        <v>0.9014115363448425</v>
+        <v>0.9002563030784456</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6">
-        <v>0.01835544174031376</v>
+        <v>0.01730662344480115</v>
       </c>
       <c r="F6">
-        <v>0.9039830057554759</v>
+        <v>0.9002708486074849</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>13</v>

--- a/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
@@ -2000,46 +2000,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.634161613711461E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001282622275956543</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002120492008385014</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003033584067439326</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0003734502504013556</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004199840028809174</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0005138593837002843</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004607279178152758</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004232599678502853</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002531056785010716</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.000184022917788473</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001041564503097359</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001011734409987497</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.17455349571799E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2051,43 +2051,43 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.31166465276447E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002032828526714371</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002826300304880777</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002657901206516544</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0005332948235541614</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0007406588913426161</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0006693887566359374</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0008493443305776905</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0009035137400455644</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0007766882293214465</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0006263576058634239</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002920504656609284</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>6.115993230287166E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -2099,46 +2099,46 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.718521864173579E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002573225809996375</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003715897483609217</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0006565807485717835</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.000844916765603689</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.00106452011533764</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001298204499733928</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001243389671542812</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.00110414385405298</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001011781739415658</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0007255475117199477</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0004089308427032496</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001214785447152218</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.940501342529076E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -2147,49 +2147,49 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>8.176500501459212E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0004062846451111089</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005687930450639778</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0008394200552661144</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001001876485888245</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001109171155194835</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001029450403664809</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.00109483629828472</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001306969253502107</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001220598950420615</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0008466321874367391</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0007406588913426161</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005109259521217092</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0003604516813970728</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.000123420371189912</v>
+        <v>0</v>
       </c>
       <c r="BP2">
         <v>0</v>
@@ -2198,49 +2198,49 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.942557630192319E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001282622275956543</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0002621014384671663</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.000445838149546461</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0006882017552745516</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0008127225523195749</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.00116224970318268</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0011133860192847</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001261899028014063</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001267368018011534</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001171721138937579</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.000938387320473302</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0005319112687851875</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002788440193336921</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.960603922266201E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -2249,37 +2249,37 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.267445394794879E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0002115121306014999</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0004813173593632461</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0006445234601951929</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.00084392426238904</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.002544878812601558</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.05701786344272046</v>
+        <v>0.1071635553721813</v>
       </c>
       <c r="CP2">
-        <v>0.001369913396867889</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.1495090517335596</v>
+        <v>0.4770770071029448</v>
       </c>
       <c r="CR2">
-        <v>0.02883092351367195</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.004425521340112621</v>
+        <v>0</v>
       </c>
       <c r="CT2">
         <v>0</v>
@@ -2288,79 +2288,79 @@
         <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.004613110744547761</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02524340896576333</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.004127733038528851</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.05142586052572289</v>
+        <v>0.08479864538085889</v>
       </c>
       <c r="CZ2">
-        <v>0.04119853842358277</v>
+        <v>0.04389502968864169</v>
       </c>
       <c r="DA2">
-        <v>0.003973396639239778</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.009536333160011038</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0006565807485717835</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.02878992728006851</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.04500053695868458</v>
+        <v>0.05910091500143878</v>
       </c>
       <c r="DF2">
-        <v>0.003364972410223136</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.04314470408511142</v>
+        <v>0.05167861286882722</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.02043092280023739</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0002349479677129736</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01603423467248684</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.007417839014157723</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.03125324025633135</v>
+        <v>0.004119353307760044</v>
       </c>
       <c r="DN2">
-        <v>0.02851905707358078</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003033218165004625</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.00984595886420115</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001203558963706415</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0003859580977387496</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.00133276087551265</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -2369,229 +2369,229 @@
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>4.909477284317889E-05</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0001052826206612705</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.000989292944968352</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0004765298235220406</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0032340391628684</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01315008212881036</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0321562987026569</v>
+        <v>0.007731086200027247</v>
       </c>
       <c r="EE2">
-        <v>0.006005625127052331</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0007560875159788287</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.002793512805680501</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.001503647437959798</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003797227470006566</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0001928754543155055</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.00602935684625052</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001868929873498986</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0009844359821377328</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.01087046610456601</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.01088938697740766</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001800958630813993</v>
+        <v>0</v>
       </c>
       <c r="ER2">
         <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0009669486555338957</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0001971260813778243</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0001663665243560549</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>1.56004988177665E-05</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.003127732919959057</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.005014858596251903</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.00957447158498048</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.06604640344259576</v>
+        <v>0.1432727075753208</v>
       </c>
       <c r="FC2">
-        <v>0.03551476473229374</v>
+        <v>0.02116308750199913</v>
       </c>
       <c r="FD2">
-        <v>0.0005117122531413469</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004752148079246708</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001338262964423677</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.008527395022933497</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.001043371120510166</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003143056001443776</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.00575498360413706</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0006015607979367999</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>7.631404787033168E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.01362245912650497</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01755686239785634</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002940129690672827</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001775092536247946</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.004476115552268528</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003678193481880221</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.005410668119400778</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.003115670686927696</v>
+        <v>0</v>
       </c>
       <c r="FU2">
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>3.743910143630799E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>2.467389995487101E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0004101595793222842</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0009698367375644438</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.005249152485031995</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.003906515541564431</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001369913396867889</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0001905299220067337</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.00335616406276393</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>2.706700186074971E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001550366958091702</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001388159576611828</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0002426907420693998</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.005068671879573934</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0009574469463824494</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001481259048259479</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003435850100799249</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0008278519345220563</v>
+        <v>0</v>
       </c>
       <c r="GN2">
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001217375035511043</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.007141258639613369</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0004397435598093549</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001171721138937579</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0006038730496916347</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001762789496613614</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.000159349496163825</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001762789496613614</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2782,46 +2782,46 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6.628041564370638E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.888663755489035E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0002994976223802295</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.74267099185991E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.138647973401214E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002446688810616563</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0004249647611651378</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0004935258410742249</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000481287163117455</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002900602201728985</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0003442398934307907</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.000251170114138654</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4.237779465152579E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2839,40 +2839,40 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002070957476118717</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003401050062211553</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002673058537677532</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002862009124438106</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004141506970650143</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002396796893606189</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.000159349496163825</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001581626268274392</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001005582617814843</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.412056268362406E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.173154163281813E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -2896,25 +2896,25 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>9.269418021796583E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>2.065077907086732E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0002667515959046647</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001911879595676485</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0001271865493653145</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.000274919390117809</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001937932955923472</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>7.637402553886032E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>6.818722270139619E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0001033160212503151</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>7.005658975689635E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>3.934405061691955E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.509812877105154E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.013509092285257E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.000132373999904022</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>3.846699451369203E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>5.45001726393627E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001170066259352235</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.933542152630289E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -3037,103 +3037,103 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.002950803073191835</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1070948242005493</v>
+        <v>0.2629956791522012</v>
       </c>
       <c r="CP3">
-        <v>0.007879627555767703</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.1444686557182019</v>
+        <v>0.3909950145460162</v>
       </c>
       <c r="CR3">
-        <v>0.01011513899621938</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01506745730802968</v>
+        <v>0</v>
       </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0001911879595676485</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.002005658827058801</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0274344738603498</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.001238048751979445</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.05276999877836606</v>
+        <v>0.07694192798301387</v>
       </c>
       <c r="CZ3">
-        <v>0.03141694370213164</v>
+        <v>0.003811163825354961</v>
       </c>
       <c r="DA3">
-        <v>0.001614608587039675</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.005130390573775626</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0005109827459198929</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.05140638873161677</v>
+        <v>0.072271783857229</v>
       </c>
       <c r="DE3">
-        <v>0.04486769742359419</v>
+        <v>0.04987782241988234</v>
       </c>
       <c r="DF3">
-        <v>0.005773532237572356</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.03109784287741046</v>
+        <v>0.002718295049815118</v>
       </c>
       <c r="DH3">
-        <v>0.002060264923408983</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0214229473026601</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.02060334342459405</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002798087765153086</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.03494826404931109</v>
+        <v>0.01590536554743773</v>
       </c>
       <c r="DN3">
-        <v>0.01579917541411787</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.009608986016658227</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01124960752023573</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002253566328059931</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001176071218465667</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001413363461069402</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002456737735560226</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -3145,151 +3145,151 @@
         <v>0</v>
       </c>
       <c r="DX3">
-        <v>2.633673761817225E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0004010183707140816</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0005090107403947712</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0006930226394550979</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0222347725316372</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.03115315726528164</v>
+        <v>0.002907737892513309</v>
       </c>
       <c r="EE3">
-        <v>0.004678212061423037</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0005196588106956276</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001152479156063464</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.00293947709276207</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.004360492172243803</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001383821126059535</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.003746592598336866</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0005109827459198929</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.002830158362646764</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001301215615722369</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01297729196642192</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01203285904994909</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.002452850233899275</v>
+        <v>0</v>
       </c>
       <c r="ER3">
         <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0004267900752021028</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.000613021588133112</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001274573970453148</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0006710253773409172</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0001088390443918237</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.001515475522437566</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.007692012332460937</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.006210832779674246</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.01155354499216315</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.06580222856948216</v>
+        <v>0.1215752097265365</v>
       </c>
       <c r="FC3">
-        <v>0.02740885120697139</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001854537833205801</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003845962840339917</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.002919707313299124</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01163143883063807</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002097333664987235</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.001882938358534609</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.003589004317548967</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>8.445734935485475E-05</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.009454996918120313</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01061467946579143</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0008590754798941082</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0005234398255772911</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001085681108337551</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002209220027819652</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004717362130902293</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001672464580902078</v>
+        <v>0</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -3304,64 +3304,64 @@
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0003255040838849556</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001772971593325953</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001650986455761726</v>
+        <v>0</v>
       </c>
       <c r="GB3">
         <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001819609055615294</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.005329244684188157</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001312569368795359</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.000539424964645784</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0003111631148666369</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0009701449276016596</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.006188389640249704</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0009101873515768575</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001177251559853605</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.002171009958611763</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0001737593701794113</v>
+        <v>0</v>
       </c>
       <c r="GN3">
         <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002450467522588706</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.01043215464472989</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0007858318578015118</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0002994976223802295</v>
+        <v>0</v>
       </c>
       <c r="GS3">
         <v>0</v>
@@ -3540,52 +3540,52 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.131391500186956E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.788239444726141E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.859462535119321E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.249070934219604E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8.448438373337713E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.000130813686796897</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.51561895166145E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.131318798367325E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0003145532262793523</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003455511292633014</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.189582009147886E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001208687970191514</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.510113439875076E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3594,472 +3594,472 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2.928435079992661E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>4.599950328489799E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>8.789050134373167E-07</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.010056687477315E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001762136633275478</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001182404077513324</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>9.240323634994906E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002457636300331751</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0003943444542141235</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003217358732146637</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.609010746570482E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1.087573318420707E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0001361652749415606</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001236979466109327</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.780246631180657E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>7.938202373098082E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>9.963937361830783E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.40005478892873E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1.265823098003445E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>4.566176146072246E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>8.448438373337713E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0003195454636634833</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0004427423600759242</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0003069128922934749</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0003195454636634833</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.000338957157524852</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0005708524441192242</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0009896031930562614</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008255792631786156</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002331595225857325</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.850441281001552E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>3.249611221842178E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.326047488169445E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>7.465824391769178E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>8.968319745943929E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>5.887899242035455E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0001555843928672098</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003176348742085171</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0005106864946643574</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0008312464992924593</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001035985761025776</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0007283393000466121</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.000574972409054768</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.000745484229709185</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0003734280998969729</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002469691337610809</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0002260891483418233</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>9.240323634994906E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.74063639283397E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>7.176658691074101E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.889216319176037E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001451602752316063</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0004594463944986389</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0002531204869950887</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001842441163619549</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0005860706838257525</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0007101785059121449</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0005421849358769135</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001762821430567764</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003671639429656156</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0006240290428225404</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.000273868512426977</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.362559857858126E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>4.417305322511265E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001129521595990876</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.912124699268582E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0001126184073328021</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.03504932664467128</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="CO4">
-        <v>0.01922415916326945</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.09481331561838575</v>
+        <v>0.2476153190228389</v>
       </c>
       <c r="CQ4">
-        <v>0.08708089317848768</v>
+        <v>0.2180526987531227</v>
       </c>
       <c r="CR4">
-        <v>4.543718201338532E-05</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>2.482131294087705E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>7.423671636833417E-05</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.009122794957558258</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0140406484274668</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.03077107885524733</v>
+        <v>0.002768850614308159</v>
       </c>
       <c r="CX4">
-        <v>0.02313944835741394</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.05256111228579642</v>
+        <v>0.08607657066952989</v>
       </c>
       <c r="CZ4">
-        <v>0.004870170208882744</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.002501029365934307</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.006540739966224461</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01469045443162769</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.06996287449655973</v>
+        <v>0.1526070392593284</v>
       </c>
       <c r="DE4">
-        <v>0.004012022017541876</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02836017960442128</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.006461773871436738</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0118109574608678</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.00645935128203989</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01147293209955442</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.02334606978475558</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.007962701255220226</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.03680349677606256</v>
+        <v>0.02583200859454415</v>
       </c>
       <c r="DN4">
-        <v>0.0001112878466948407</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01760333464420024</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.004924662640323222</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001637334366620828</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.00165674193266238</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.00273114950966617</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.000615213712903271</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0001090863862085705</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0001536522325480111</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>1.638975705001725E-05</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.000130813686796897</v>
+        <v>0</v>
       </c>
       <c r="DY4">
         <v>0</v>
       </c>
       <c r="DZ4">
-        <v>2.589685446605261E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.001272148852626576</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.007347696479130608</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.04093332639944806</v>
+        <v>0.04162118538664655</v>
       </c>
       <c r="ED4">
-        <v>0.01680600516892703</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>7.609010746570482E-05</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.00125156616040489</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0004262360001312899</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.005554895063941718</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.000761431400315497</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.003508773754997992</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0002430416334339468</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.002306046186298076</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>9.832910341891753E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0079094664061664</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01820447846184132</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.00708153195227221</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.001239119180622918</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0004262360001312899</v>
+        <v>0</v>
       </c>
       <c r="ES4">
         <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.00231112120049609</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002396517576924803</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0005457287593597451</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.000318180177240371</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.004021895021137146</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01206107328477519</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0002844515611444755</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.04759709836870799</v>
+        <v>0.06709813802631723</v>
       </c>
       <c r="FB4">
-        <v>0.06645683258782034</v>
+        <v>0.1392027294969741</v>
       </c>
       <c r="FC4">
-        <v>0.002951932565050228</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.005488084897563019</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>2.437798809833588E-05</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01170479835114436</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.006419048631976015</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0002506836405895069</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.003546084336834097</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001057357047173955</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0003843150242819918</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.00358359179162987</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01323806700280637</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.004537717604700527</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0008401495654207783</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.003033330667076128</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>1.289818455239005E-05</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004187351564984417</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.003306071151546691</v>
+        <v>0</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>8.771685238001706E-06</v>
+        <v>0</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -4077,67 +4077,67 @@
         <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001796630840721373</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001805173423944404</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001510332271571771</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.000228486008997683</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.003529643691380173</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001779818491104409</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>3.312059124269727E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001013385246204729</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>8.61509669385228E-05</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.002930394963831794</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.003227359138095214</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0002764111793007536</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001703160769339986</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0008981772340781117</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>7.749337584251211E-05</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.000653945216559182</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.006879709616415644</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.00570185957615225</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
         <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0001356195611315211</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0001745733158237859</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003909305867031149</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001045041551224784</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4328,46 +4328,46 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5.047672433117053E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.613393502448754E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002206567712732743</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0003074065888082254</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004643173956954875</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006476739435187025</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008711857967186261</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006967098270395386</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004891271530224287</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0006281493402369537</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0004400898668089756</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001485803496504782</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001166843506844141</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6.322627181713954E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4379,43 +4379,43 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.000114867682101992</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000161743701549721</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>5.943672111482565E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002984399115748413</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0002604768331145644</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.353657418033026E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003838937218623667</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0003452418708706653</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>6.611330082498543E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001217506140421871</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001003334252243738</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -4433,37 +4433,37 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001810365578102818</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000123604297563591</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001637992416208669</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.891811835036225E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0003060441605334338</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.000237538832852025</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0002561895989987539</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0001418466783325513</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.000112353219353617</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1.069491866045838E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001210718621853561</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -4478,25 +4478,25 @@
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>7.730913413761596E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.000114867682101992</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0002159853406588499</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.320024882733347E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.345916515409395E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001333137863137453</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>8.421413578106988E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>5.267230156378061E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -4532,28 +4532,28 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>7.509694660250749E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001345724859740892</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0001709009532440298</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0002668027144422362</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.435211169110226E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.552858329015953E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001245587037479105</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -4571,346 +4571,346 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.874667702038345E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>9.12988435404966E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>8.032518563792422E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003362122009319491</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0872910889686072</v>
+        <v>0.2101551531972619</v>
       </c>
       <c r="CO5">
-        <v>0.03997598132090331</v>
+        <v>0.0359186552782107</v>
       </c>
       <c r="CP5">
-        <v>0.1029071044105749</v>
+        <v>0.2676606726249519</v>
       </c>
       <c r="CQ5">
         <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.009046183266716464</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0001038600164719472</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.009422845590454757</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0001719761120891607</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02622719698910267</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.007923442867934201</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.06436869492284411</v>
+        <v>0.1257441085856348</v>
       </c>
       <c r="CY5">
-        <v>0.01592275667009251</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.00208914253448385</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.006044870130198528</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.005688568041162993</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.06839106333473909</v>
+        <v>0.1405563624358658</v>
       </c>
       <c r="DD5">
-        <v>0.02901886812728968</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01150566349190645</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01328919623636765</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01258643411663599</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.02785323560837428</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0001829252985557923</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.01869146603288168</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001014808755168418</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.05236821455906366</v>
+        <v>0.08155269117409866</v>
       </c>
       <c r="DM5">
-        <v>0.008208310564912887</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.008816626060620919</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.00579654257588784</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002474589548702639</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0007907947682856161</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002039500637295981</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.002341390967854514</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0007907947682856161</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0001372509931194349</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0009884612430808971</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001464834627420798</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0007659197907976499</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.000619515504806306</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.005366446241065661</v>
+        <v>0</v>
       </c>
       <c r="EA5">
         <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02580131630061628</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01681957979966328</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0003684389151581947</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.001751839160094524</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.000343809449243426</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.004651818451840279</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.002211628580265032</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0009669161872260502</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001577041257322907</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.00206463517346594</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001933246167006643</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001595482527795355</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.009579884597392408</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.005200049054284829</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.000558222045529392</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0009568755318312485</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.002179795430001252</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>5.340235463252598E-06</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0003934574214021964</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.000358735935305435</v>
+        <v>0</v>
       </c>
       <c r="EV5">
         <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.00182383684928713</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01129012009327112</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.002202681116893104</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02651174781882835</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.06780884397649208</v>
+        <v>0.1384123567039765</v>
       </c>
       <c r="FB5">
-        <v>0.009733112115111566</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.007857191879205602</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002745461198933385</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.004135584680769183</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.005481523849741033</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0001978550239295279</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.007357758430071556</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.006707979138784235</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
         <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001975296873395964</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01629160528956318</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.009128716085679583</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0003124929036064991</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001438797120492907</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0008691104272158828</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.005152970552625903</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.009034407712654881</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002361199510432373</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.000247828471231968</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0003480425838260082</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0009416998105012537</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001526005144221808</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.003195844606433346</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.00425907491318561</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.004729436094595689</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0007433437962347002</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0008669283824350652</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002394474911263023</v>
+        <v>0</v>
       </c>
       <c r="GD5">
         <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001379993218601934</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0004400898668089756</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.003997315315654707</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.007059444259293933</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001102010623195907</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.003381766769874538</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.006641109350694032</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001541426891782004</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.000119859643116329</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001116597314539978</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002678454370801912</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.000777619892106025</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.00195483401003196</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001601327719481953</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0001345724859740892</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,37 +5086,37 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.909832019574298E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001813685485195859</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001501180271737689</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.067706074195017E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003863858307091775</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007270495042034038</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001783012496898434</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.067706074195017E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002904738056662825</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0004692836537637575</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.158220648878004E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5125,58 +5125,58 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.281344352152304E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9.967710682298029E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.962014941466397E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3.161968949024801E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001591606472074433</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002605935385813402</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003185391901580288</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0003003476182715267</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003124212684497502</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0003435513266667366</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0003932634938687776</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0004847786499119061</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>5.784278771168258E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>6.924084059286332E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001873203845931998</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.083158217924043E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -5188,94 +5188,94 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.991018221261046E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001031112061741659</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003999243998363071</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0003343934635396213</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002673345856702292</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0004650912311211539</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0004809040157821631</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0005472014423620521</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0002088874989021029</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002821105445736504</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0003157881611025267</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001091560272712446</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.936262262754289E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>5.65213593887647E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>8.994161006875712E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>2.959594915738041E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001174081790556868</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>8.207549951423704E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.000233208428296957</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0006467275926009134</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002278935572353531</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.183812299835819E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001314477408279013</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0001530610408834514</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001637188042370944</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001205694686960599</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>3.217740651990156E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.107232603367771E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5287,40 +5287,40 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4.339117002450633E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0001156183204471721</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.000345699004117305</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0002892122870558869</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0001507502750439719</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0004798420554033054</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0007636859051847199</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00060681785728897</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0002266561574011899</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001413822124571061</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.453468198178601E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>4.588298459431394E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5332,358 +5332,358 @@
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.051169121545666E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002355027595741497</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0002366536918856815</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0004831801423116575</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0004333396165515354</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0004981957601809113</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0007079571996206985</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0002350124886202507</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1478644139407902</v>
+        <v>0.3851367522066793</v>
       </c>
       <c r="CO6">
-        <v>0.007223490260770806</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.125928065105503</v>
+        <v>0.3133700010836206</v>
       </c>
       <c r="CQ6">
-        <v>0.006047320536521008</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02079121564915208</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0002319583857181216</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0009379940108546655</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002019015102520299</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02045613463755231</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0008161564135149573</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.04366941979469737</v>
+        <v>0.04425339603382317</v>
       </c>
       <c r="CY6">
-        <v>0.02417520668374473</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.001346648595011082</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.002757221141944369</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.002770529717720329</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.06736420041272106</v>
+        <v>0.1217730159257961</v>
       </c>
       <c r="DD6">
-        <v>0.04453634798426283</v>
+        <v>0.04708963008942067</v>
       </c>
       <c r="DE6">
-        <v>0.004446953939854118</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01320525302860513</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.009533098942116222</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0211305209668476</v>
+        <v>0</v>
       </c>
       <c r="DI6">
         <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.009073178621728078</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0006123326386076197</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.03757812127269371</v>
+        <v>0.02432516147084604</v>
       </c>
       <c r="DM6">
-        <v>0.01326400407431258</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.008333690706561378</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01027090618692911</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003249688533855706</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.002682092662661101</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.00393005979968023</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.004787940330218318</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.001095211459153892</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001411010525000869</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001137365306789848</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001895470040656687</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003538239920176615</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001548806484635944</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.004719713361308347</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001857521992632639</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01745856703200466</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02516329601843377</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003883961958831588</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0003372172110072003</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003850821696165409</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.00596520837405301</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.006922638700886224</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0001319626133358722</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0005161702329077063</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.003937038956822716</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.007211493734352444</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>6.994665575951102E-05</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.007685229547248039</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.007824064686182668</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0004363802117320299</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0007001396685862796</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.00170335845613598</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0001197039687242696</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0007919191555544142</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0002834745528962263</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>2.166449059913332E-05</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.002586319697751731</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01152242777579167</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.006913398534195343</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0110298047886058</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.04972110840654317</v>
+        <v>0.06405204318981425</v>
       </c>
       <c r="FB6">
-        <v>0.0128422674578814</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.006525606731711465</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006204465427334106</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0006319671731092017</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.004966809117443701</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>3.342727610334448E-06</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.004260359299094468</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.005649916627252389</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
         <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001142802714913417</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01148711559419265</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01155779477279121</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001395890727696997</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0007625476558493472</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0002397348806361818</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.005234271057896419</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.007402604359485892</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002965220039955061</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0008844590176197845</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0009828865565954714</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0007071405004421859</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0009130987669303502</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001996451574982124</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.00572756681611739</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.004246094420881403</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.000200955871371612</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001983023511690886</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.003594581099835163</v>
+        <v>0</v>
       </c>
       <c r="GD6">
         <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0005281645868257896</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>9.482004996343961E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001668600865580108</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.006599978456731292</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001927554952977261</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001924438320287043</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.00554245601316323</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001004141856767278</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0001338494398850277</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000489974707335631</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.005843986479384629</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0002580815046721413</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0007259377372441026</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0006093582745119836</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>6.847199676769261E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6651,595 +6651,595 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.634161613711461E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001646038437327689</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003766530445712703</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0006800114513152029</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001053461701716558</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001473445704597476</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00198730508829776</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002448033006113036</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002871292973963321</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.003124398652464393</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003308421570252866</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003412578020562602</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.003513751461561351</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.003525496996518531</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003525496996518531</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003525496996518531</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003525496996518531</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003548613643046176</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003751896495717613</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004034526526205691</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004300316646857346</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.004833611470411507</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005574270361754123</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.00624365911839006</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.007093003448967751</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.007996517189013315</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.008773205418334762</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.009399563024198187</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.009691613489859115</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.009752773422161987</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.009752773422161987</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.009752773422161987</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.009752773422161987</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.009789958640803722</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01004728122180336</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01041887097016428</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01107545171873607</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01192036848433975</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01298488859967739</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01428309309941132</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01552648277095414</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01663062662500711</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01764240836442277</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01836795587614272</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.01877688671884597</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.01889836526356119</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01890230576490372</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01890230576490372</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.01890230576490372</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01898407076991831</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01939035541502942</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0199591484600934</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.02079856851535951</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02180044500124776</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02290961615644259</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0239390665601074</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.02503390285839212</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.02634087211189422</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.02756147106231484</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02840810324975158</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.02914876214109419</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0296596880932159</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03002013977461298</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.03014356014580289</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.03014356014580289</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03014356014580289</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03019298572210481</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.03032124794970046</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.03058334938816763</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.03102918753771409</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.03171738929298865</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.03253011184530822</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0336923615484909</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0348057475677756</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03606764659578966</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0373350146138012</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.03850673575273877</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.03944512307321207</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03997703434199726</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.04025587836133095</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.04031548440055362</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.04031548440055362</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.04031548440055362</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.04032815885450156</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.04053967098510306</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.04102098834446631</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.04166551180466151</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.04250943606705054</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0450543148796521</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.1020721783223726</v>
+        <v>0.1071635553721813</v>
       </c>
       <c r="CP2">
-        <v>0.1034420917192404</v>
+        <v>0.1071635553721813</v>
       </c>
       <c r="CQ2">
-        <v>0.2529511434528</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CR2">
-        <v>0.281782066966472</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CS2">
-        <v>0.2862075883065846</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CT2">
-        <v>0.2862075883065846</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CU2">
-        <v>0.2862075883065846</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CV2">
-        <v>0.2908206990511324</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CW2">
-        <v>0.3160641080168957</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CX2">
-        <v>0.3201918410554246</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="CY2">
-        <v>0.3716177015811475</v>
+        <v>0.669039207855985</v>
       </c>
       <c r="CZ2">
-        <v>0.4128162400047303</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="DA2">
-        <v>0.4167896366439701</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="DB2">
-        <v>0.4263259698039811</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="DC2">
-        <v>0.4269825505525529</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="DD2">
-        <v>0.4557724778326214</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="DE2">
-        <v>0.500773014791306</v>
+        <v>0.7720351525460655</v>
       </c>
       <c r="DF2">
-        <v>0.5041379872015291</v>
+        <v>0.7720351525460655</v>
       </c>
       <c r="DG2">
-        <v>0.5472826912866405</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DH2">
-        <v>0.5472826912866405</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DI2">
-        <v>0.5677136140868779</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DJ2">
-        <v>0.5679485620545909</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DK2">
-        <v>0.5839827967270778</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DL2">
-        <v>0.5914006357412355</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="DM2">
-        <v>0.6226538759975668</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DN2">
-        <v>0.6511729330711477</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DO2">
-        <v>0.6542061512361522</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DP2">
-        <v>0.6640521101003534</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DQ2">
-        <v>0.6652556690640598</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DR2">
-        <v>0.6656416271617985</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DS2">
-        <v>0.6656416271617985</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DT2">
-        <v>0.6669743880373111</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DU2">
-        <v>0.6669743880373111</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DV2">
-        <v>0.6669743880373111</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DW2">
-        <v>0.6670234828101543</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DX2">
-        <v>0.6671287654308156</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DY2">
-        <v>0.6681180583757839</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="DZ2">
-        <v>0.6681180583757839</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="EA2">
-        <v>0.668594588199306</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="EB2">
-        <v>0.6718286273621743</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="EC2">
-        <v>0.6849787094909847</v>
+        <v>0.8278331187226527</v>
       </c>
       <c r="ED2">
-        <v>0.7171350081936416</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EE2">
-        <v>0.723140633320694</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EF2">
-        <v>0.7238967208366728</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EG2">
-        <v>0.7266902336423533</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EH2">
-        <v>0.7281938810803131</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EI2">
-        <v>0.7319911085503197</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EJ2">
-        <v>0.7321839840046351</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EK2">
-        <v>0.7382133408508856</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EL2">
-        <v>0.7382133408508856</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EM2">
-        <v>0.7400822707243846</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EN2">
-        <v>0.7410667067065223</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EO2">
-        <v>0.7519371728110883</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EP2">
-        <v>0.762826559788496</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EQ2">
-        <v>0.76462751841931</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="ER2">
-        <v>0.76462751841931</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="ES2">
-        <v>0.7655944670748439</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="ET2">
-        <v>0.7655944670748439</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EU2">
-        <v>0.7657915931562217</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EV2">
-        <v>0.7659579596805778</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EW2">
-        <v>0.7659579596805778</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EX2">
-        <v>0.7659735601793956</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EY2">
-        <v>0.7691012930993546</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="EZ2">
-        <v>0.7741161516956065</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="FA2">
-        <v>0.783690623280587</v>
+        <v>0.83556420492268</v>
       </c>
       <c r="FB2">
-        <v>0.8497370267231827</v>
+        <v>0.9788369124980009</v>
       </c>
       <c r="FC2">
-        <v>0.8852517914554765</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8857635037086179</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8905156517878646</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8918539147522883</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9003813097752218</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9014246808957319</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9045677368971757</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9103227205013128</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9109242812992496</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.91100059534712</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9246230544736249</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9421799168714813</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9451200465621541</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9468951390984021</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9513712546506706</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9517390739988586</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9571497421182594</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9602654128051871</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9602654128051871</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9603028519066233</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9603275258065782</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9607376853859005</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.961707522123465</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.966956674608497</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9708631901500614</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9722331035469293</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.972423633468936</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9757797975317</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9758068645335607</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9773572314916524</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9787453910682643</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9789880818103337</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9840567536899076</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9850142006362901</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.985162326541116</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9885981766419153</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9894260285764374</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9894260285764374</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9906434036119484</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9977846622515617</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9982244058113711</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9993961269503087</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,598 +7418,598 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001762789496613614</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003356284458251864</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0005119073954865478</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005119073954865478</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0005119073954865478</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0005781878111302542</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005781878111302542</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006570744486851445</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000956572071065374</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001053998780983973</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001115385260717985</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001360054141779641</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001785018902944779</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002278544744019004</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002759831907136459</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003049892127309357</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003394132020740148</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003645302134878802</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003687679929530328</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0038947756771422</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004234880683363355</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004502186537131108</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004788387449574919</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.005202538146639933</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005442217836000552</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.005601567332164377</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.005759729958991816</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0058602882207733</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0058602882207733</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005894408783456924</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.005906140325089742</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.005998834505307708</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.005998834505307708</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.006019485284378575</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.00628623688028324</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.006477424839850888</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.006604611389216202</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.006879530779334011</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.007073324074926358</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.007149698100465219</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.007149698100465219</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.007149698100465219</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.007217885323166615</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.00732120134441693</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.007391257934173827</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.007430601984790747</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.007430601984790747</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.007433111797667852</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.007473246888590705</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.007473246888590705</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.007605620888494727</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.007644087883008419</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.007698588055647782</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.007815594681583006</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01076933129692747</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1178641554974768</v>
+        <v>0.2629956791522012</v>
       </c>
       <c r="CP3">
-        <v>0.1257437830532445</v>
+        <v>0.2629956791522012</v>
       </c>
       <c r="CQ3">
-        <v>0.2702124387714464</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CR3">
-        <v>0.2803275777676657</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CS3">
-        <v>0.2953950350756954</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CT3">
-        <v>0.2953950350756954</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CU3">
-        <v>0.295586223035263</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CV3">
-        <v>0.2975918818623218</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CW3">
-        <v>0.3250263557226716</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CX3">
-        <v>0.326264404474651</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="CY3">
-        <v>0.3790344032530171</v>
+        <v>0.7309326216812313</v>
       </c>
       <c r="CZ3">
-        <v>0.4104513469551488</v>
+        <v>0.7347437855065863</v>
       </c>
       <c r="DA3">
-        <v>0.4120659555421884</v>
+        <v>0.7347437855065863</v>
       </c>
       <c r="DB3">
-        <v>0.4171963461159641</v>
+        <v>0.7347437855065863</v>
       </c>
       <c r="DC3">
-        <v>0.4177073288618839</v>
+        <v>0.7347437855065863</v>
       </c>
       <c r="DD3">
-        <v>0.4691137175935007</v>
+        <v>0.8070155693638152</v>
       </c>
       <c r="DE3">
-        <v>0.5139814150170949</v>
+        <v>0.8568933917836976</v>
       </c>
       <c r="DF3">
-        <v>0.5197549472546673</v>
+        <v>0.8568933917836976</v>
       </c>
       <c r="DG3">
-        <v>0.5508527901320778</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DH3">
-        <v>0.5529130550554867</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DI3">
-        <v>0.5743360023581469</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DJ3">
-        <v>0.5743360023581469</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DK3">
-        <v>0.5949393457827409</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DL3">
-        <v>0.597737433547894</v>
+        <v>0.8596116868335127</v>
       </c>
       <c r="DM3">
-        <v>0.6326856975972051</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DN3">
-        <v>0.648484873011323</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DO3">
-        <v>0.6580938590279812</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DP3">
-        <v>0.669343466548217</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DQ3">
-        <v>0.6715970328762769</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DR3">
-        <v>0.6727731040947426</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DS3">
-        <v>0.6741864675558119</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DT3">
-        <v>0.6766432052913721</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DU3">
-        <v>0.6766432052913721</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DV3">
-        <v>0.6766432052913721</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DW3">
-        <v>0.6766432052913721</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DX3">
-        <v>0.6766695420289903</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DY3">
-        <v>0.6770705603997044</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="DZ3">
-        <v>0.6770705603997044</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="EA3">
-        <v>0.6775795711400991</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="EB3">
-        <v>0.6782725937795543</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="EC3">
-        <v>0.7005073663111915</v>
+        <v>0.8755170523809505</v>
       </c>
       <c r="ED3">
-        <v>0.7316605235764732</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EE3">
-        <v>0.7363387356378962</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EF3">
-        <v>0.7368583944485918</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EG3">
-        <v>0.7380108736046552</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EH3">
-        <v>0.7409503506974173</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EI3">
-        <v>0.7453108428696611</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EJ3">
-        <v>0.7454492249822671</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EK3">
-        <v>0.7491958175806039</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EL3">
-        <v>0.7497068003265238</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EM3">
-        <v>0.7525369586891706</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EN3">
-        <v>0.753838174304893</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EO3">
-        <v>0.7668154662713149</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EP3">
-        <v>0.778848325321264</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EQ3">
-        <v>0.7813011755551633</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="ER3">
-        <v>0.7813011755551633</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="ES3">
-        <v>0.7817279656303654</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="ET3">
-        <v>0.7823409872184985</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EU3">
-        <v>0.7836155611889517</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EV3">
-        <v>0.7842865865662926</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EW3">
-        <v>0.7843954256106844</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EX3">
-        <v>0.785910901133122</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EY3">
-        <v>0.793602913465583</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="EZ3">
-        <v>0.7998137462452573</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="FA3">
-        <v>0.8113672912374204</v>
+        <v>0.8784247902734638</v>
       </c>
       <c r="FB3">
-        <v>0.8771695198069025</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9045783710138738</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9064329088470796</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9102788716874195</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9131985790007187</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9248300178313568</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.926927351496344</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9288102898548786</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9323992941724275</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9324837515217823</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9324837515217823</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9419387484399027</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9525534279056941</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9534125033855881</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9539359432111655</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.955021624319503</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9572308443473226</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.961948206478225</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9636206710591271</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9636206710591271</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9636206710591271</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9636206710591271</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9636206710591271</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9639461751430121</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.965719146736338</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9673701331920996</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9673701331920996</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9691897422477149</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9745189869319031</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9746502438687826</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9751896688334284</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9755008319482951</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9764709768758967</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9826593665161464</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9835695538677233</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9836872790237087</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9858582889823204</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9860320483524998</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9860320483524998</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9884825158750885</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9989146705198184</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.99970050237762</v>
+        <v>1</v>
       </c>
       <c r="GR3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.131391500186956E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.131391500186956E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.301378594744837E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001016084112986416</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001068574822328612</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001913418659662383</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0003221555527631353</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003573117422797498</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0004286249302634231</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0007431781565427754</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001088729285806077</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001088729285806077</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001180625105897556</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001180625105897556</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001301493902916707</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001346595037315458</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001346595037315458</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001346595037315458</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001375879388115384</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001375879388115384</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001421878891400282</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00142275779641372</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.00142275779641372</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001442858363288493</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001619072026616041</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001737312434367373</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001829715670717322</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002075479300750497</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002469823754964621</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002791559628179285</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002867649735644989</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002878525468829196</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003014690743770757</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00313838869038169</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.003156191156693496</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003235573180424477</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003335212554042784</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.003335212554042784</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003336612608831713</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003349270839811748</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.00339493260127247</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003479416985005847</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.00379896244866933</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.004241704808745255</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.004548617701038729</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004868163164702213</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.005207120322227064</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005777972766346289</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00676757595940255</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.007593155222581166</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.007826314745166898</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.007884819157976914</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.007917315270195336</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00793057574507703</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0079380415694688</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.007947009889214743</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.008005888881635097</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.008161473274502307</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.008479108148710824</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.008989794643375182</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.009821041142667641</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01085702690369342</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01158536620374003</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0121603386127948</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01290582284250398</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01327925094240095</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01352622007616203</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01375230922450386</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01384471246085381</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01384471246085381</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01386211882478215</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01386211882478215</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01393388541169289</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01398277757488465</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01412793785011626</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01458738424461489</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01484050473160998</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01502474884797194</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01561081953179769</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01632099803770984</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01686318297358675</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01703946511664353</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01740662905960914</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01803065810243168</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01830452661485866</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01831815221343724</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01836232526666235</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01847527742626144</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01851439867325413</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01862701708058693</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.05367634372525821</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="CO4">
-        <v>0.07290050288852766</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="CP4">
-        <v>0.1677138185069134</v>
+        <v>0.2667407791992288</v>
       </c>
       <c r="CQ4">
-        <v>0.2547947116854011</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CR4">
-        <v>0.2548401488674145</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CS4">
-        <v>0.2548649701803554</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CT4">
-        <v>0.2549392068967237</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CU4">
-        <v>0.264062001854282</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CV4">
-        <v>0.2781026502817487</v>
+        <v>0.4847934779523515</v>
       </c>
       <c r="CW4">
-        <v>0.3088737291369961</v>
+        <v>0.4875623285666597</v>
       </c>
       <c r="CX4">
-        <v>0.33201317749441</v>
+        <v>0.4875623285666597</v>
       </c>
       <c r="CY4">
-        <v>0.3845742897802064</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="CZ4">
-        <v>0.3894444599890892</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="DA4">
-        <v>0.3919454893550235</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="DB4">
-        <v>0.3984862293212479</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="DC4">
-        <v>0.4131766837528756</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="DD4">
-        <v>0.4831395582494354</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DE4">
-        <v>0.4871515802669772</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DF4">
-        <v>0.5155117598713985</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DG4">
-        <v>0.5219735337428353</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DH4">
-        <v>0.5337844912037031</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DI4">
-        <v>0.540243842485743</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DJ4">
-        <v>0.5517167745852974</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DK4">
-        <v>0.5750628443700531</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DL4">
-        <v>0.5830255456252733</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="DM4">
-        <v>0.6198290424013359</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DN4">
-        <v>0.6199403302480306</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DO4">
-        <v>0.6375436648922309</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DP4">
-        <v>0.6424683275325541</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DQ4">
-        <v>0.644105661899175</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DR4">
-        <v>0.6457624038318374</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DS4">
-        <v>0.6484935533415035</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DT4">
-        <v>0.6491087670544068</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DU4">
-        <v>0.6492178534406153</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DV4">
-        <v>0.6493715056731634</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DW4">
-        <v>0.6493878954302134</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DX4">
-        <v>0.6495187091170103</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DY4">
-        <v>0.6495187091170103</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="DZ4">
-        <v>0.6495446059714763</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="EA4">
-        <v>0.6508167548241029</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="EB4">
-        <v>0.6581644513032335</v>
+        <v>0.7520779470900621</v>
       </c>
       <c r="EC4">
-        <v>0.6990977777026816</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="ED4">
-        <v>0.7159037828716086</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EE4">
-        <v>0.7159798729790743</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EF4">
-        <v>0.7172314391394792</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EG4">
-        <v>0.7176576751396104</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EH4">
-        <v>0.7232125702035521</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EI4">
-        <v>0.7239740016038676</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EJ4">
-        <v>0.7274827753588656</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EK4">
-        <v>0.7277258169922995</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EL4">
-        <v>0.7300318631785976</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EM4">
-        <v>0.7301301922820165</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EN4">
-        <v>0.7380396586881829</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EO4">
-        <v>0.7562441371500243</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EP4">
-        <v>0.7633256691022965</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EQ4">
-        <v>0.7645647882829194</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="ER4">
-        <v>0.7649910242830507</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="ES4">
-        <v>0.7649910242830507</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="ET4">
-        <v>0.7673021454835467</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EU4">
-        <v>0.7696986630604715</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EV4">
-        <v>0.7702443918198313</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EW4">
-        <v>0.7705625719970717</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EX4">
-        <v>0.7745844670182088</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EY4">
-        <v>0.7866455403029841</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="EZ4">
-        <v>0.7869299918641285</v>
+        <v>0.7936991324767086</v>
       </c>
       <c r="FA4">
-        <v>0.8345270902328364</v>
+        <v>0.8607972705030259</v>
       </c>
       <c r="FB4">
-        <v>0.9009839228206568</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.903935855385707</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.90942394028327</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9094483182713683</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9211531166225126</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9275721652544887</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9278228488950783</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9313689332319124</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9324262902790863</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9328106053033683</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9363941970949983</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9496322640978047</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9541699817025052</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.955010131267926</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9580434619350021</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9580563601195545</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9622437116845389</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9655497828360856</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9655497828360856</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9655497828360856</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9655585545213237</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9655585545213237</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9655585545213237</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.967355185362045</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9691603587859894</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9706706910575612</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9708991770665589</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9744288207579391</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9762086392490436</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9762417598402863</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.977255145086491</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9773412960534296</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9802716910172613</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9834990501553565</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9837754613346573</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9854786221039973</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9863767993380754</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9864542927139179</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9871082379304771</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9939879475468927</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9996898071230449</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9996898071230449</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9998254266841764</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003909305867031149</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0004954347418255932</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0004954347418255932</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004954347418255932</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004954347418255932</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0005459114661567637</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0006020454011812513</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008227021724545255</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001130108761262751</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001594426156958238</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002242100100476941</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003113285897195567</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.003809995724235106</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.004299122877257535</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.004927272217494488</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.005367362084303464</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.005515942433953942</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005632626784638357</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.005695853056455496</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.005695853056455496</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005695853056455496</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.005695853056455496</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.005810720738557489</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.00597246444010721</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.006031901161222035</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.006330341072796876</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00659081790591144</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00659081790591144</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.006598171563329473</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.00698206528519184</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.007327307156062505</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00739342045688749</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00739342045688749</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.007515171070929677</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.007615504496154051</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.007796541053964334</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.007920145351527925</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.008083944593148791</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.008102862711499154</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.008408906872032587</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.008646445704884613</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.008902635303883367</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.009044481982215918</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.009156835201569536</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.009167530120229994</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.009288601982415351</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.009288601982415351</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.009288601982415351</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.009288601982415351</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.009288601982415351</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.009365911116552966</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.009480778798654959</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.009696764139313809</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.009749964388141142</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.009773423553295236</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.00990673733960898</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00999095147539005</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01004362377695383</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01004362377695383</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01004362377695383</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01011872072355634</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01025329320953043</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01042419416277446</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01069099687721669</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0107053489889078</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0107053489889078</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01072087757219796</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01084543627594587</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01086418295296625</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01095548179650675</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01103580698214467</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01439792899146416</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1016890179600714</v>
+        <v>0.2101551531972619</v>
       </c>
       <c r="CO5">
-        <v>0.1416649992809747</v>
+        <v>0.2460738084754726</v>
       </c>
       <c r="CP5">
-        <v>0.2445721036915496</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CQ5">
-        <v>0.2445721036915496</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CR5">
-        <v>0.253618286958266</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CS5">
-        <v>0.253722146974738</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CT5">
-        <v>0.2631449925651927</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CU5">
-        <v>0.2633169686772819</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CV5">
-        <v>0.2895441656663845</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CW5">
-        <v>0.2974676085343188</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="CX5">
-        <v>0.3618363034571629</v>
+        <v>0.6394785896860592</v>
       </c>
       <c r="CY5">
-        <v>0.3777590601272554</v>
+        <v>0.6394785896860592</v>
       </c>
       <c r="CZ5">
-        <v>0.3798482026617392</v>
+        <v>0.6394785896860592</v>
       </c>
       <c r="DA5">
-        <v>0.3858930727919378</v>
+        <v>0.6394785896860592</v>
       </c>
       <c r="DB5">
-        <v>0.3915816408331008</v>
+        <v>0.6394785896860592</v>
       </c>
       <c r="DC5">
-        <v>0.4599727041678399</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DD5">
-        <v>0.4889915722951295</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DE5">
-        <v>0.500497235787036</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DF5">
-        <v>0.5137864320234036</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DG5">
-        <v>0.5263728661400395</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DH5">
-        <v>0.5542261017484138</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DI5">
-        <v>0.5544090270469696</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DJ5">
-        <v>0.5731004930798512</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DK5">
-        <v>0.5741153018350197</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="DL5">
-        <v>0.6264835163940834</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DM5">
-        <v>0.6346918269589963</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DN5">
-        <v>0.6435084530196172</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DO5">
-        <v>0.649304995595505</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DP5">
-        <v>0.6517795851442076</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DQ5">
-        <v>0.6525703799124932</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DR5">
-        <v>0.6546098805497892</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DS5">
-        <v>0.6569512715176437</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DT5">
-        <v>0.6577420662859292</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DU5">
-        <v>0.6578793172790487</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DV5">
-        <v>0.6588677785221296</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DW5">
-        <v>0.6603326131495504</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DX5">
-        <v>0.661098532940348</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DY5">
-        <v>0.6617180484451544</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="DZ5">
-        <v>0.66708449468622</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EA5">
-        <v>0.66708449468622</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EB5">
-        <v>0.6928858109868363</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EC5">
-        <v>0.7097053907864996</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="ED5">
-        <v>0.7100738297016578</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EE5">
-        <v>0.7118256688617522</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EF5">
-        <v>0.7121694783109956</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EG5">
-        <v>0.7168212967628359</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EH5">
-        <v>0.7190329253431009</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EI5">
-        <v>0.7199998415303269</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EJ5">
-        <v>0.7215768827876499</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EK5">
-        <v>0.7236415179611158</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EL5">
-        <v>0.7255747641281224</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EM5">
-        <v>0.7271702466559178</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EN5">
-        <v>0.7367501312533102</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EO5">
-        <v>0.7419501803075951</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EP5">
-        <v>0.7425084023531244</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EQ5">
-        <v>0.7434652778849556</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="ER5">
-        <v>0.7456450733149569</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="ES5">
-        <v>0.7456504135504202</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="ET5">
-        <v>0.7460438709718223</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EU5">
-        <v>0.7464026069071278</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EV5">
-        <v>0.7464026069071278</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EW5">
-        <v>0.7482264437564149</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EX5">
-        <v>0.759516563849686</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EY5">
-        <v>0.7617192449665792</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="EZ5">
-        <v>0.7882309927854075</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="FA5">
-        <v>0.8560398367618997</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8657729488770112</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8736301407562168</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8763756019551502</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8805111866359193</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8859927104856603</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8861905655095899</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8935483239396614</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9002563030784456</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9002563030784456</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9022315999518415</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9185232052414047</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9276519213270843</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9279644142306908</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9294032113511836</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9302723217783996</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9354252923310254</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9444597000436803</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9468208995541126</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9470687280253446</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9474167706091706</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9483584704196719</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9498844755638938</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9530803201703271</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9573393950835126</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9620688311781083</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.962812174974343</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9636791033567781</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9660735782680411</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9660735782680411</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.967453571486643</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.967893661353452</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9718909766691067</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9789504209284007</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9800524315515966</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9834341983214712</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9900753076721652</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9916167345639473</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9917365942070636</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9928531915216036</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9955316458924055</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9963092657845115</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9982640997945434</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9998654275140254</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.909832019574298E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002004668687153289</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003505848958890979</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000411261956631048</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0007976477873402255</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001524697291543629</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001702998541233473</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001763675601975423</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002054149407641705</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.002523433061405463</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002565015267894243</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002565015267894243</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002565015267894243</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.002587828711415766</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002587828711415766</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002687505818238746</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.002747125967653411</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002747125967653411</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002778745657143658</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002937906304351102</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.003198499842932442</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00351703903309047</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.003817386651361997</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004129807919811748</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.004473359246478484</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004866622740347262</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.005351401390259168</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.005409244177970851</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.005478485018563715</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.005665805403156914</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.005746636985336155</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005746636985336155</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.005746636985336155</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.005746636985336155</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.005776547167548766</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.005879658373722931</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.006279582773559238</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.006613976237098859</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.006881310822769089</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.007346402053890243</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.007827306069672406</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.008374507512034458</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.008583395010936561</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.008865505555510212</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.009181293716612738</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.009290449743883983</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.009290449743883983</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.009319812366511526</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.009319812366511526</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.00937633372590029</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.009466275335969047</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.009495871285126427</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.009613279464182114</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.00969535496369635</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.009928563391993307</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01057529098459422</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01080318454182957</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01084502266482793</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01097647040565583</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01112953144653928</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01129325025077638</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01141381971947244</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01144599712599234</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01144910435859571</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01144910435859571</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01144910435859571</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01144910435859571</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01149249552862021</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01160811384906739</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01195381285318469</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01224302514024058</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01239377541528455</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01287361747068785</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01363730337587257</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01424412123316154</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01447077739056273</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01461215960301984</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01467669428500163</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01468128258346106</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01468128258346106</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01468128258346106</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01468128258346106</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01471179427467651</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01494729703425066</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01518395072613635</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01566713086844801</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01610047048499954</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01659866624518045</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01730662344480115</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0175416359334214</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1654060498742116</v>
+        <v>0.3851367522066793</v>
       </c>
       <c r="CO6">
-        <v>0.1726295401349824</v>
+        <v>0.3851367522066793</v>
       </c>
       <c r="CP6">
-        <v>0.2985576052404854</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CQ6">
-        <v>0.3046049257770064</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CR6">
-        <v>0.3253961414261585</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CS6">
-        <v>0.3256280998118766</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CT6">
-        <v>0.3265660938227312</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CU6">
-        <v>0.3285851089252515</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CV6">
-        <v>0.3490412435628038</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CW6">
-        <v>0.3498573999763188</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="CX6">
-        <v>0.3935268197710161</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="CY6">
-        <v>0.4177020264547608</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="CZ6">
-        <v>0.4190486750497719</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="DA6">
-        <v>0.4218058961917163</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="DB6">
-        <v>0.4245764259094367</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="DC6">
-        <v>0.4919406263221577</v>
+        <v>0.8645331652499191</v>
       </c>
       <c r="DD6">
-        <v>0.5364769743064206</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DE6">
-        <v>0.5409239282462748</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DF6">
-        <v>0.5541291812748799</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DG6">
-        <v>0.563662280216996</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DH6">
-        <v>0.5847928011838437</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DI6">
-        <v>0.5847928011838437</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DJ6">
-        <v>0.5938659798055718</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DK6">
-        <v>0.5944783124441794</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="DL6">
-        <v>0.632056433716873</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DM6">
-        <v>0.6453204377911856</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DN6">
-        <v>0.6536541284977471</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DO6">
-        <v>0.6639250346846762</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DP6">
-        <v>0.6671747232185319</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DQ6">
-        <v>0.6698568158811929</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DR6">
-        <v>0.6737868756808731</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DS6">
-        <v>0.6785748160110915</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DT6">
-        <v>0.6796700274702454</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DU6">
-        <v>0.6810810379952463</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DV6">
-        <v>0.6822184033020362</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DW6">
-        <v>0.6841138733426929</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DX6">
-        <v>0.6876521132628696</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DY6">
-        <v>0.6892009197475055</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="DZ6">
-        <v>0.6939206331088139</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EA6">
-        <v>0.6957781551014466</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EB6">
-        <v>0.7132367221334512</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EC6">
-        <v>0.7384000181518851</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="ED6">
-        <v>0.7422839801107166</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EE6">
-        <v>0.7426211973217238</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EF6">
-        <v>0.7430062794913403</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EG6">
-        <v>0.7489714878653934</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EH6">
-        <v>0.7558941265662796</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EI6">
-        <v>0.7560260891796156</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EJ6">
-        <v>0.7565422594125233</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EK6">
-        <v>0.760479298369346</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EL6">
-        <v>0.7676907921036985</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EM6">
-        <v>0.7677607387594581</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EN6">
-        <v>0.7754459683067061</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EO6">
-        <v>0.7832700329928888</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EP6">
-        <v>0.7837064132046208</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EQ6">
-        <v>0.784406552873207</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="ER6">
-        <v>0.786109911329343</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="ES6">
-        <v>0.7862296152980673</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="ET6">
-        <v>0.7870215344536218</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EU6">
-        <v>0.787305009006518</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EV6">
-        <v>0.7873266734971172</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EW6">
-        <v>0.7899129931948689</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EX6">
-        <v>0.8014354209706606</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EY6">
-        <v>0.8083488195048559</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="EZ6">
-        <v>0.8193786242934618</v>
+        <v>0.9359479568101858</v>
       </c>
       <c r="FA6">
-        <v>0.869099732700005</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8819420001578864</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8884676068895978</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8946720723169319</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8953040394900411</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9002708486074849</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9002741913350952</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9045345506341897</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9101844672614421</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9101844672614421</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9102987475329334</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9217858631271261</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9333436578999172</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9347395486276142</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9355020962834636</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9357418311640998</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9409761022219962</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9483787065814822</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9513439266214372</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.952228385639057</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9532112721956525</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9539184126960947</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.954831511463025</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9568279630380071</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9625555298541245</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9668016242750059</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9670025801463775</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9689856036580684</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9725801847579035</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9725801847579035</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9731083493447293</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9732031693946928</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9748717702602728</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9814717487170042</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9833993036699814</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9853237419902684</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9908661980034317</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9918703398601989</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9920041893000839</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9924941640074195</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9983381504868042</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9985962319914763</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9993221697287203</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999315280032324</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.04250943606705054</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.500773014791306</v>
+        <v>0.5842405624751261</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5139814150170949</v>
+        <v>0.6539906936982174</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10652,16 +10652,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.05367634372525821</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="F4">
-        <v>0.5155117598713985</v>
+        <v>0.5736388992361896</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01103580698214467</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.500497235787036</v>
+        <v>0.5137344811004244</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01730662344480115</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5364769743064206</v>
+        <v>0.6985067532902999</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.04250943606705054</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7171350081936416</v>
+        <v>0.7129342375446267</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7005073663111915</v>
+        <v>0.7309326216812313</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -10911,16 +10911,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05367634372525821</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="F4">
-        <v>0.7159037828716086</v>
+        <v>0.726245938495518</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.01103580698214467</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7097053907864996</v>
+        <v>0.780034952121925</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01730662344480115</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7132367221334512</v>
+        <v>0.742760149324123</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>0.04250943606705054</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8497370267231827</v>
+        <v>0.8237137654148927</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8113672912374204</v>
+        <v>0.8070155693638152</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11173,10 +11173,10 @@
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.05367634372525821</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="F4">
-        <v>0.8345270902328364</v>
+        <v>0.8607972705030259</v>
       </c>
       <c r="G4">
         <v>65</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E5">
-        <v>0.01103580698214467</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8560398367618997</v>
+        <v>0.8615876432960237</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01730662344480115</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8014354209706606</v>
+        <v>0.8645331652499191</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04250943606705054</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9003813097752218</v>
+        <v>0.9788369124980009</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
-        <v>0.007818528223735636</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9045783710138738</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -11432,10 +11432,10 @@
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.05367634372525821</v>
+        <v>0.01912546017638996</v>
       </c>
       <c r="F4">
-        <v>0.9009839228206568</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>66</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E5">
-        <v>0.01103580698214467</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9002563030784456</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01730662344480115</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9002708486074849</v>
+        <v>0.9116227953393398</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>13</v>

--- a/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1174928097343773</v>
+        <v>0.1028497323114776</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4007450648904041</v>
+        <v>0.2899831394617873</v>
       </c>
       <c r="H2">
-        <v>0.03117091844518038</v>
+        <v>0.04582032006652317</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -701,64 +701,64 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0201842330659763</v>
+        <v>0.03856185757990877</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.100367422263974</v>
+        <v>0.09153567550250181</v>
       </c>
       <c r="P2">
-        <v>0.06904647047201617</v>
+        <v>0.07084317855912853</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.006782412789385388</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03104536837024174</v>
+        <v>0.0457373741663103</v>
       </c>
       <c r="U2">
-        <v>0.08069000840323083</v>
+        <v>0.07853559718842361</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.07500656053812911</v>
+        <v>0.07478077107848925</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.005446098715210064</v>
+        <v>0.02882496318315035</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.01992933491058367</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.00249615552674859</v>
       </c>
       <c r="AC2">
-        <v>0.03858921085486321</v>
+        <v>0.05072128840337383</v>
       </c>
       <c r="AD2">
-        <v>0.0302158342463967</v>
+        <v>0.04518933423329349</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.007408865038914417</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.25045686664526</v>
+        <v>0.1914217205644837</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.002427902376293927</v>
       </c>
       <c r="G3">
-        <v>0.3578946603395666</v>
+        <v>0.2626146764594594</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006686300857798767</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01611991161788537</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0214588769308758</v>
+        <v>0.0396776906362315</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.09429039536893397</v>
+        <v>0.08793902309320614</v>
       </c>
       <c r="P3">
-        <v>0.03290720202575033</v>
+        <v>0.04726384887278078</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -832,43 +832,43 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.09037045328825816</v>
+        <v>0.08534149894398117</v>
       </c>
       <c r="U3">
-        <v>0.07157381030959338</v>
+        <v>0.07288602560876692</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03198988937189828</v>
+        <v>0.04665599760311111</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004177663743304915</v>
+        <v>0.02822640700530561</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001821565136687006</v>
+        <v>0.02666515357280841</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04305861683987165</v>
+        <v>0.05399061793869878</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01751375251508335</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.00572213621942104</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.008847336114683968</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05508323658707735</v>
+        <v>0.06052307367567631</v>
       </c>
       <c r="E4">
-        <v>0.001120391222225112</v>
+        <v>0.02721742557947697</v>
       </c>
       <c r="F4">
-        <v>0.2588747540648821</v>
+        <v>0.1863023671917125</v>
       </c>
       <c r="G4">
-        <v>0.2325076703098247</v>
+        <v>0.1700287106242822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.005958094079677929</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0163082086835164</v>
       </c>
       <c r="M4">
-        <v>0.04049467541295227</v>
+        <v>0.05151907321183574</v>
       </c>
       <c r="N4">
-        <v>0.01447128596571509</v>
+        <v>0.03545754336959069</v>
       </c>
       <c r="O4">
-        <v>0.114797345883238</v>
+        <v>0.09737837841635802</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,46 +936,46 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0005239010445985476</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.01767579042511975</v>
       </c>
       <c r="T4">
-        <v>0.1741362820656794</v>
+        <v>0.1340021278412256</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03227365761864076</v>
+        <v>0.04644509455487873</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0003577089984403078</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01161560098858396</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.0003526104167015775</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01090419280003082</v>
       </c>
       <c r="AA4">
-        <v>0.01517585229310501</v>
+        <v>0.03589239883360156</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.003516560828665226</v>
       </c>
       <c r="AC4">
-        <v>0.06106484857666021</v>
+        <v>0.0642149002023556</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.02380623823367147</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1004,40 +1004,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2093222225839033</v>
+        <v>0.1642968845482626</v>
       </c>
       <c r="E5">
-        <v>0.063712363592313</v>
+        <v>0.06820796405707408</v>
       </c>
       <c r="F5">
-        <v>0.2573797230221542</v>
+        <v>0.1960103507283448</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005394815069522233</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006159752060624517</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02140117278270208</v>
+        <v>0.04028652606002871</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.003114720649911007</v>
       </c>
       <c r="N5">
-        <v>0.1387797102513713</v>
+        <v>0.1177454085306885</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0193599637896454</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1049,40 +1049,40 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1511583463020213</v>
+        <v>0.1259141533086707</v>
       </c>
       <c r="T5">
-        <v>0.02999240000359226</v>
+        <v>0.04595593440275315</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01038960027782345</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01401165134345765</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.01258446123855696</v>
       </c>
       <c r="X5">
-        <v>0.02640522467728779</v>
+        <v>0.04358873339655527</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.02498274067953734</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.1018488367846548</v>
+        <v>0.09337447795779091</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.003693238397124065</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.004928623503628911</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3604577062441743</v>
+        <v>0.2757231733162987</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.001237893609258558</v>
       </c>
       <c r="F6">
-        <v>0.2987002825116187</v>
+        <v>0.232910564523255</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002708410275475642</v>
+        <v>0.02771767489035396</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001765056384931572</v>
+        <v>0.02706370588341871</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06711744015849525</v>
+        <v>0.07236847850973403</v>
       </c>
       <c r="O6">
-        <v>0.01223536345258454</v>
+        <v>0.0343221233065886</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1159,43 +1159,43 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1338253785608652</v>
+        <v>0.1186129734643643</v>
       </c>
       <c r="T6">
-        <v>0.06955810391483411</v>
+        <v>0.07406043999841275</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01291234641792868</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.00574549757206565</v>
       </c>
       <c r="X6">
-        <v>0.003663656858987473</v>
+        <v>0.02837988836703474</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.004847882891491517</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04996860163803298</v>
+        <v>0.06048024758204718</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01302700932536793</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.003404643314252138</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.007185457028127709</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1350,85 +1350,85 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1174928097343773</v>
+        <v>0.1028497323114776</v>
       </c>
       <c r="F2">
-        <v>0.1174928097343773</v>
+        <v>0.1028497323114776</v>
       </c>
       <c r="G2">
-        <v>0.5182378746247814</v>
+        <v>0.3928328717732649</v>
       </c>
       <c r="H2">
-        <v>0.5494087930699618</v>
+        <v>0.438653191839788</v>
       </c>
       <c r="I2">
-        <v>0.5494087930699618</v>
+        <v>0.438653191839788</v>
       </c>
       <c r="J2">
-        <v>0.5494087930699618</v>
+        <v>0.438653191839788</v>
       </c>
       <c r="K2">
-        <v>0.5494087930699618</v>
+        <v>0.438653191839788</v>
       </c>
       <c r="L2">
-        <v>0.5494087930699618</v>
+        <v>0.438653191839788</v>
       </c>
       <c r="M2">
-        <v>0.5695930261359381</v>
+        <v>0.4772150494196968</v>
       </c>
       <c r="N2">
-        <v>0.5695930261359381</v>
+        <v>0.4772150494196968</v>
       </c>
       <c r="O2">
-        <v>0.6699604483999121</v>
+        <v>0.5687507249221986</v>
       </c>
       <c r="P2">
-        <v>0.7390069188719283</v>
+        <v>0.6395939034813272</v>
       </c>
       <c r="Q2">
-        <v>0.7390069188719283</v>
+        <v>0.6395939034813272</v>
       </c>
       <c r="R2">
-        <v>0.7390069188719283</v>
+        <v>0.6463763162707126</v>
       </c>
       <c r="S2">
-        <v>0.7390069188719283</v>
+        <v>0.6463763162707126</v>
       </c>
       <c r="T2">
-        <v>0.77005228724217</v>
+        <v>0.6921136904370229</v>
       </c>
       <c r="U2">
-        <v>0.8507422956454008</v>
+        <v>0.7706492876254465</v>
       </c>
       <c r="V2">
-        <v>0.8507422956454008</v>
+        <v>0.7706492876254465</v>
       </c>
       <c r="W2">
-        <v>0.92574885618353</v>
+        <v>0.8454300587039357</v>
       </c>
       <c r="X2">
-        <v>0.92574885618353</v>
+        <v>0.8454300587039357</v>
       </c>
       <c r="Y2">
-        <v>0.93119495489874</v>
+        <v>0.874255021887086</v>
       </c>
       <c r="Z2">
-        <v>0.93119495489874</v>
+        <v>0.874255021887086</v>
       </c>
       <c r="AA2">
-        <v>0.93119495489874</v>
+        <v>0.8941843567976697</v>
       </c>
       <c r="AB2">
-        <v>0.93119495489874</v>
+        <v>0.8966805123244184</v>
       </c>
       <c r="AC2">
-        <v>0.9697841657536033</v>
+        <v>0.9474018007277922</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9925911349610858</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9925911349610858</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.25045686664526</v>
+        <v>0.1914217205644837</v>
       </c>
       <c r="F3">
-        <v>0.25045686664526</v>
+        <v>0.1938496229407776</v>
       </c>
       <c r="G3">
-        <v>0.6083515269848265</v>
+        <v>0.456464299400237</v>
       </c>
       <c r="H3">
-        <v>0.6083515269848265</v>
+        <v>0.4631506002580358</v>
       </c>
       <c r="I3">
-        <v>0.6083515269848265</v>
+        <v>0.4792705118759212</v>
       </c>
       <c r="J3">
-        <v>0.6083515269848265</v>
+        <v>0.4792705118759212</v>
       </c>
       <c r="K3">
-        <v>0.6083515269848265</v>
+        <v>0.4792705118759212</v>
       </c>
       <c r="L3">
-        <v>0.6083515269848265</v>
+        <v>0.4792705118759212</v>
       </c>
       <c r="M3">
-        <v>0.6298104039157023</v>
+        <v>0.5189482025121527</v>
       </c>
       <c r="N3">
-        <v>0.6298104039157023</v>
+        <v>0.5189482025121527</v>
       </c>
       <c r="O3">
-        <v>0.7241007992846362</v>
+        <v>0.6068872256053588</v>
       </c>
       <c r="P3">
-        <v>0.7570080013103866</v>
+        <v>0.6541510744781396</v>
       </c>
       <c r="Q3">
-        <v>0.7570080013103866</v>
+        <v>0.6541510744781396</v>
       </c>
       <c r="R3">
-        <v>0.7570080013103866</v>
+        <v>0.6541510744781396</v>
       </c>
       <c r="S3">
-        <v>0.7570080013103866</v>
+        <v>0.6541510744781396</v>
       </c>
       <c r="T3">
-        <v>0.8473784545986447</v>
+        <v>0.7394925734221207</v>
       </c>
       <c r="U3">
-        <v>0.9189522649082381</v>
+        <v>0.8123785990308876</v>
       </c>
       <c r="V3">
-        <v>0.9189522649082381</v>
+        <v>0.8123785990308876</v>
       </c>
       <c r="W3">
-        <v>0.9509421542801364</v>
+        <v>0.8590345966339987</v>
       </c>
       <c r="X3">
-        <v>0.9509421542801364</v>
+        <v>0.8590345966339987</v>
       </c>
       <c r="Y3">
-        <v>0.9551198180234413</v>
+        <v>0.8872610036393044</v>
       </c>
       <c r="Z3">
-        <v>0.9551198180234413</v>
+        <v>0.8872610036393044</v>
       </c>
       <c r="AA3">
-        <v>0.9569413831601282</v>
+        <v>0.9139261572121128</v>
       </c>
       <c r="AB3">
-        <v>0.9569413831601282</v>
+        <v>0.9139261572121128</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9679167751508115</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9854305276658949</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.991152663885316</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05508323658707735</v>
+        <v>0.06052307367567631</v>
       </c>
       <c r="E4">
-        <v>0.05620362780930246</v>
+        <v>0.08774049925515327</v>
       </c>
       <c r="F4">
-        <v>0.3150783818741846</v>
+        <v>0.2740428664468658</v>
       </c>
       <c r="G4">
-        <v>0.5475860521840092</v>
+        <v>0.444071577071148</v>
       </c>
       <c r="H4">
-        <v>0.5475860521840092</v>
+        <v>0.444071577071148</v>
       </c>
       <c r="I4">
-        <v>0.5475860521840092</v>
+        <v>0.444071577071148</v>
       </c>
       <c r="J4">
-        <v>0.5475860521840092</v>
+        <v>0.444071577071148</v>
       </c>
       <c r="K4">
-        <v>0.5475860521840092</v>
+        <v>0.4500296711508259</v>
       </c>
       <c r="L4">
-        <v>0.5475860521840092</v>
+        <v>0.4663378798343423</v>
       </c>
       <c r="M4">
-        <v>0.5880807275969615</v>
+        <v>0.5178569530461781</v>
       </c>
       <c r="N4">
-        <v>0.6025520135626766</v>
+        <v>0.5533144964157688</v>
       </c>
       <c r="O4">
-        <v>0.7173493594459146</v>
+        <v>0.6506928748321268</v>
       </c>
       <c r="P4">
-        <v>0.7173493594459146</v>
+        <v>0.6506928748321268</v>
       </c>
       <c r="Q4">
-        <v>0.7173493594459146</v>
+        <v>0.6506928748321268</v>
       </c>
       <c r="R4">
-        <v>0.7173493594459146</v>
+        <v>0.6512167758767253</v>
       </c>
       <c r="S4">
-        <v>0.7173493594459146</v>
+        <v>0.6688925663018451</v>
       </c>
       <c r="T4">
-        <v>0.8914856415115939</v>
+        <v>0.8028946941430707</v>
       </c>
       <c r="U4">
-        <v>0.8914856415115939</v>
+        <v>0.8028946941430707</v>
       </c>
       <c r="V4">
-        <v>0.9237592991302347</v>
+        <v>0.8493397886979495</v>
       </c>
       <c r="W4">
-        <v>0.9237592991302347</v>
+        <v>0.8496974976963898</v>
       </c>
       <c r="X4">
-        <v>0.9237592991302347</v>
+        <v>0.8613130986849737</v>
       </c>
       <c r="Y4">
-        <v>0.9237592991302347</v>
+        <v>0.8616657091016753</v>
       </c>
       <c r="Z4">
-        <v>0.9237592991302347</v>
+        <v>0.8725699019017061</v>
       </c>
       <c r="AA4">
-        <v>0.9389351514233397</v>
+        <v>0.9084623007353076</v>
       </c>
       <c r="AB4">
-        <v>0.9389351514233397</v>
+        <v>0.9119788615639729</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9761937617663285</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9761937617663285</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,82 +1677,82 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2093222225839033</v>
+        <v>0.1642968845482626</v>
       </c>
       <c r="E5">
-        <v>0.2730345861762163</v>
+        <v>0.2325048486053366</v>
       </c>
       <c r="F5">
-        <v>0.5304143091983706</v>
+        <v>0.4285151993336814</v>
       </c>
       <c r="G5">
-        <v>0.5304143091983706</v>
+        <v>0.4285151993336814</v>
       </c>
       <c r="H5">
-        <v>0.5304143091983706</v>
+        <v>0.4339100144032036</v>
       </c>
       <c r="I5">
-        <v>0.5304143091983706</v>
+        <v>0.4339100144032036</v>
       </c>
       <c r="J5">
-        <v>0.5304143091983706</v>
+        <v>0.4400697664638282</v>
       </c>
       <c r="K5">
-        <v>0.5304143091983706</v>
+        <v>0.4400697664638282</v>
       </c>
       <c r="L5">
-        <v>0.5518154819810727</v>
+        <v>0.4803562925238569</v>
       </c>
       <c r="M5">
-        <v>0.5518154819810727</v>
+        <v>0.4834710131737679</v>
       </c>
       <c r="N5">
-        <v>0.6905951922324439</v>
+        <v>0.6012164217044564</v>
       </c>
       <c r="O5">
-        <v>0.6905951922324439</v>
+        <v>0.6205763854941019</v>
       </c>
       <c r="P5">
-        <v>0.6905951922324439</v>
+        <v>0.6205763854941019</v>
       </c>
       <c r="Q5">
-        <v>0.6905951922324439</v>
+        <v>0.6205763854941019</v>
       </c>
       <c r="R5">
-        <v>0.6905951922324439</v>
+        <v>0.6205763854941019</v>
       </c>
       <c r="S5">
-        <v>0.8417535385344652</v>
+        <v>0.7464905388027725</v>
       </c>
       <c r="T5">
-        <v>0.8717459385380575</v>
+        <v>0.7924464732055256</v>
       </c>
       <c r="U5">
-        <v>0.8717459385380575</v>
+        <v>0.8028360734833491</v>
       </c>
       <c r="V5">
-        <v>0.8717459385380575</v>
+        <v>0.8168477248268067</v>
       </c>
       <c r="W5">
-        <v>0.8717459385380575</v>
+        <v>0.8294321860653636</v>
       </c>
       <c r="X5">
-        <v>0.8981511632153453</v>
+        <v>0.8730209194619188</v>
       </c>
       <c r="Y5">
-        <v>0.8981511632153453</v>
+        <v>0.8730209194619188</v>
       </c>
       <c r="Z5">
-        <v>0.8981511632153453</v>
+        <v>0.8980036601414562</v>
       </c>
       <c r="AA5">
-        <v>0.8981511632153453</v>
+        <v>0.8980036601414562</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.991378138099247</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9950713764963711</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3604577062441743</v>
+        <v>0.2757231733162987</v>
       </c>
       <c r="E6">
-        <v>0.3604577062441743</v>
+        <v>0.2769610669255573</v>
       </c>
       <c r="F6">
-        <v>0.659157988755793</v>
+        <v>0.5098716314488122</v>
       </c>
       <c r="G6">
-        <v>0.659157988755793</v>
+        <v>0.5098716314488122</v>
       </c>
       <c r="H6">
-        <v>0.6618663990312686</v>
+        <v>0.5375893063391661</v>
       </c>
       <c r="I6">
-        <v>0.6618663990312686</v>
+        <v>0.5375893063391661</v>
       </c>
       <c r="J6">
-        <v>0.6618663990312686</v>
+        <v>0.5375893063391661</v>
       </c>
       <c r="K6">
-        <v>0.6618663990312686</v>
+        <v>0.5375893063391661</v>
       </c>
       <c r="L6">
-        <v>0.6636314554162002</v>
+        <v>0.5646530122225848</v>
       </c>
       <c r="M6">
-        <v>0.6636314554162002</v>
+        <v>0.5646530122225848</v>
       </c>
       <c r="N6">
-        <v>0.7307488955746955</v>
+        <v>0.6370214907323188</v>
       </c>
       <c r="O6">
-        <v>0.74298425902728</v>
+        <v>0.6713436140389074</v>
       </c>
       <c r="P6">
-        <v>0.74298425902728</v>
+        <v>0.6713436140389074</v>
       </c>
       <c r="Q6">
-        <v>0.74298425902728</v>
+        <v>0.6713436140389074</v>
       </c>
       <c r="R6">
-        <v>0.74298425902728</v>
+        <v>0.6713436140389074</v>
       </c>
       <c r="S6">
-        <v>0.8768096375881453</v>
+        <v>0.7899565875032717</v>
       </c>
       <c r="T6">
-        <v>0.9463677415029794</v>
+        <v>0.8640170275016844</v>
       </c>
       <c r="U6">
-        <v>0.9463677415029794</v>
+        <v>0.8640170275016844</v>
       </c>
       <c r="V6">
-        <v>0.9463677415029794</v>
+        <v>0.8769293739196131</v>
       </c>
       <c r="W6">
-        <v>0.9463677415029794</v>
+        <v>0.8826748714916788</v>
       </c>
       <c r="X6">
-        <v>0.9500313983619669</v>
+        <v>0.9110547598587135</v>
       </c>
       <c r="Y6">
-        <v>0.9500313983619669</v>
+        <v>0.9110547598587135</v>
       </c>
       <c r="Z6">
-        <v>0.9500313983619669</v>
+        <v>0.9159026427502051</v>
       </c>
       <c r="AA6">
-        <v>0.9500313983619669</v>
+        <v>0.9159026427502051</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>0.9763828903322522</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.9894098996576202</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9928145429718723</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5182378746247814</v>
+        <v>0.5687507249221986</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6083515269848265</v>
+        <v>0.5189482025121527</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5475860521840092</v>
+        <v>0.5178569530461781</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -2074,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5304143091983706</v>
+        <v>0.6012164217044564</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.659157988755793</v>
+        <v>0.5098716314488122</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7390069188719283</v>
+        <v>0.7706492876254465</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7241007992846362</v>
+        <v>0.7394925734221207</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7173493594459146</v>
+        <v>0.8028946941430707</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8417535385344652</v>
+        <v>0.7464905388027725</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7307488955746955</v>
+        <v>0.7899565875032717</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8454300587039357</v>
+      </c>
+      <c r="G2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8507422956454008</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8473784545986447</v>
+        <v>0.8123785990308876</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8914856415115939</v>
+        <v>0.8028946941430707</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2592,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8417535385344652</v>
+        <v>0.8028360734833491</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -2633,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8640170275016844</v>
+      </c>
+      <c r="G6">
         <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8768096375881453</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.92574885618353</v>
+        <v>0.9474018007277922</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9189522649082381</v>
+        <v>0.9139261572121128</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9237592991302347</v>
+        <v>0.9084623007353076</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.991378138099247</v>
       </c>
       <c r="G5">
         <v>26</v>
@@ -2892,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9463677415029794</v>
+        <v>0.9110547598587135</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>13</v>
